--- a/src/data/MovieMovieMovies.xlsx
+++ b/src/data/MovieMovieMovies.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25602"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25604"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/764279bd75dbfa1e/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{904A1CB8-1514-4C2F-9864-B26CE04264D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{60A440BA-1BD0-4C73-9484-051B0AE42214}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-105" yWindow="-105" windowWidth="19425" windowHeight="10305" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,8 +24,8 @@
   </definedNames>
   <calcPr calcId="191028"/>
   <pivotCaches>
-    <pivotCache cacheId="183" r:id="rId5"/>
-    <pivotCache cacheId="184" r:id="rId6"/>
+    <pivotCache cacheId="1768" r:id="rId5"/>
+    <pivotCache cacheId="1769" r:id="rId6"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2990" uniqueCount="1004">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2994" uniqueCount="1004">
   <si>
     <t>Movie</t>
   </si>
@@ -1551,6 +1551,9 @@
     <t>Madagascar</t>
   </si>
   <si>
+    <t>The Great Mouse Detective</t>
+  </si>
+  <si>
     <t>Over the Hedge</t>
   </si>
   <si>
@@ -2539,9 +2542,6 @@
   </si>
   <si>
     <t>SPF-18</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Coming-of-Age</t>
   </si>
   <si>
     <t>Delta Farce</t>
@@ -3520,45 +3520,6 @@
   </cellStyles>
   <dxfs count="34">
     <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
       <numFmt numFmtId="2" formatCode="0.00"/>
     </dxf>
     <dxf>
@@ -3620,6 +3581,45 @@
     </dxf>
     <dxf>
       <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -23622,7 +23622,493 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0100-000002000000}" name="PivotTable7" cacheId="183" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" grandTotalCaption="Total" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1" rowHeaderCaption="Score">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{D9BD016B-08B9-4843-937B-88F34141CC0D}" name="PivotTable2" cacheId="1769" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" grandTotalCaption="Total" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1" rowHeaderCaption="Genre">
+  <location ref="D22:G41" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="11">
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" numFmtId="1" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="19">
+        <item x="7"/>
+        <item x="11"/>
+        <item x="0"/>
+        <item x="9"/>
+        <item x="1"/>
+        <item x="10"/>
+        <item x="3"/>
+        <item x="14"/>
+        <item x="4"/>
+        <item x="13"/>
+        <item x="15"/>
+        <item x="6"/>
+        <item x="2"/>
+        <item x="12"/>
+        <item x="16"/>
+        <item x="5"/>
+        <item x="17"/>
+        <item x="8"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="6"/>
+  </rowFields>
+  <rowItems count="19">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="8"/>
+    </i>
+    <i>
+      <x v="9"/>
+    </i>
+    <i>
+      <x v="10"/>
+    </i>
+    <i>
+      <x v="11"/>
+    </i>
+    <i>
+      <x v="12"/>
+    </i>
+    <i>
+      <x v="13"/>
+    </i>
+    <i>
+      <x v="14"/>
+    </i>
+    <i>
+      <x v="15"/>
+    </i>
+    <i>
+      <x v="16"/>
+    </i>
+    <i>
+      <x v="17"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="-2"/>
+  </colFields>
+  <colItems count="3">
+    <i>
+      <x/>
+    </i>
+    <i i="1">
+      <x v="1"/>
+    </i>
+    <i i="2">
+      <x v="2"/>
+    </i>
+  </colItems>
+  <dataFields count="3">
+    <dataField name="Count" fld="0" subtotal="count" baseField="0" baseItem="0"/>
+    <dataField name="Percentage" fld="0" subtotal="count" showDataAs="percentOfTotal" baseField="0" baseItem="4294967295" numFmtId="10"/>
+    <dataField name="Average" fld="1" subtotal="average" baseField="4" baseItem="0" numFmtId="2"/>
+  </dataFields>
+  <formats count="13">
+    <format dxfId="21">
+      <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="22">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+    <format dxfId="23">
+      <pivotArea field="6" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
+    </format>
+    <format dxfId="24">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="1">
+          <reference field="6" count="0"/>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="25">
+      <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="26">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
+    </format>
+    <format dxfId="27">
+      <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="28">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+    <format dxfId="29">
+      <pivotArea field="6" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
+    </format>
+    <format dxfId="30">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="1">
+          <reference field="6" count="0"/>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="31">
+      <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="32">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
+    </format>
+    <format dxfId="33">
+      <pivotArea outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+  </formats>
+  <conditionalFormats count="2">
+    <conditionalFormat priority="2">
+      <pivotAreas count="1">
+        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
+          <references count="2">
+            <reference field="4294967294" count="1" selected="0">
+              <x v="1"/>
+            </reference>
+            <reference field="6" count="18">
+              <x v="0"/>
+              <x v="1"/>
+              <x v="2"/>
+              <x v="3"/>
+              <x v="4"/>
+              <x v="5"/>
+              <x v="6"/>
+              <x v="7"/>
+              <x v="8"/>
+              <x v="9"/>
+              <x v="10"/>
+              <x v="11"/>
+              <x v="12"/>
+              <x v="13"/>
+              <x v="14"/>
+              <x v="15"/>
+              <x v="16"/>
+              <x v="17"/>
+            </reference>
+          </references>
+        </pivotArea>
+      </pivotAreas>
+    </conditionalFormat>
+    <conditionalFormat priority="3">
+      <pivotAreas count="1">
+        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
+          <references count="2">
+            <reference field="4294967294" count="1" selected="0">
+              <x v="2"/>
+            </reference>
+            <reference field="6" count="18">
+              <x v="0"/>
+              <x v="1"/>
+              <x v="2"/>
+              <x v="3"/>
+              <x v="4"/>
+              <x v="5"/>
+              <x v="6"/>
+              <x v="7"/>
+              <x v="8"/>
+              <x v="9"/>
+              <x v="10"/>
+              <x v="11"/>
+              <x v="12"/>
+              <x v="13"/>
+              <x v="14"/>
+              <x v="15"/>
+              <x v="16"/>
+              <x v="17"/>
+            </reference>
+          </references>
+        </pivotArea>
+      </pivotAreas>
+    </conditionalFormat>
+  </conditionalFormats>
+  <chartFormats count="20">
+    <chartFormat chart="0" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="6" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="2">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="6" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="3">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="6" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="4">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="6" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="5">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="6" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="6">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="6" count="1" selected="0">
+            <x v="5"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="7">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="6" count="1" selected="0">
+            <x v="6"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="8">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="6" count="1" selected="0">
+            <x v="7"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="9">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="6" count="1" selected="0">
+            <x v="8"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="10">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="6" count="1" selected="0">
+            <x v="9"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="11">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="6" count="1" selected="0">
+            <x v="10"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="12">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="6" count="1" selected="0">
+            <x v="11"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="13">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="6" count="1" selected="0">
+            <x v="12"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="14">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="6" count="1" selected="0">
+            <x v="13"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="15">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="6" count="1" selected="0">
+            <x v="14"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="16">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="6" count="1" selected="0">
+            <x v="15"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="20">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="6" count="1" selected="0">
+            <x v="16"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="21">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="6" count="1" selected="0">
+            <x v="17"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="22" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleMedium9" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0100-000002000000}" name="PivotTable7" cacheId="1768" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" grandTotalCaption="Total" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1" rowHeaderCaption="Score">
   <location ref="A1:B22" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="11">
     <pivotField dataField="1" showAll="0"/>
@@ -23738,19 +24224,19 @@
     <dataField name="Count" fld="0" subtotal="count" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="5">
-    <format dxfId="29">
+    <format dxfId="16">
       <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="30">
+    <format dxfId="17">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="31">
+    <format dxfId="18">
       <pivotArea field="1" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="32">
+    <format dxfId="19">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="33">
+    <format dxfId="20">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
     </format>
   </formats>
@@ -23812,8 +24298,8 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{B57D02EE-D101-4DEC-8230-A939E26BD733}" name="PivotTable3" cacheId="184" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" grandTotalCaption="Total" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" compact="0" compactData="0" multipleFieldFilters="0" chartFormat="1">
+<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{B57D02EE-D101-4DEC-8230-A939E26BD733}" name="PivotTable3" cacheId="1769" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" grandTotalCaption="Total" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" compact="0" compactData="0" multipleFieldFilters="0" chartFormat="1">
   <location ref="P1:R71" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="11">
     <pivotField compact="0" outline="0" showAll="0"/>
@@ -24132,7 +24618,7 @@
     <dataField name="Score Ave" fld="1" subtotal="average" baseField="8" baseItem="8"/>
   </dataFields>
   <formats count="16">
-    <format dxfId="13">
+    <format dxfId="0">
       <pivotArea outline="0" fieldPosition="0">
         <references count="2">
           <reference field="4294967294" count="1" selected="0">
@@ -24142,7 +24628,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="14">
+    <format dxfId="1">
       <pivotArea field="10" grandRow="1" outline="0" axis="axisRow" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1" selected="0">
@@ -24151,16 +24637,16 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="15">
+    <format dxfId="2">
       <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="16">
+    <format dxfId="3">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="17">
+    <format dxfId="4">
       <pivotArea field="10" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="18">
+    <format dxfId="5">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="10" count="50">
@@ -24218,7 +24704,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="19">
+    <format dxfId="6">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="10" count="13">
@@ -24239,10 +24725,10 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="20">
+    <format dxfId="7">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="21">
+    <format dxfId="8">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="2">
@@ -24252,16 +24738,16 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="22">
+    <format dxfId="9">
       <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="23">
+    <format dxfId="10">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="24">
+    <format dxfId="11">
       <pivotArea field="10" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="25">
+    <format dxfId="12">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="10" count="50">
@@ -24319,7 +24805,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="26">
+    <format dxfId="13">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="10" count="13">
@@ -24340,10 +24826,10 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="27">
+    <format dxfId="14">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="28">
+    <format dxfId="15">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="2">
@@ -24355,6 +24841,88 @@
     </format>
   </formats>
   <conditionalFormats count="2">
+    <conditionalFormat priority="5">
+      <pivotAreas count="1">
+        <pivotArea type="data" outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0">
+          <references count="2">
+            <reference field="4294967294" count="1" selected="0">
+              <x v="0"/>
+            </reference>
+            <reference field="10" count="69" selected="0">
+              <x v="0"/>
+              <x v="1"/>
+              <x v="2"/>
+              <x v="3"/>
+              <x v="4"/>
+              <x v="5"/>
+              <x v="6"/>
+              <x v="7"/>
+              <x v="8"/>
+              <x v="9"/>
+              <x v="10"/>
+              <x v="11"/>
+              <x v="12"/>
+              <x v="13"/>
+              <x v="14"/>
+              <x v="15"/>
+              <x v="16"/>
+              <x v="17"/>
+              <x v="18"/>
+              <x v="19"/>
+              <x v="20"/>
+              <x v="21"/>
+              <x v="22"/>
+              <x v="23"/>
+              <x v="24"/>
+              <x v="25"/>
+              <x v="26"/>
+              <x v="27"/>
+              <x v="28"/>
+              <x v="29"/>
+              <x v="30"/>
+              <x v="31"/>
+              <x v="32"/>
+              <x v="33"/>
+              <x v="34"/>
+              <x v="35"/>
+              <x v="36"/>
+              <x v="37"/>
+              <x v="38"/>
+              <x v="39"/>
+              <x v="40"/>
+              <x v="41"/>
+              <x v="42"/>
+              <x v="43"/>
+              <x v="44"/>
+              <x v="45"/>
+              <x v="46"/>
+              <x v="47"/>
+              <x v="48"/>
+              <x v="49"/>
+              <x v="50"/>
+              <x v="51"/>
+              <x v="52"/>
+              <x v="53"/>
+              <x v="54"/>
+              <x v="55"/>
+              <x v="56"/>
+              <x v="57"/>
+              <x v="58"/>
+              <x v="59"/>
+              <x v="60"/>
+              <x v="61"/>
+              <x v="62"/>
+              <x v="63"/>
+              <x v="64"/>
+              <x v="65"/>
+              <x v="66"/>
+              <x v="67"/>
+              <x v="68"/>
+            </reference>
+          </references>
+        </pivotArea>
+      </pivotAreas>
+    </conditionalFormat>
     <conditionalFormat priority="6">
       <pivotAreas count="1">
         <pivotArea type="data" outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0">
@@ -24437,576 +25005,8 @@
         </pivotArea>
       </pivotAreas>
     </conditionalFormat>
-    <conditionalFormat priority="5">
-      <pivotAreas count="1">
-        <pivotArea type="data" outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0">
-          <references count="2">
-            <reference field="4294967294" count="1" selected="0">
-              <x v="0"/>
-            </reference>
-            <reference field="10" count="69" selected="0">
-              <x v="0"/>
-              <x v="1"/>
-              <x v="2"/>
-              <x v="3"/>
-              <x v="4"/>
-              <x v="5"/>
-              <x v="6"/>
-              <x v="7"/>
-              <x v="8"/>
-              <x v="9"/>
-              <x v="10"/>
-              <x v="11"/>
-              <x v="12"/>
-              <x v="13"/>
-              <x v="14"/>
-              <x v="15"/>
-              <x v="16"/>
-              <x v="17"/>
-              <x v="18"/>
-              <x v="19"/>
-              <x v="20"/>
-              <x v="21"/>
-              <x v="22"/>
-              <x v="23"/>
-              <x v="24"/>
-              <x v="25"/>
-              <x v="26"/>
-              <x v="27"/>
-              <x v="28"/>
-              <x v="29"/>
-              <x v="30"/>
-              <x v="31"/>
-              <x v="32"/>
-              <x v="33"/>
-              <x v="34"/>
-              <x v="35"/>
-              <x v="36"/>
-              <x v="37"/>
-              <x v="38"/>
-              <x v="39"/>
-              <x v="40"/>
-              <x v="41"/>
-              <x v="42"/>
-              <x v="43"/>
-              <x v="44"/>
-              <x v="45"/>
-              <x v="46"/>
-              <x v="47"/>
-              <x v="48"/>
-              <x v="49"/>
-              <x v="50"/>
-              <x v="51"/>
-              <x v="52"/>
-              <x v="53"/>
-              <x v="54"/>
-              <x v="55"/>
-              <x v="56"/>
-              <x v="57"/>
-              <x v="58"/>
-              <x v="59"/>
-              <x v="60"/>
-              <x v="61"/>
-              <x v="62"/>
-              <x v="63"/>
-              <x v="64"/>
-              <x v="65"/>
-              <x v="66"/>
-              <x v="67"/>
-              <x v="68"/>
-            </reference>
-          </references>
-        </pivotArea>
-      </pivotAreas>
-    </conditionalFormat>
   </conditionalFormats>
   <pivotTableStyleInfo name="PivotStyleMedium9" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="1" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{D9BD016B-08B9-4843-937B-88F34141CC0D}" name="PivotTable2" cacheId="184" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" grandTotalCaption="Total" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1" rowHeaderCaption="Genre">
-  <location ref="D22:G41" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="11">
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField dataField="1" numFmtId="1" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisRow" showAll="0">
-      <items count="19">
-        <item x="7"/>
-        <item x="11"/>
-        <item x="0"/>
-        <item x="9"/>
-        <item x="1"/>
-        <item x="10"/>
-        <item x="3"/>
-        <item x="14"/>
-        <item x="4"/>
-        <item x="13"/>
-        <item x="15"/>
-        <item x="6"/>
-        <item x="2"/>
-        <item x="12"/>
-        <item x="16"/>
-        <item x="5"/>
-        <item x="17"/>
-        <item x="8"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="6"/>
-  </rowFields>
-  <rowItems count="19">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="5"/>
-    </i>
-    <i>
-      <x v="6"/>
-    </i>
-    <i>
-      <x v="7"/>
-    </i>
-    <i>
-      <x v="8"/>
-    </i>
-    <i>
-      <x v="9"/>
-    </i>
-    <i>
-      <x v="10"/>
-    </i>
-    <i>
-      <x v="11"/>
-    </i>
-    <i>
-      <x v="12"/>
-    </i>
-    <i>
-      <x v="13"/>
-    </i>
-    <i>
-      <x v="14"/>
-    </i>
-    <i>
-      <x v="15"/>
-    </i>
-    <i>
-      <x v="16"/>
-    </i>
-    <i>
-      <x v="17"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colFields count="1">
-    <field x="-2"/>
-  </colFields>
-  <colItems count="3">
-    <i>
-      <x/>
-    </i>
-    <i i="1">
-      <x v="1"/>
-    </i>
-    <i i="2">
-      <x v="2"/>
-    </i>
-  </colItems>
-  <dataFields count="3">
-    <dataField name="Count" fld="0" subtotal="count" baseField="0" baseItem="0"/>
-    <dataField name="Percentage" fld="0" subtotal="count" showDataAs="percentOfTotal" baseField="0" baseItem="4294967295" numFmtId="10"/>
-    <dataField name="Average" fld="1" subtotal="average" baseField="4" baseItem="0" numFmtId="2"/>
-  </dataFields>
-  <formats count="13">
-    <format dxfId="0">
-      <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
-    </format>
-    <format dxfId="1">
-      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
-    </format>
-    <format dxfId="2">
-      <pivotArea field="6" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
-    </format>
-    <format dxfId="3">
-      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
-        <references count="1">
-          <reference field="6" count="0"/>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="4">
-      <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
-    </format>
-    <format dxfId="5">
-      <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
-    </format>
-    <format dxfId="6">
-      <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
-    </format>
-    <format dxfId="7">
-      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
-    </format>
-    <format dxfId="8">
-      <pivotArea field="6" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
-    </format>
-    <format dxfId="9">
-      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
-        <references count="1">
-          <reference field="6" count="0"/>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="10">
-      <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
-    </format>
-    <format dxfId="11">
-      <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
-    </format>
-    <format dxfId="12">
-      <pivotArea outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-  </formats>
-  <conditionalFormats count="2">
-    <conditionalFormat priority="3">
-      <pivotAreas count="1">
-        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
-          <references count="2">
-            <reference field="4294967294" count="1" selected="0">
-              <x v="2"/>
-            </reference>
-            <reference field="6" count="18">
-              <x v="0"/>
-              <x v="1"/>
-              <x v="2"/>
-              <x v="3"/>
-              <x v="4"/>
-              <x v="5"/>
-              <x v="6"/>
-              <x v="7"/>
-              <x v="8"/>
-              <x v="9"/>
-              <x v="10"/>
-              <x v="11"/>
-              <x v="12"/>
-              <x v="13"/>
-              <x v="14"/>
-              <x v="15"/>
-              <x v="16"/>
-              <x v="17"/>
-            </reference>
-          </references>
-        </pivotArea>
-      </pivotAreas>
-    </conditionalFormat>
-    <conditionalFormat priority="2">
-      <pivotAreas count="1">
-        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
-          <references count="2">
-            <reference field="4294967294" count="1" selected="0">
-              <x v="1"/>
-            </reference>
-            <reference field="6" count="18">
-              <x v="0"/>
-              <x v="1"/>
-              <x v="2"/>
-              <x v="3"/>
-              <x v="4"/>
-              <x v="5"/>
-              <x v="6"/>
-              <x v="7"/>
-              <x v="8"/>
-              <x v="9"/>
-              <x v="10"/>
-              <x v="11"/>
-              <x v="12"/>
-              <x v="13"/>
-              <x v="14"/>
-              <x v="15"/>
-              <x v="16"/>
-              <x v="17"/>
-            </reference>
-          </references>
-        </pivotArea>
-      </pivotAreas>
-    </conditionalFormat>
-  </conditionalFormats>
-  <chartFormats count="20">
-    <chartFormat chart="0" format="0" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="6" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="2">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="6" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="3">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="6" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="4">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="6" count="1" selected="0">
-            <x v="3"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="5">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="6" count="1" selected="0">
-            <x v="4"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="6">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="6" count="1" selected="0">
-            <x v="5"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="7">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="6" count="1" selected="0">
-            <x v="6"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="8">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="6" count="1" selected="0">
-            <x v="7"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="9">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="6" count="1" selected="0">
-            <x v="8"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="10">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="6" count="1" selected="0">
-            <x v="9"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="11">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="6" count="1" selected="0">
-            <x v="10"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="12">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="6" count="1" selected="0">
-            <x v="11"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="13">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="6" count="1" selected="0">
-            <x v="12"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="14">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="6" count="1" selected="0">
-            <x v="13"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="15">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="6" count="1" selected="0">
-            <x v="14"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="16">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="6" count="1" selected="0">
-            <x v="15"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="20">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="6" count="1" selected="0">
-            <x v="16"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="21">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="6" count="1" selected="0">
-            <x v="17"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="22" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotTableStyleInfo name="PivotStyleMedium9" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
       <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
@@ -25315,10 +25315,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K715"/>
+  <dimension ref="A1:K716"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A663" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="A716" sqref="A716"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -33058,13 +33058,16 @@
         <v>68</v>
       </c>
       <c r="E392" s="44" t="s">
-        <v>30</v>
+        <v>12</v>
+      </c>
+      <c r="F392" s="45" t="s">
+        <v>73</v>
       </c>
       <c r="G392" s="46" t="s">
         <v>14</v>
       </c>
       <c r="K392" s="50">
-        <v>2006</v>
+        <v>1986</v>
       </c>
     </row>
     <row r="393" spans="1:11">
@@ -33077,19 +33080,16 @@
       <c r="E393" s="44" t="s">
         <v>30</v>
       </c>
-      <c r="F393" s="45" t="s">
-        <v>501</v>
-      </c>
       <c r="G393" s="46" t="s">
         <v>14</v>
       </c>
       <c r="K393" s="50">
-        <v>2008</v>
+        <v>2006</v>
       </c>
     </row>
     <row r="394" spans="1:11">
       <c r="A394" s="42" t="s">
-        <v>501</v>
+        <v>504</v>
       </c>
       <c r="B394" s="43">
         <v>67</v>
@@ -33104,21 +33104,27 @@
         <v>14</v>
       </c>
       <c r="K394" s="50">
-        <v>2005</v>
+        <v>2008</v>
       </c>
     </row>
     <row r="395" spans="1:11">
       <c r="A395" s="42" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="B395" s="43">
         <v>67</v>
       </c>
+      <c r="E395" s="44" t="s">
+        <v>30</v>
+      </c>
+      <c r="F395" s="45" t="s">
+        <v>501</v>
+      </c>
       <c r="G395" s="46" t="s">
-        <v>54</v>
+        <v>14</v>
       </c>
       <c r="K395" s="50">
-        <v>2006</v>
+        <v>2005</v>
       </c>
     </row>
     <row r="396" spans="1:11">
@@ -33129,13 +33135,10 @@
         <v>67</v>
       </c>
       <c r="G396" s="46" t="s">
-        <v>382</v>
-      </c>
-      <c r="H396" s="47" t="s">
         <v>54</v>
       </c>
       <c r="K396" s="50">
-        <v>2001</v>
+        <v>2006</v>
       </c>
     </row>
     <row r="397" spans="1:11">
@@ -33145,17 +33148,14 @@
       <c r="B397" s="43">
         <v>67</v>
       </c>
-      <c r="E397" s="44" t="s">
-        <v>12</v>
-      </c>
-      <c r="F397" s="45" t="s">
-        <v>73</v>
-      </c>
       <c r="G397" s="46" t="s">
-        <v>14</v>
+        <v>382</v>
+      </c>
+      <c r="H397" s="47" t="s">
+        <v>54</v>
       </c>
       <c r="K397" s="50">
-        <v>1963</v>
+        <v>2001</v>
       </c>
     </row>
     <row r="398" spans="1:11">
@@ -33163,39 +33163,39 @@
         <v>507</v>
       </c>
       <c r="B398" s="43">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E398" s="44" t="s">
-        <v>508</v>
+        <v>12</v>
+      </c>
+      <c r="F398" s="45" t="s">
+        <v>73</v>
       </c>
       <c r="G398" s="46" t="s">
-        <v>382</v>
-      </c>
-      <c r="H398" s="47" t="s">
-        <v>54</v>
+        <v>14</v>
       </c>
       <c r="K398" s="50">
-        <v>1999</v>
+        <v>1963</v>
       </c>
     </row>
     <row r="399" spans="1:11">
       <c r="A399" s="42" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="B399" s="43">
         <v>66</v>
       </c>
       <c r="E399" s="44" t="s">
-        <v>75</v>
-      </c>
-      <c r="F399" s="45" t="s">
-        <v>168</v>
+        <v>509</v>
       </c>
       <c r="G399" s="46" t="s">
-        <v>14</v>
+        <v>382</v>
+      </c>
+      <c r="H399" s="47" t="s">
+        <v>54</v>
       </c>
       <c r="K399" s="50">
-        <v>2019</v>
+        <v>1999</v>
       </c>
     </row>
     <row r="400" spans="1:11">
@@ -33206,19 +33206,16 @@
         <v>66</v>
       </c>
       <c r="E400" s="44" t="s">
-        <v>12</v>
+        <v>75</v>
       </c>
       <c r="F400" s="45" t="s">
-        <v>73</v>
+        <v>168</v>
       </c>
       <c r="G400" s="46" t="s">
         <v>14</v>
       </c>
-      <c r="H400" s="47" t="s">
-        <v>31</v>
-      </c>
       <c r="K400" s="50">
-        <v>1995</v>
+        <v>2019</v>
       </c>
     </row>
     <row r="401" spans="1:11">
@@ -33229,16 +33226,19 @@
         <v>66</v>
       </c>
       <c r="E401" s="44" t="s">
-        <v>75</v>
+        <v>12</v>
       </c>
       <c r="F401" s="45" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="G401" s="46" t="s">
-        <v>34</v>
+        <v>14</v>
+      </c>
+      <c r="H401" s="47" t="s">
+        <v>31</v>
       </c>
       <c r="K401" s="50">
-        <v>2020</v>
+        <v>1995</v>
       </c>
     </row>
     <row r="402" spans="1:11">
@@ -33249,16 +33249,16 @@
         <v>66</v>
       </c>
       <c r="E402" s="44" t="s">
-        <v>30</v>
+        <v>75</v>
       </c>
       <c r="F402" s="45" t="s">
-        <v>512</v>
+        <v>82</v>
       </c>
       <c r="G402" s="46" t="s">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="K402" s="50">
-        <v>2013</v>
+        <v>2020</v>
       </c>
     </row>
     <row r="403" spans="1:11">
@@ -33266,19 +33266,19 @@
         <v>513</v>
       </c>
       <c r="B403" s="43">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E403" s="44" t="s">
-        <v>278</v>
+        <v>30</v>
+      </c>
+      <c r="F403" s="45" t="s">
+        <v>513</v>
       </c>
       <c r="G403" s="46" t="s">
-        <v>57</v>
-      </c>
-      <c r="H403" s="47" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="K403" s="50">
-        <v>2021</v>
+        <v>2013</v>
       </c>
     </row>
     <row r="404" spans="1:11">
@@ -33289,16 +33289,16 @@
         <v>65</v>
       </c>
       <c r="E404" s="44" t="s">
-        <v>12</v>
-      </c>
-      <c r="F404" s="45" t="s">
-        <v>73</v>
+        <v>278</v>
       </c>
       <c r="G404" s="46" t="s">
-        <v>14</v>
+        <v>57</v>
+      </c>
+      <c r="H404" s="47" t="s">
+        <v>24</v>
       </c>
       <c r="K404" s="50">
-        <v>1996</v>
+        <v>2021</v>
       </c>
     </row>
     <row r="405" spans="1:11">
@@ -33309,16 +33309,16 @@
         <v>65</v>
       </c>
       <c r="E405" s="44" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="F405" s="45" t="s">
-        <v>17</v>
+        <v>73</v>
       </c>
       <c r="G405" s="46" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="K405" s="50">
-        <v>2011</v>
+        <v>1996</v>
       </c>
     </row>
     <row r="406" spans="1:11">
@@ -33329,16 +33329,16 @@
         <v>65</v>
       </c>
       <c r="E406" s="44" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="F406" s="45" t="s">
-        <v>73</v>
+        <v>17</v>
       </c>
       <c r="G406" s="46" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="K406" s="50">
-        <v>1949</v>
+        <v>2011</v>
       </c>
     </row>
     <row r="407" spans="1:11">
@@ -33349,19 +33349,16 @@
         <v>65</v>
       </c>
       <c r="E407" s="44" t="s">
-        <v>75</v>
+        <v>12</v>
       </c>
       <c r="F407" s="45" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="G407" s="46" t="s">
-        <v>133</v>
-      </c>
-      <c r="H407" s="47" t="s">
-        <v>54</v>
+        <v>14</v>
       </c>
       <c r="K407" s="50">
-        <v>1996</v>
+        <v>1949</v>
       </c>
     </row>
     <row r="408" spans="1:11">
@@ -33369,19 +33366,22 @@
         <v>518</v>
       </c>
       <c r="B408" s="43">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E408" s="44" t="s">
-        <v>278</v>
+        <v>75</v>
+      </c>
+      <c r="F408" s="45" t="s">
+        <v>82</v>
       </c>
       <c r="G408" s="46" t="s">
-        <v>57</v>
+        <v>133</v>
       </c>
       <c r="H408" s="47" t="s">
-        <v>24</v>
+        <v>54</v>
       </c>
       <c r="K408" s="50">
-        <v>2017</v>
+        <v>1996</v>
       </c>
     </row>
     <row r="409" spans="1:11">
@@ -33392,16 +33392,16 @@
         <v>64</v>
       </c>
       <c r="E409" s="44" t="s">
-        <v>16</v>
-      </c>
-      <c r="F409" s="45" t="s">
-        <v>17</v>
+        <v>278</v>
       </c>
       <c r="G409" s="46" t="s">
-        <v>18</v>
+        <v>57</v>
+      </c>
+      <c r="H409" s="47" t="s">
+        <v>24</v>
       </c>
       <c r="K409" s="50">
-        <v>2008</v>
+        <v>2017</v>
       </c>
     </row>
     <row r="410" spans="1:11">
@@ -33412,13 +33412,16 @@
         <v>64</v>
       </c>
       <c r="E410" s="44" t="s">
-        <v>30</v>
+        <v>16</v>
+      </c>
+      <c r="F410" s="45" t="s">
+        <v>17</v>
       </c>
       <c r="G410" s="46" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="K410" s="50">
-        <v>2009</v>
+        <v>2008</v>
       </c>
     </row>
     <row r="411" spans="1:11">
@@ -33429,30 +33432,33 @@
         <v>64</v>
       </c>
       <c r="E411" s="44" t="s">
-        <v>522</v>
+        <v>30</v>
       </c>
       <c r="G411" s="46" t="s">
-        <v>57</v>
-      </c>
-      <c r="H411" s="47" t="s">
-        <v>54</v>
+        <v>14</v>
       </c>
       <c r="K411" s="50">
-        <v>2017</v>
+        <v>2009</v>
       </c>
     </row>
     <row r="412" spans="1:11">
       <c r="A412" s="42" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="B412" s="43">
         <v>64</v>
       </c>
+      <c r="E412" s="44" t="s">
+        <v>523</v>
+      </c>
       <c r="G412" s="46" t="s">
-        <v>24</v>
+        <v>57</v>
+      </c>
+      <c r="H412" s="47" t="s">
+        <v>54</v>
       </c>
       <c r="K412" s="50">
-        <v>1996</v>
+        <v>2017</v>
       </c>
     </row>
     <row r="413" spans="1:11">
@@ -33460,19 +33466,13 @@
         <v>524</v>
       </c>
       <c r="B413" s="43">
-        <v>63</v>
-      </c>
-      <c r="E413" s="44" t="s">
-        <v>217</v>
-      </c>
-      <c r="F413" s="45" t="s">
-        <v>216</v>
+        <v>64</v>
       </c>
       <c r="G413" s="46" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="K413" s="50">
-        <v>2017</v>
+        <v>1996</v>
       </c>
     </row>
     <row r="414" spans="1:11">
@@ -33483,22 +33483,16 @@
         <v>63</v>
       </c>
       <c r="E414" s="44" t="s">
-        <v>12</v>
+        <v>217</v>
       </c>
       <c r="F414" s="45" t="s">
-        <v>264</v>
+        <v>216</v>
       </c>
       <c r="G414" s="46" t="s">
-        <v>54</v>
-      </c>
-      <c r="H414" s="47" t="s">
-        <v>158</v>
-      </c>
-      <c r="I414" s="48" t="s">
-        <v>98</v>
+        <v>14</v>
       </c>
       <c r="K414" s="50">
-        <v>2002</v>
+        <v>2017</v>
       </c>
     </row>
     <row r="415" spans="1:11">
@@ -33509,19 +33503,22 @@
         <v>63</v>
       </c>
       <c r="E415" s="44" t="s">
-        <v>75</v>
+        <v>12</v>
       </c>
       <c r="F415" s="45" t="s">
-        <v>82</v>
+        <v>264</v>
       </c>
       <c r="G415" s="46" t="s">
         <v>54</v>
       </c>
-      <c r="J415" s="49" t="s">
-        <v>146</v>
+      <c r="H415" s="47" t="s">
+        <v>158</v>
+      </c>
+      <c r="I415" s="48" t="s">
+        <v>98</v>
       </c>
       <c r="K415" s="50">
-        <v>2021</v>
+        <v>2002</v>
       </c>
     </row>
     <row r="416" spans="1:11">
@@ -33532,13 +33529,19 @@
         <v>63</v>
       </c>
       <c r="E416" s="44" t="s">
-        <v>154</v>
+        <v>75</v>
+      </c>
+      <c r="F416" s="45" t="s">
+        <v>82</v>
       </c>
       <c r="G416" s="46" t="s">
         <v>54</v>
       </c>
+      <c r="J416" s="49" t="s">
+        <v>146</v>
+      </c>
       <c r="K416" s="50">
-        <v>1995</v>
+        <v>2021</v>
       </c>
     </row>
     <row r="417" spans="1:11">
@@ -33548,14 +33551,14 @@
       <c r="B417" s="43">
         <v>63</v>
       </c>
+      <c r="E417" s="44" t="s">
+        <v>154</v>
+      </c>
       <c r="G417" s="46" t="s">
-        <v>34</v>
-      </c>
-      <c r="H417" s="47" t="s">
-        <v>88</v>
+        <v>54</v>
       </c>
       <c r="K417" s="50">
-        <v>2013</v>
+        <v>1995</v>
       </c>
     </row>
     <row r="418" spans="1:11">
@@ -33563,16 +33566,16 @@
         <v>529</v>
       </c>
       <c r="B418" s="43">
-        <v>62</v>
-      </c>
-      <c r="E418" s="44" t="s">
-        <v>493</v>
+        <v>63</v>
       </c>
       <c r="G418" s="46" t="s">
-        <v>14</v>
+        <v>34</v>
+      </c>
+      <c r="H418" s="47" t="s">
+        <v>88</v>
       </c>
       <c r="K418" s="50">
-        <v>2020</v>
+        <v>2013</v>
       </c>
     </row>
     <row r="419" spans="1:11">
@@ -33583,24 +33586,18 @@
         <v>62</v>
       </c>
       <c r="E419" s="44" t="s">
-        <v>75</v>
-      </c>
-      <c r="F419" s="45" t="s">
-        <v>531</v>
+        <v>493</v>
       </c>
       <c r="G419" s="46" t="s">
-        <v>38</v>
-      </c>
-      <c r="H419" s="47" t="s">
-        <v>40</v>
+        <v>14</v>
       </c>
       <c r="K419" s="50">
-        <v>2017</v>
+        <v>2020</v>
       </c>
     </row>
     <row r="420" spans="1:11">
       <c r="A420" s="42" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="B420" s="43">
         <v>62</v>
@@ -33609,19 +33606,16 @@
         <v>75</v>
       </c>
       <c r="F420" s="45" t="s">
-        <v>82</v>
+        <v>532</v>
       </c>
       <c r="G420" s="46" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="H420" s="47" t="s">
-        <v>158</v>
-      </c>
-      <c r="I420" s="48" t="s">
-        <v>98</v>
+        <v>40</v>
       </c>
       <c r="K420" s="50">
-        <v>1996</v>
+        <v>2017</v>
       </c>
     </row>
     <row r="421" spans="1:11">
@@ -33631,11 +33625,23 @@
       <c r="B421" s="43">
         <v>62</v>
       </c>
+      <c r="E421" s="44" t="s">
+        <v>75</v>
+      </c>
+      <c r="F421" s="45" t="s">
+        <v>82</v>
+      </c>
       <c r="G421" s="46" t="s">
         <v>54</v>
       </c>
+      <c r="H421" s="47" t="s">
+        <v>158</v>
+      </c>
+      <c r="I421" s="48" t="s">
+        <v>98</v>
+      </c>
       <c r="K421" s="50">
-        <v>1988</v>
+        <v>1996</v>
       </c>
     </row>
     <row r="422" spans="1:11">
@@ -33643,22 +33649,13 @@
         <v>534</v>
       </c>
       <c r="B422" s="43">
-        <v>61</v>
-      </c>
-      <c r="E422" s="44" t="s">
-        <v>342</v>
-      </c>
-      <c r="F422" s="45" t="s">
-        <v>534</v>
+        <v>62</v>
       </c>
       <c r="G422" s="46" t="s">
-        <v>14</v>
-      </c>
-      <c r="I422" s="48" t="s">
-        <v>98</v>
+        <v>54</v>
       </c>
       <c r="K422" s="50">
-        <v>1969</v>
+        <v>1988</v>
       </c>
     </row>
     <row r="423" spans="1:11">
@@ -33669,10 +33666,10 @@
         <v>61</v>
       </c>
       <c r="E423" s="44" t="s">
-        <v>217</v>
+        <v>342</v>
       </c>
       <c r="F423" s="45" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="G423" s="46" t="s">
         <v>14</v>
@@ -33681,27 +33678,30 @@
         <v>98</v>
       </c>
       <c r="K423" s="50">
-        <v>2018</v>
+        <v>1969</v>
       </c>
     </row>
     <row r="424" spans="1:11">
       <c r="A424" s="42" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="B424" s="43">
         <v>61</v>
       </c>
       <c r="E424" s="44" t="s">
-        <v>154</v>
+        <v>217</v>
+      </c>
+      <c r="F424" s="45" t="s">
+        <v>537</v>
       </c>
       <c r="G424" s="46" t="s">
-        <v>133</v>
-      </c>
-      <c r="H424" s="47" t="s">
-        <v>54</v>
+        <v>14</v>
+      </c>
+      <c r="I424" s="48" t="s">
+        <v>98</v>
       </c>
       <c r="K424" s="50">
-        <v>1998</v>
+        <v>2018</v>
       </c>
     </row>
     <row r="425" spans="1:11">
@@ -33712,16 +33712,16 @@
         <v>61</v>
       </c>
       <c r="E425" s="44" t="s">
-        <v>12</v>
-      </c>
-      <c r="F425" s="45" t="s">
-        <v>73</v>
+        <v>154</v>
       </c>
       <c r="G425" s="46" t="s">
-        <v>14</v>
+        <v>133</v>
+      </c>
+      <c r="H425" s="47" t="s">
+        <v>54</v>
       </c>
       <c r="K425" s="50">
-        <v>1977</v>
+        <v>1998</v>
       </c>
     </row>
     <row r="426" spans="1:11">
@@ -33729,19 +33729,19 @@
         <v>539</v>
       </c>
       <c r="B426" s="43">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E426" s="44" t="s">
         <v>12</v>
       </c>
       <c r="F426" s="45" t="s">
-        <v>26</v>
+        <v>73</v>
       </c>
       <c r="G426" s="46" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="K426" s="50">
-        <v>2006</v>
+        <v>1977</v>
       </c>
     </row>
     <row r="427" spans="1:11">
@@ -33752,36 +33752,33 @@
         <v>60</v>
       </c>
       <c r="E427" s="44" t="s">
-        <v>541</v>
+        <v>12</v>
+      </c>
+      <c r="F427" s="45" t="s">
+        <v>26</v>
       </c>
       <c r="G427" s="46" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="K427" s="50">
-        <v>2020</v>
+        <v>2006</v>
       </c>
     </row>
     <row r="428" spans="1:11">
       <c r="A428" s="42" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="B428" s="43">
         <v>60</v>
       </c>
       <c r="E428" s="44" t="s">
-        <v>75</v>
-      </c>
-      <c r="F428" s="45" t="s">
-        <v>531</v>
+        <v>542</v>
       </c>
       <c r="G428" s="46" t="s">
-        <v>38</v>
-      </c>
-      <c r="H428" s="47" t="s">
-        <v>40</v>
+        <v>14</v>
       </c>
       <c r="K428" s="50">
-        <v>2022</v>
+        <v>2020</v>
       </c>
     </row>
     <row r="429" spans="1:11">
@@ -33792,16 +33789,19 @@
         <v>60</v>
       </c>
       <c r="E429" s="44" t="s">
-        <v>197</v>
+        <v>75</v>
+      </c>
+      <c r="F429" s="45" t="s">
+        <v>532</v>
       </c>
       <c r="G429" s="46" t="s">
-        <v>23</v>
+        <v>38</v>
       </c>
       <c r="H429" s="47" t="s">
-        <v>54</v>
+        <v>40</v>
       </c>
       <c r="K429" s="50">
-        <v>2012</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="430" spans="1:11">
@@ -33809,19 +33809,19 @@
         <v>544</v>
       </c>
       <c r="B430" s="43">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E430" s="44" t="s">
-        <v>12</v>
-      </c>
-      <c r="F430" s="45" t="s">
-        <v>73</v>
+        <v>197</v>
       </c>
       <c r="G430" s="46" t="s">
-        <v>14</v>
+        <v>23</v>
+      </c>
+      <c r="H430" s="47" t="s">
+        <v>54</v>
       </c>
       <c r="K430" s="50">
-        <v>2005</v>
+        <v>2012</v>
       </c>
     </row>
     <row r="431" spans="1:11">
@@ -33841,7 +33841,7 @@
         <v>14</v>
       </c>
       <c r="K431" s="50">
-        <v>2004</v>
+        <v>2005</v>
       </c>
     </row>
     <row r="432" spans="1:11">
@@ -33851,14 +33851,17 @@
       <c r="B432" s="43">
         <v>59</v>
       </c>
+      <c r="E432" s="44" t="s">
+        <v>12</v>
+      </c>
+      <c r="F432" s="45" t="s">
+        <v>73</v>
+      </c>
       <c r="G432" s="46" t="s">
-        <v>34</v>
-      </c>
-      <c r="H432" s="47" t="s">
-        <v>40</v>
+        <v>14</v>
       </c>
       <c r="K432" s="50">
-        <v>2019</v>
+        <v>2004</v>
       </c>
     </row>
     <row r="433" spans="1:11">
@@ -33868,17 +33871,14 @@
       <c r="B433" s="43">
         <v>59</v>
       </c>
-      <c r="E433" s="44" t="s">
-        <v>197</v>
-      </c>
       <c r="G433" s="46" t="s">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="H433" s="47" t="s">
-        <v>54</v>
+        <v>40</v>
       </c>
       <c r="K433" s="50">
-        <v>2002</v>
+        <v>2019</v>
       </c>
     </row>
     <row r="434" spans="1:11">
@@ -33889,13 +33889,16 @@
         <v>59</v>
       </c>
       <c r="E434" s="44" t="s">
-        <v>336</v>
+        <v>197</v>
       </c>
       <c r="G434" s="46" t="s">
-        <v>18</v>
+        <v>23</v>
+      </c>
+      <c r="H434" s="47" t="s">
+        <v>54</v>
       </c>
       <c r="K434" s="50">
-        <v>1990</v>
+        <v>2002</v>
       </c>
     </row>
     <row r="435" spans="1:11">
@@ -33905,11 +33908,14 @@
       <c r="B435" s="43">
         <v>59</v>
       </c>
+      <c r="E435" s="44" t="s">
+        <v>336</v>
+      </c>
       <c r="G435" s="46" t="s">
-        <v>43</v>
+        <v>18</v>
       </c>
       <c r="K435" s="50">
-        <v>2007</v>
+        <v>1990</v>
       </c>
     </row>
     <row r="436" spans="1:11">
@@ -33917,30 +33923,30 @@
         <v>550</v>
       </c>
       <c r="B436" s="43">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="G436" s="46" t="s">
-        <v>551</v>
-      </c>
-      <c r="H436" s="47" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="K436" s="50">
-        <v>2014</v>
+        <v>2007</v>
       </c>
     </row>
     <row r="437" spans="1:11">
       <c r="A437" s="42" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="B437" s="43">
         <v>58</v>
       </c>
       <c r="G437" s="46" t="s">
-        <v>65</v>
+        <v>552</v>
+      </c>
+      <c r="H437" s="47" t="s">
+        <v>54</v>
       </c>
       <c r="K437" s="50">
-        <v>1991</v>
+        <v>2014</v>
       </c>
     </row>
     <row r="438" spans="1:11">
@@ -33950,20 +33956,11 @@
       <c r="B438" s="43">
         <v>58</v>
       </c>
-      <c r="E438" s="44" t="s">
-        <v>12</v>
-      </c>
-      <c r="F438" s="45" t="s">
-        <v>296</v>
-      </c>
       <c r="G438" s="46" t="s">
-        <v>88</v>
-      </c>
-      <c r="H438" s="47" t="s">
-        <v>31</v>
+        <v>65</v>
       </c>
       <c r="K438" s="50">
-        <v>2015</v>
+        <v>1991</v>
       </c>
     </row>
     <row r="439" spans="1:11">
@@ -33974,13 +33971,19 @@
         <v>58</v>
       </c>
       <c r="E439" s="44" t="s">
-        <v>554</v>
+        <v>12</v>
+      </c>
+      <c r="F439" s="45" t="s">
+        <v>296</v>
       </c>
       <c r="G439" s="46" t="s">
-        <v>43</v>
+        <v>88</v>
+      </c>
+      <c r="H439" s="47" t="s">
+        <v>31</v>
       </c>
       <c r="K439" s="50">
-        <v>2000</v>
+        <v>2015</v>
       </c>
     </row>
     <row r="440" spans="1:11">
@@ -33988,19 +33991,16 @@
         <v>555</v>
       </c>
       <c r="B440" s="43">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E440" s="44" t="s">
-        <v>12</v>
-      </c>
-      <c r="F440" s="45" t="s">
-        <v>73</v>
+        <v>555</v>
       </c>
       <c r="G440" s="46" t="s">
-        <v>14</v>
+        <v>43</v>
       </c>
       <c r="K440" s="50">
-        <v>1981</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="441" spans="1:11">
@@ -34011,16 +34011,16 @@
         <v>57</v>
       </c>
       <c r="E441" s="44" t="s">
-        <v>46</v>
+        <v>12</v>
       </c>
       <c r="F441" s="45" t="s">
-        <v>140</v>
+        <v>73</v>
       </c>
       <c r="G441" s="46" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="K441" s="50">
-        <v>2016</v>
+        <v>1981</v>
       </c>
     </row>
     <row r="442" spans="1:11">
@@ -34031,16 +34031,16 @@
         <v>57</v>
       </c>
       <c r="E442" s="44" t="s">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="F442" s="45" t="s">
-        <v>501</v>
+        <v>140</v>
       </c>
       <c r="G442" s="46" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="K442" s="50">
-        <v>2014</v>
+        <v>2016</v>
       </c>
     </row>
     <row r="443" spans="1:11">
@@ -34051,30 +34051,36 @@
         <v>57</v>
       </c>
       <c r="E443" s="44" t="s">
-        <v>559</v>
+        <v>30</v>
+      </c>
+      <c r="F443" s="45" t="s">
+        <v>501</v>
       </c>
       <c r="G443" s="46" t="s">
-        <v>133</v>
-      </c>
-      <c r="H443" s="47" t="s">
-        <v>158</v>
+        <v>14</v>
       </c>
       <c r="K443" s="50">
-        <v>1996</v>
+        <v>2014</v>
       </c>
     </row>
     <row r="444" spans="1:11">
       <c r="A444" s="42" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="B444" s="43">
         <v>57</v>
       </c>
+      <c r="E444" s="44" t="s">
+        <v>560</v>
+      </c>
       <c r="G444" s="46" t="s">
-        <v>54</v>
+        <v>133</v>
+      </c>
+      <c r="H444" s="47" t="s">
+        <v>158</v>
       </c>
       <c r="K444" s="50">
-        <v>2019</v>
+        <v>1996</v>
       </c>
     </row>
     <row r="445" spans="1:11">
@@ -34082,16 +34088,13 @@
         <v>561</v>
       </c>
       <c r="B445" s="43">
-        <v>56</v>
-      </c>
-      <c r="E445" s="44" t="s">
-        <v>311</v>
+        <v>57</v>
       </c>
       <c r="G445" s="46" t="s">
-        <v>14</v>
+        <v>54</v>
       </c>
       <c r="K445" s="50">
-        <v>2009</v>
+        <v>2019</v>
       </c>
     </row>
     <row r="446" spans="1:11">
@@ -34102,16 +34105,13 @@
         <v>56</v>
       </c>
       <c r="E446" s="44" t="s">
-        <v>16</v>
-      </c>
-      <c r="F446" s="45" t="s">
-        <v>101</v>
+        <v>311</v>
       </c>
       <c r="G446" s="46" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="K446" s="50">
-        <v>2006</v>
+        <v>2009</v>
       </c>
     </row>
     <row r="447" spans="1:11">
@@ -34122,16 +34122,13 @@
         <v>56</v>
       </c>
       <c r="E447" s="44" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="F447" s="45" t="s">
-        <v>191</v>
+        <v>101</v>
       </c>
       <c r="G447" s="46" t="s">
-        <v>24</v>
-      </c>
-      <c r="H447" s="47" t="s">
-        <v>192</v>
+        <v>18</v>
       </c>
       <c r="K447" s="50">
         <v>2006</v>
@@ -34148,16 +34145,16 @@
         <v>12</v>
       </c>
       <c r="F448" s="45" t="s">
-        <v>264</v>
+        <v>191</v>
       </c>
       <c r="G448" s="46" t="s">
-        <v>54</v>
+        <v>24</v>
       </c>
       <c r="H448" s="47" t="s">
-        <v>31</v>
+        <v>192</v>
       </c>
       <c r="K448" s="50">
-        <v>2001</v>
+        <v>2006</v>
       </c>
     </row>
     <row r="449" spans="1:11">
@@ -34165,19 +34162,22 @@
         <v>565</v>
       </c>
       <c r="B449" s="43">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E449" s="44" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="F449" s="45" t="s">
-        <v>17</v>
+        <v>264</v>
       </c>
       <c r="G449" s="46" t="s">
-        <v>18</v>
+        <v>54</v>
+      </c>
+      <c r="H449" s="47" t="s">
+        <v>31</v>
       </c>
       <c r="K449" s="50">
-        <v>2013</v>
+        <v>2001</v>
       </c>
     </row>
     <row r="450" spans="1:11">
@@ -34188,16 +34188,16 @@
         <v>55</v>
       </c>
       <c r="E450" s="44" t="s">
-        <v>278</v>
+        <v>16</v>
+      </c>
+      <c r="F450" s="45" t="s">
+        <v>17</v>
       </c>
       <c r="G450" s="46" t="s">
-        <v>57</v>
-      </c>
-      <c r="H450" s="47" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="K450" s="50">
-        <v>2003</v>
+        <v>2013</v>
       </c>
     </row>
     <row r="451" spans="1:11">
@@ -34208,19 +34208,16 @@
         <v>55</v>
       </c>
       <c r="E451" s="44" t="s">
-        <v>30</v>
-      </c>
-      <c r="F451" s="45" t="s">
-        <v>29</v>
+        <v>278</v>
       </c>
       <c r="G451" s="46" t="s">
-        <v>14</v>
+        <v>57</v>
       </c>
       <c r="H451" s="47" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="K451" s="50">
-        <v>2010</v>
+        <v>2003</v>
       </c>
     </row>
     <row r="452" spans="1:11">
@@ -34231,16 +34228,19 @@
         <v>55</v>
       </c>
       <c r="E452" s="44" t="s">
-        <v>217</v>
+        <v>30</v>
       </c>
       <c r="F452" s="45" t="s">
-        <v>536</v>
+        <v>29</v>
       </c>
       <c r="G452" s="46" t="s">
         <v>14</v>
       </c>
+      <c r="H452" s="47" t="s">
+        <v>31</v>
+      </c>
       <c r="K452" s="50">
-        <v>2012</v>
+        <v>2010</v>
       </c>
     </row>
     <row r="453" spans="1:11">
@@ -34251,16 +34251,16 @@
         <v>55</v>
       </c>
       <c r="E453" s="44" t="s">
-        <v>259</v>
+        <v>217</v>
+      </c>
+      <c r="F453" s="45" t="s">
+        <v>537</v>
       </c>
       <c r="G453" s="46" t="s">
-        <v>37</v>
-      </c>
-      <c r="H453" s="47" t="s">
-        <v>260</v>
+        <v>14</v>
       </c>
       <c r="K453" s="50">
-        <v>2011</v>
+        <v>2012</v>
       </c>
     </row>
     <row r="454" spans="1:11">
@@ -34268,19 +34268,19 @@
         <v>570</v>
       </c>
       <c r="B454" s="43">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E454" s="44" t="s">
-        <v>154</v>
-      </c>
-      <c r="F454" s="45" t="s">
-        <v>423</v>
+        <v>259</v>
       </c>
       <c r="G454" s="46" t="s">
-        <v>14</v>
+        <v>37</v>
+      </c>
+      <c r="H454" s="47" t="s">
+        <v>260</v>
       </c>
       <c r="K454" s="50">
-        <v>2018</v>
+        <v>2011</v>
       </c>
     </row>
     <row r="455" spans="1:11">
@@ -34291,19 +34291,16 @@
         <v>54</v>
       </c>
       <c r="E455" s="44" t="s">
-        <v>16</v>
+        <v>154</v>
       </c>
       <c r="F455" s="45" t="s">
-        <v>101</v>
+        <v>423</v>
       </c>
       <c r="G455" s="46" t="s">
-        <v>18</v>
-      </c>
-      <c r="H455" s="47" t="s">
-        <v>37</v>
+        <v>14</v>
       </c>
       <c r="K455" s="50">
-        <v>2020</v>
+        <v>2018</v>
       </c>
     </row>
     <row r="456" spans="1:11">
@@ -34314,13 +34311,19 @@
         <v>54</v>
       </c>
       <c r="E456" s="44" t="s">
-        <v>336</v>
+        <v>16</v>
+      </c>
+      <c r="F456" s="45" t="s">
+        <v>101</v>
       </c>
       <c r="G456" s="46" t="s">
         <v>18</v>
       </c>
+      <c r="H456" s="47" t="s">
+        <v>37</v>
+      </c>
       <c r="K456" s="50">
-        <v>1991</v>
+        <v>2020</v>
       </c>
     </row>
     <row r="457" spans="1:11">
@@ -34330,14 +34333,14 @@
       <c r="B457" s="43">
         <v>54</v>
       </c>
+      <c r="E457" s="44" t="s">
+        <v>336</v>
+      </c>
       <c r="G457" s="46" t="s">
-        <v>54</v>
-      </c>
-      <c r="H457" s="47" t="s">
-        <v>158</v>
+        <v>18</v>
       </c>
       <c r="K457" s="50">
-        <v>2021</v>
+        <v>1991</v>
       </c>
     </row>
     <row r="458" spans="1:11">
@@ -34347,14 +34350,14 @@
       <c r="B458" s="43">
         <v>54</v>
       </c>
-      <c r="E458" s="44" t="s">
-        <v>574</v>
-      </c>
       <c r="G458" s="46" t="s">
-        <v>43</v>
+        <v>54</v>
+      </c>
+      <c r="H458" s="47" t="s">
+        <v>158</v>
       </c>
       <c r="K458" s="50">
-        <v>1989</v>
+        <v>2021</v>
       </c>
     </row>
     <row r="459" spans="1:11">
@@ -34362,19 +34365,16 @@
         <v>575</v>
       </c>
       <c r="B459" s="43">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E459" s="44" t="s">
-        <v>217</v>
-      </c>
-      <c r="F459" s="45" t="s">
-        <v>216</v>
+        <v>575</v>
       </c>
       <c r="G459" s="46" t="s">
-        <v>14</v>
+        <v>43</v>
       </c>
       <c r="K459" s="50">
-        <v>2015</v>
+        <v>1989</v>
       </c>
     </row>
     <row r="460" spans="1:11">
@@ -34385,27 +34385,33 @@
         <v>53</v>
       </c>
       <c r="E460" s="44" t="s">
-        <v>577</v>
+        <v>217</v>
+      </c>
+      <c r="F460" s="45" t="s">
+        <v>216</v>
       </c>
       <c r="G460" s="46" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="K460" s="50">
-        <v>1991</v>
+        <v>2015</v>
       </c>
     </row>
     <row r="461" spans="1:11">
       <c r="A461" s="42" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="B461" s="43">
         <v>53</v>
       </c>
+      <c r="E461" s="44" t="s">
+        <v>578</v>
+      </c>
       <c r="G461" s="46" t="s">
-        <v>54</v>
+        <v>24</v>
       </c>
       <c r="K461" s="50">
-        <v>2009</v>
+        <v>1991</v>
       </c>
     </row>
     <row r="462" spans="1:11">
@@ -34419,7 +34425,7 @@
         <v>54</v>
       </c>
       <c r="K462" s="50">
-        <v>2001</v>
+        <v>2009</v>
       </c>
     </row>
     <row r="463" spans="1:11">
@@ -34429,17 +34435,11 @@
       <c r="B463" s="43">
         <v>53</v>
       </c>
-      <c r="E463" s="44" t="s">
-        <v>75</v>
-      </c>
-      <c r="F463" s="45" t="s">
-        <v>82</v>
-      </c>
       <c r="G463" s="46" t="s">
         <v>54</v>
       </c>
       <c r="K463" s="50">
-        <v>2000</v>
+        <v>2001</v>
       </c>
     </row>
     <row r="464" spans="1:11">
@@ -34447,22 +34447,19 @@
         <v>581</v>
       </c>
       <c r="B464" s="43">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E464" s="44" t="s">
-        <v>12</v>
+        <v>75</v>
       </c>
       <c r="F464" s="45" t="s">
-        <v>296</v>
+        <v>82</v>
       </c>
       <c r="G464" s="46" t="s">
-        <v>34</v>
-      </c>
-      <c r="H464" s="47" t="s">
-        <v>31</v>
+        <v>54</v>
       </c>
       <c r="K464" s="50">
-        <v>2014</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="465" spans="1:11">
@@ -34473,16 +34470,19 @@
         <v>52</v>
       </c>
       <c r="E465" s="44" t="s">
-        <v>278</v>
+        <v>12</v>
+      </c>
+      <c r="F465" s="45" t="s">
+        <v>296</v>
       </c>
       <c r="G465" s="46" t="s">
-        <v>57</v>
+        <v>34</v>
       </c>
       <c r="H465" s="47" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="K465" s="50">
-        <v>2009</v>
+        <v>2014</v>
       </c>
     </row>
     <row r="466" spans="1:11">
@@ -34493,16 +34493,16 @@
         <v>52</v>
       </c>
       <c r="E466" s="44" t="s">
-        <v>583</v>
+        <v>278</v>
       </c>
       <c r="G466" s="46" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="H466" s="47" t="s">
-        <v>360</v>
+        <v>24</v>
       </c>
       <c r="K466" s="50">
-        <v>2000</v>
+        <v>2009</v>
       </c>
     </row>
     <row r="467" spans="1:11">
@@ -34512,11 +34512,17 @@
       <c r="B467" s="43">
         <v>52</v>
       </c>
+      <c r="E467" s="44" t="s">
+        <v>584</v>
+      </c>
       <c r="G467" s="46" t="s">
         <v>54</v>
       </c>
+      <c r="H467" s="47" t="s">
+        <v>360</v>
+      </c>
       <c r="K467" s="50">
-        <v>2001</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="468" spans="1:11">
@@ -34530,7 +34536,7 @@
         <v>54</v>
       </c>
       <c r="K468" s="50">
-        <v>1998</v>
+        <v>2001</v>
       </c>
     </row>
     <row r="469" spans="1:11">
@@ -34538,16 +34544,13 @@
         <v>586</v>
       </c>
       <c r="B469" s="43">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G469" s="46" t="s">
-        <v>37</v>
-      </c>
-      <c r="H469" s="47" t="s">
         <v>54</v>
       </c>
       <c r="K469" s="50">
-        <v>2018</v>
+        <v>1998</v>
       </c>
     </row>
     <row r="470" spans="1:11">
@@ -34557,17 +34560,14 @@
       <c r="B470" s="43">
         <v>51</v>
       </c>
-      <c r="E470" s="44" t="s">
-        <v>587</v>
-      </c>
       <c r="G470" s="46" t="s">
-        <v>133</v>
+        <v>37</v>
       </c>
       <c r="H470" s="47" t="s">
         <v>54</v>
       </c>
       <c r="K470" s="50">
-        <v>1985</v>
+        <v>2018</v>
       </c>
     </row>
     <row r="471" spans="1:11">
@@ -34578,16 +34578,16 @@
         <v>51</v>
       </c>
       <c r="E471" s="44" t="s">
-        <v>16</v>
-      </c>
-      <c r="F471" s="45" t="s">
-        <v>20</v>
+        <v>588</v>
       </c>
       <c r="G471" s="46" t="s">
-        <v>18</v>
+        <v>133</v>
+      </c>
+      <c r="H471" s="47" t="s">
+        <v>54</v>
       </c>
       <c r="K471" s="50">
-        <v>2014</v>
+        <v>1985</v>
       </c>
     </row>
     <row r="472" spans="1:11">
@@ -34598,16 +34598,16 @@
         <v>51</v>
       </c>
       <c r="E472" s="44" t="s">
-        <v>577</v>
+        <v>16</v>
+      </c>
+      <c r="F472" s="45" t="s">
+        <v>20</v>
       </c>
       <c r="G472" s="46" t="s">
-        <v>133</v>
-      </c>
-      <c r="H472" s="47" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="K472" s="50">
-        <v>1988</v>
+        <v>2014</v>
       </c>
     </row>
     <row r="473" spans="1:11">
@@ -34618,16 +34618,16 @@
         <v>51</v>
       </c>
       <c r="E473" s="44" t="s">
-        <v>12</v>
-      </c>
-      <c r="F473" s="45" t="s">
-        <v>73</v>
+        <v>578</v>
       </c>
       <c r="G473" s="46" t="s">
-        <v>14</v>
+        <v>133</v>
+      </c>
+      <c r="H473" s="47" t="s">
+        <v>24</v>
       </c>
       <c r="K473" s="50">
-        <v>1973</v>
+        <v>1988</v>
       </c>
     </row>
     <row r="474" spans="1:11">
@@ -34637,14 +34637,17 @@
       <c r="B474" s="43">
         <v>51</v>
       </c>
+      <c r="E474" s="44" t="s">
+        <v>12</v>
+      </c>
+      <c r="F474" s="45" t="s">
+        <v>73</v>
+      </c>
       <c r="G474" s="46" t="s">
-        <v>24</v>
-      </c>
-      <c r="H474" s="47" t="s">
-        <v>38</v>
+        <v>14</v>
       </c>
       <c r="K474" s="50">
-        <v>1992</v>
+        <v>1973</v>
       </c>
     </row>
     <row r="475" spans="1:11">
@@ -34652,19 +34655,16 @@
         <v>592</v>
       </c>
       <c r="B475" s="43">
-        <v>50</v>
-      </c>
-      <c r="E475" s="44" t="s">
-        <v>12</v>
-      </c>
-      <c r="F475" s="45" t="s">
-        <v>73</v>
+        <v>51</v>
       </c>
       <c r="G475" s="46" t="s">
-        <v>14</v>
+        <v>24</v>
+      </c>
+      <c r="H475" s="47" t="s">
+        <v>38</v>
       </c>
       <c r="K475" s="50">
-        <v>2009</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="476" spans="1:11">
@@ -34674,17 +34674,17 @@
       <c r="B476" s="43">
         <v>50</v>
       </c>
+      <c r="E476" s="44" t="s">
+        <v>12</v>
+      </c>
+      <c r="F476" s="45" t="s">
+        <v>73</v>
+      </c>
       <c r="G476" s="46" t="s">
-        <v>24</v>
-      </c>
-      <c r="H476" s="47" t="s">
-        <v>158</v>
-      </c>
-      <c r="J476" s="49" t="s">
-        <v>125</v>
+        <v>14</v>
       </c>
       <c r="K476" s="50">
-        <v>2020</v>
+        <v>2009</v>
       </c>
     </row>
     <row r="477" spans="1:11">
@@ -34694,17 +34694,17 @@
       <c r="B477" s="43">
         <v>50</v>
       </c>
-      <c r="E477" s="44" t="s">
-        <v>44</v>
-      </c>
       <c r="G477" s="46" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H477" s="47" t="s">
-        <v>24</v>
+        <v>158</v>
+      </c>
+      <c r="J477" s="49" t="s">
+        <v>125</v>
       </c>
       <c r="K477" s="50">
-        <v>1997</v>
+        <v>2020</v>
       </c>
     </row>
     <row r="478" spans="1:11">
@@ -34714,17 +34714,17 @@
       <c r="B478" s="43">
         <v>50</v>
       </c>
+      <c r="E478" s="44" t="s">
+        <v>44</v>
+      </c>
       <c r="G478" s="46" t="s">
-        <v>57</v>
+        <v>23</v>
       </c>
       <c r="H478" s="47" t="s">
         <v>24</v>
       </c>
-      <c r="J478" s="49" t="s">
-        <v>125</v>
-      </c>
       <c r="K478" s="50">
-        <v>2020</v>
+        <v>1997</v>
       </c>
     </row>
     <row r="479" spans="1:11">
@@ -34735,10 +34735,16 @@
         <v>50</v>
       </c>
       <c r="G479" s="46" t="s">
-        <v>54</v>
+        <v>57</v>
+      </c>
+      <c r="H479" s="47" t="s">
+        <v>24</v>
+      </c>
+      <c r="J479" s="49" t="s">
+        <v>125</v>
       </c>
       <c r="K479" s="50">
-        <v>1988</v>
+        <v>2020</v>
       </c>
     </row>
     <row r="480" spans="1:11">
@@ -34746,19 +34752,13 @@
         <v>597</v>
       </c>
       <c r="B480" s="43">
-        <v>49</v>
-      </c>
-      <c r="E480" s="44" t="s">
-        <v>46</v>
-      </c>
-      <c r="F480" s="45" t="s">
-        <v>140</v>
+        <v>50</v>
       </c>
       <c r="G480" s="46" t="s">
-        <v>18</v>
+        <v>54</v>
       </c>
       <c r="K480" s="50">
-        <v>2017</v>
+        <v>1988</v>
       </c>
     </row>
     <row r="481" spans="1:11">
@@ -34769,16 +34769,16 @@
         <v>49</v>
       </c>
       <c r="E481" s="44" t="s">
-        <v>12</v>
+        <v>46</v>
       </c>
       <c r="F481" s="45" t="s">
-        <v>73</v>
+        <v>140</v>
       </c>
       <c r="G481" s="46" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="K481" s="50">
-        <v>1985</v>
+        <v>2017</v>
       </c>
     </row>
     <row r="482" spans="1:11">
@@ -34788,14 +34788,17 @@
       <c r="B482" s="43">
         <v>49</v>
       </c>
+      <c r="E482" s="44" t="s">
+        <v>12</v>
+      </c>
+      <c r="F482" s="45" t="s">
+        <v>73</v>
+      </c>
       <c r="G482" s="46" t="s">
-        <v>34</v>
-      </c>
-      <c r="H482" s="47" t="s">
-        <v>40</v>
+        <v>14</v>
       </c>
       <c r="K482" s="50">
-        <v>1994</v>
+        <v>1985</v>
       </c>
     </row>
     <row r="483" spans="1:11">
@@ -34806,13 +34809,13 @@
         <v>49</v>
       </c>
       <c r="G483" s="46" t="s">
-        <v>57</v>
+        <v>34</v>
       </c>
       <c r="H483" s="47" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="K483" s="50">
-        <v>1998</v>
+        <v>1994</v>
       </c>
     </row>
     <row r="484" spans="1:11">
@@ -34822,17 +34825,11 @@
       <c r="B484" s="43">
         <v>49</v>
       </c>
-      <c r="E484" s="44" t="s">
-        <v>12</v>
-      </c>
-      <c r="F484" s="45" t="s">
-        <v>264</v>
-      </c>
       <c r="G484" s="46" t="s">
+        <v>57</v>
+      </c>
+      <c r="H484" s="47" t="s">
         <v>38</v>
-      </c>
-      <c r="H484" s="47" t="s">
-        <v>602</v>
       </c>
       <c r="K484" s="50">
         <v>1998</v>
@@ -34840,25 +34837,25 @@
     </row>
     <row r="485" spans="1:11">
       <c r="A485" s="42" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="B485" s="43">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E485" s="44" t="s">
         <v>12</v>
       </c>
       <c r="F485" s="45" t="s">
-        <v>191</v>
+        <v>264</v>
       </c>
       <c r="G485" s="46" t="s">
-        <v>24</v>
+        <v>38</v>
       </c>
       <c r="H485" s="47" t="s">
-        <v>192</v>
+        <v>603</v>
       </c>
       <c r="K485" s="50">
-        <v>2007</v>
+        <v>1998</v>
       </c>
     </row>
     <row r="486" spans="1:11">
@@ -34869,22 +34866,19 @@
         <v>48</v>
       </c>
       <c r="E486" s="44" t="s">
-        <v>154</v>
+        <v>12</v>
+      </c>
+      <c r="F486" s="45" t="s">
+        <v>191</v>
       </c>
       <c r="G486" s="46" t="s">
-        <v>54</v>
+        <v>24</v>
       </c>
       <c r="H486" s="47" t="s">
-        <v>115</v>
-      </c>
-      <c r="I486" s="48" t="s">
-        <v>444</v>
-      </c>
-      <c r="J486" s="49" t="s">
-        <v>125</v>
+        <v>192</v>
       </c>
       <c r="K486" s="50">
-        <v>2020</v>
+        <v>2007</v>
       </c>
     </row>
     <row r="487" spans="1:11">
@@ -34894,14 +34888,23 @@
       <c r="B487" s="43">
         <v>48</v>
       </c>
+      <c r="E487" s="44" t="s">
+        <v>154</v>
+      </c>
       <c r="G487" s="46" t="s">
-        <v>24</v>
+        <v>54</v>
       </c>
       <c r="H487" s="47" t="s">
-        <v>54</v>
+        <v>115</v>
+      </c>
+      <c r="I487" s="48" t="s">
+        <v>444</v>
+      </c>
+      <c r="J487" s="49" t="s">
+        <v>125</v>
       </c>
       <c r="K487" s="50">
-        <v>1997</v>
+        <v>2020</v>
       </c>
     </row>
     <row r="488" spans="1:11">
@@ -34911,17 +34914,14 @@
       <c r="B488" s="43">
         <v>48</v>
       </c>
-      <c r="E488" s="44" t="s">
-        <v>559</v>
-      </c>
       <c r="G488" s="46" t="s">
+        <v>24</v>
+      </c>
+      <c r="H488" s="47" t="s">
         <v>54</v>
       </c>
-      <c r="H488" s="47" t="s">
-        <v>158</v>
-      </c>
       <c r="K488" s="50">
-        <v>2003</v>
+        <v>1997</v>
       </c>
     </row>
     <row r="489" spans="1:11">
@@ -34931,14 +34931,17 @@
       <c r="B489" s="43">
         <v>48</v>
       </c>
+      <c r="E489" s="44" t="s">
+        <v>560</v>
+      </c>
       <c r="G489" s="46" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="H489" s="47" t="s">
-        <v>24</v>
+        <v>158</v>
       </c>
       <c r="K489" s="50">
-        <v>2006</v>
+        <v>2003</v>
       </c>
     </row>
     <row r="490" spans="1:11">
@@ -34949,10 +34952,13 @@
         <v>48</v>
       </c>
       <c r="G490" s="46" t="s">
-        <v>43</v>
+        <v>57</v>
+      </c>
+      <c r="H490" s="47" t="s">
+        <v>24</v>
       </c>
       <c r="K490" s="50">
-        <v>2008</v>
+        <v>2006</v>
       </c>
     </row>
     <row r="491" spans="1:11">
@@ -34960,19 +34966,13 @@
         <v>609</v>
       </c>
       <c r="B491" s="43">
-        <v>47</v>
-      </c>
-      <c r="E491" s="44" t="s">
-        <v>136</v>
+        <v>48</v>
       </c>
       <c r="G491" s="46" t="s">
-        <v>18</v>
-      </c>
-      <c r="H491" s="47" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="K491" s="50">
-        <v>2013</v>
+        <v>2008</v>
       </c>
     </row>
     <row r="492" spans="1:11">
@@ -34983,19 +34983,16 @@
         <v>47</v>
       </c>
       <c r="E492" s="44" t="s">
-        <v>610</v>
+        <v>136</v>
       </c>
       <c r="G492" s="46" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="H492" s="47" t="s">
-        <v>246</v>
-      </c>
-      <c r="J492" s="49" t="s">
-        <v>352</v>
+        <v>54</v>
       </c>
       <c r="K492" s="50">
-        <v>2021</v>
+        <v>2013</v>
       </c>
     </row>
     <row r="493" spans="1:11">
@@ -35006,19 +35003,19 @@
         <v>47</v>
       </c>
       <c r="E493" s="44" t="s">
-        <v>30</v>
-      </c>
-      <c r="F493" s="45" t="s">
-        <v>29</v>
+        <v>611</v>
       </c>
       <c r="G493" s="46" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="H493" s="47" t="s">
-        <v>31</v>
+        <v>246</v>
+      </c>
+      <c r="J493" s="49" t="s">
+        <v>352</v>
       </c>
       <c r="K493" s="50">
-        <v>2007</v>
+        <v>2021</v>
       </c>
     </row>
     <row r="494" spans="1:11">
@@ -35029,16 +35026,19 @@
         <v>47</v>
       </c>
       <c r="E494" s="44" t="s">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="F494" s="45" t="s">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="G494" s="46" t="s">
         <v>14</v>
       </c>
+      <c r="H494" s="47" t="s">
+        <v>31</v>
+      </c>
       <c r="K494" s="50">
-        <v>2011</v>
+        <v>2007</v>
       </c>
     </row>
     <row r="495" spans="1:11">
@@ -35049,19 +35049,16 @@
         <v>47</v>
       </c>
       <c r="E495" s="44" t="s">
-        <v>75</v>
+        <v>12</v>
       </c>
       <c r="F495" s="45" t="s">
-        <v>82</v>
+        <v>13</v>
       </c>
       <c r="G495" s="46" t="s">
-        <v>382</v>
-      </c>
-      <c r="H495" s="47" t="s">
-        <v>88</v>
+        <v>14</v>
       </c>
       <c r="K495" s="50">
-        <v>1987</v>
+        <v>2011</v>
       </c>
     </row>
     <row r="496" spans="1:11">
@@ -35069,19 +35066,22 @@
         <v>614</v>
       </c>
       <c r="B496" s="43">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E496" s="44" t="s">
-        <v>12</v>
+        <v>75</v>
       </c>
       <c r="F496" s="45" t="s">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="G496" s="46" t="s">
-        <v>14</v>
+        <v>382</v>
+      </c>
+      <c r="H496" s="47" t="s">
+        <v>88</v>
       </c>
       <c r="K496" s="50">
-        <v>2008</v>
+        <v>1987</v>
       </c>
     </row>
     <row r="497" spans="1:11">
@@ -35092,16 +35092,16 @@
         <v>46</v>
       </c>
       <c r="E497" s="44" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="F497" s="45" t="s">
-        <v>20</v>
+        <v>73</v>
       </c>
       <c r="G497" s="46" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="K497" s="50">
-        <v>2007</v>
+        <v>2008</v>
       </c>
     </row>
     <row r="498" spans="1:11">
@@ -35112,16 +35112,16 @@
         <v>46</v>
       </c>
       <c r="E498" s="44" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="F498" s="45" t="s">
-        <v>73</v>
+        <v>20</v>
       </c>
       <c r="G498" s="46" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="K498" s="50">
-        <v>1998</v>
+        <v>2007</v>
       </c>
     </row>
     <row r="499" spans="1:11">
@@ -35131,14 +35131,17 @@
       <c r="B499" s="43">
         <v>46</v>
       </c>
+      <c r="E499" s="44" t="s">
+        <v>12</v>
+      </c>
+      <c r="F499" s="45" t="s">
+        <v>73</v>
+      </c>
       <c r="G499" s="46" t="s">
-        <v>34</v>
-      </c>
-      <c r="H499" s="47" t="s">
-        <v>133</v>
+        <v>14</v>
       </c>
       <c r="K499" s="50">
-        <v>2005</v>
+        <v>1998</v>
       </c>
     </row>
     <row r="500" spans="1:11">
@@ -35146,19 +35149,16 @@
         <v>618</v>
       </c>
       <c r="B500" s="43">
-        <v>45</v>
-      </c>
-      <c r="E500" s="44" t="s">
-        <v>259</v>
+        <v>46</v>
       </c>
       <c r="G500" s="46" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H500" s="47" t="s">
-        <v>260</v>
+        <v>133</v>
       </c>
       <c r="K500" s="50">
-        <v>2000</v>
+        <v>2005</v>
       </c>
     </row>
     <row r="501" spans="1:11">
@@ -35169,19 +35169,16 @@
         <v>45</v>
       </c>
       <c r="E501" s="44" t="s">
-        <v>154</v>
-      </c>
-      <c r="F501" s="45" t="s">
-        <v>423</v>
+        <v>259</v>
       </c>
       <c r="G501" s="46" t="s">
-        <v>14</v>
-      </c>
-      <c r="J501" s="49" t="s">
-        <v>327</v>
+        <v>37</v>
+      </c>
+      <c r="H501" s="47" t="s">
+        <v>260</v>
       </c>
       <c r="K501" s="50">
-        <v>2022</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="502" spans="1:11">
@@ -35191,14 +35188,20 @@
       <c r="B502" s="43">
         <v>45</v>
       </c>
+      <c r="E502" s="44" t="s">
+        <v>154</v>
+      </c>
+      <c r="F502" s="45" t="s">
+        <v>423</v>
+      </c>
       <c r="G502" s="46" t="s">
-        <v>24</v>
-      </c>
-      <c r="H502" s="47" t="s">
-        <v>54</v>
+        <v>14</v>
+      </c>
+      <c r="J502" s="49" t="s">
+        <v>327</v>
       </c>
       <c r="K502" s="50">
-        <v>1989</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="503" spans="1:11">
@@ -35208,20 +35211,14 @@
       <c r="B503" s="43">
         <v>45</v>
       </c>
-      <c r="E503" s="44" t="s">
-        <v>12</v>
-      </c>
-      <c r="F503" s="45" t="s">
-        <v>264</v>
-      </c>
       <c r="G503" s="46" t="s">
-        <v>57</v>
+        <v>24</v>
       </c>
       <c r="H503" s="47" t="s">
-        <v>24</v>
+        <v>54</v>
       </c>
       <c r="K503" s="50">
-        <v>2000</v>
+        <v>1989</v>
       </c>
     </row>
     <row r="504" spans="1:11">
@@ -35229,19 +35226,22 @@
         <v>622</v>
       </c>
       <c r="B504" s="43">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E504" s="44" t="s">
-        <v>46</v>
+        <v>12</v>
       </c>
       <c r="F504" s="45" t="s">
-        <v>194</v>
+        <v>264</v>
       </c>
       <c r="G504" s="46" t="s">
-        <v>18</v>
+        <v>57</v>
+      </c>
+      <c r="H504" s="47" t="s">
+        <v>24</v>
       </c>
       <c r="K504" s="50">
-        <v>1982</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="505" spans="1:11">
@@ -35251,14 +35251,17 @@
       <c r="B505" s="43">
         <v>44</v>
       </c>
+      <c r="E505" s="44" t="s">
+        <v>46</v>
+      </c>
+      <c r="F505" s="45" t="s">
+        <v>194</v>
+      </c>
       <c r="G505" s="46" t="s">
-        <v>57</v>
-      </c>
-      <c r="H505" s="47" t="s">
-        <v>54</v>
+        <v>18</v>
       </c>
       <c r="K505" s="50">
-        <v>2016</v>
+        <v>1982</v>
       </c>
     </row>
     <row r="506" spans="1:11">
@@ -35268,20 +35271,14 @@
       <c r="B506" s="43">
         <v>44</v>
       </c>
-      <c r="E506" s="44" t="s">
-        <v>12</v>
-      </c>
-      <c r="F506" s="45" t="s">
-        <v>73</v>
-      </c>
       <c r="G506" s="46" t="s">
-        <v>14</v>
+        <v>57</v>
       </c>
       <c r="H506" s="47" t="s">
-        <v>31</v>
+        <v>54</v>
       </c>
       <c r="K506" s="50">
-        <v>1996</v>
+        <v>2016</v>
       </c>
     </row>
     <row r="507" spans="1:11">
@@ -35291,14 +35288,20 @@
       <c r="B507" s="43">
         <v>44</v>
       </c>
+      <c r="E507" s="44" t="s">
+        <v>12</v>
+      </c>
+      <c r="F507" s="45" t="s">
+        <v>73</v>
+      </c>
       <c r="G507" s="46" t="s">
-        <v>37</v>
+        <v>14</v>
       </c>
       <c r="H507" s="47" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="K507" s="50">
-        <v>2021</v>
+        <v>1996</v>
       </c>
     </row>
     <row r="508" spans="1:11">
@@ -35308,17 +35311,14 @@
       <c r="B508" s="43">
         <v>44</v>
       </c>
-      <c r="E508" s="44" t="s">
-        <v>12</v>
-      </c>
-      <c r="F508" s="45" t="s">
-        <v>26</v>
-      </c>
       <c r="G508" s="46" t="s">
-        <v>14</v>
+        <v>37</v>
+      </c>
+      <c r="H508" s="47" t="s">
+        <v>38</v>
       </c>
       <c r="K508" s="50">
-        <v>2008</v>
+        <v>2021</v>
       </c>
     </row>
     <row r="509" spans="1:11">
@@ -35326,59 +35326,59 @@
         <v>627</v>
       </c>
       <c r="B509" s="43">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E509" s="44" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="F509" s="45" t="s">
-        <v>489</v>
+        <v>26</v>
       </c>
       <c r="G509" s="46" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="K509" s="50">
-        <v>2021</v>
+        <v>2008</v>
       </c>
     </row>
     <row r="510" spans="1:11">
       <c r="A510" s="42" t="s">
-        <v>541</v>
+        <v>628</v>
       </c>
       <c r="B510" s="43">
         <v>43</v>
       </c>
       <c r="E510" s="44" t="s">
-        <v>541</v>
+        <v>16</v>
+      </c>
+      <c r="F510" s="45" t="s">
+        <v>489</v>
       </c>
       <c r="G510" s="46" t="s">
-        <v>54</v>
-      </c>
-      <c r="H510" s="47" t="s">
-        <v>158</v>
+        <v>18</v>
       </c>
       <c r="K510" s="50">
-        <v>2002</v>
+        <v>2021</v>
       </c>
     </row>
     <row r="511" spans="1:11">
       <c r="A511" s="42" t="s">
-        <v>628</v>
+        <v>542</v>
       </c>
       <c r="B511" s="43">
         <v>43</v>
       </c>
       <c r="E511" s="44" t="s">
-        <v>44</v>
+        <v>542</v>
       </c>
       <c r="G511" s="46" t="s">
-        <v>23</v>
+        <v>54</v>
       </c>
       <c r="H511" s="47" t="s">
-        <v>24</v>
+        <v>158</v>
       </c>
       <c r="K511" s="50">
-        <v>2018</v>
+        <v>2002</v>
       </c>
     </row>
     <row r="512" spans="1:11">
@@ -35398,7 +35398,7 @@
         <v>24</v>
       </c>
       <c r="K512" s="50">
-        <v>2022</v>
+        <v>2018</v>
       </c>
     </row>
     <row r="513" spans="1:11">
@@ -35406,16 +35406,19 @@
         <v>630</v>
       </c>
       <c r="B513" s="43">
-        <v>42</v>
+        <v>43</v>
+      </c>
+      <c r="E513" s="44" t="s">
+        <v>44</v>
       </c>
       <c r="G513" s="46" t="s">
-        <v>54</v>
-      </c>
-      <c r="J513" s="49" t="s">
-        <v>125</v>
+        <v>23</v>
+      </c>
+      <c r="H513" s="47" t="s">
+        <v>24</v>
       </c>
       <c r="K513" s="50">
-        <v>2020</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="514" spans="1:11">
@@ -35425,17 +35428,14 @@
       <c r="B514" s="43">
         <v>42</v>
       </c>
-      <c r="E514" s="44" t="s">
-        <v>12</v>
-      </c>
-      <c r="F514" s="45" t="s">
-        <v>73</v>
-      </c>
       <c r="G514" s="46" t="s">
-        <v>14</v>
+        <v>54</v>
+      </c>
+      <c r="J514" s="49" t="s">
+        <v>125</v>
       </c>
       <c r="K514" s="50">
-        <v>2000</v>
+        <v>2020</v>
       </c>
     </row>
     <row r="515" spans="1:11">
@@ -35445,14 +35445,17 @@
       <c r="B515" s="43">
         <v>42</v>
       </c>
+      <c r="E515" s="44" t="s">
+        <v>12</v>
+      </c>
+      <c r="F515" s="45" t="s">
+        <v>73</v>
+      </c>
       <c r="G515" s="46" t="s">
-        <v>23</v>
-      </c>
-      <c r="H515" s="47" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="K515" s="50">
-        <v>2020</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="516" spans="1:11">
@@ -35462,20 +35465,14 @@
       <c r="B516" s="43">
         <v>42</v>
       </c>
-      <c r="E516" s="44" t="s">
-        <v>220</v>
-      </c>
-      <c r="F516" s="45" t="s">
-        <v>495</v>
-      </c>
       <c r="G516" s="46" t="s">
-        <v>65</v>
+        <v>23</v>
       </c>
       <c r="H516" s="47" t="s">
-        <v>158</v>
+        <v>24</v>
       </c>
       <c r="K516" s="50">
-        <v>2022</v>
+        <v>2020</v>
       </c>
     </row>
     <row r="517" spans="1:11">
@@ -35483,19 +35480,22 @@
         <v>634</v>
       </c>
       <c r="B517" s="43">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E517" s="44" t="s">
-        <v>12</v>
+        <v>220</v>
       </c>
       <c r="F517" s="45" t="s">
-        <v>26</v>
+        <v>495</v>
       </c>
       <c r="G517" s="46" t="s">
-        <v>23</v>
+        <v>65</v>
+      </c>
+      <c r="H517" s="47" t="s">
+        <v>158</v>
       </c>
       <c r="K517" s="50">
-        <v>1999</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="518" spans="1:11">
@@ -35506,16 +35506,16 @@
         <v>41</v>
       </c>
       <c r="E518" s="44" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="F518" s="45" t="s">
-        <v>101</v>
+        <v>26</v>
       </c>
       <c r="G518" s="46" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="K518" s="50">
-        <v>2016</v>
+        <v>1999</v>
       </c>
     </row>
     <row r="519" spans="1:11">
@@ -35526,19 +35526,16 @@
         <v>41</v>
       </c>
       <c r="E519" s="44" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="F519" s="45" t="s">
-        <v>73</v>
+        <v>101</v>
       </c>
       <c r="G519" s="46" t="s">
-        <v>14</v>
-      </c>
-      <c r="H519" s="47" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="K519" s="50">
-        <v>1994</v>
+        <v>2016</v>
       </c>
     </row>
     <row r="520" spans="1:11">
@@ -35549,16 +35546,19 @@
         <v>41</v>
       </c>
       <c r="E520" s="44" t="s">
-        <v>248</v>
+        <v>12</v>
+      </c>
+      <c r="F520" s="45" t="s">
+        <v>73</v>
       </c>
       <c r="G520" s="46" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="H520" s="47" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="K520" s="50">
-        <v>2021</v>
+        <v>1994</v>
       </c>
     </row>
     <row r="521" spans="1:11">
@@ -35566,19 +35566,19 @@
         <v>638</v>
       </c>
       <c r="B521" s="43">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E521" s="44" t="s">
-        <v>12</v>
-      </c>
-      <c r="F521" s="45" t="s">
-        <v>73</v>
+        <v>248</v>
       </c>
       <c r="G521" s="46" t="s">
-        <v>14</v>
+        <v>23</v>
+      </c>
+      <c r="H521" s="47" t="s">
+        <v>38</v>
       </c>
       <c r="K521" s="50">
-        <v>2005</v>
+        <v>2021</v>
       </c>
     </row>
     <row r="522" spans="1:11">
@@ -35588,14 +35588,17 @@
       <c r="B522" s="43">
         <v>40</v>
       </c>
+      <c r="E522" s="44" t="s">
+        <v>12</v>
+      </c>
+      <c r="F522" s="45" t="s">
+        <v>73</v>
+      </c>
       <c r="G522" s="46" t="s">
-        <v>24</v>
-      </c>
-      <c r="H522" s="47" t="s">
-        <v>38</v>
+        <v>14</v>
       </c>
       <c r="K522" s="50">
-        <v>2007</v>
+        <v>2005</v>
       </c>
     </row>
     <row r="523" spans="1:11">
@@ -35605,11 +35608,11 @@
       <c r="B523" s="43">
         <v>40</v>
       </c>
-      <c r="E523" s="44" t="s">
-        <v>30</v>
-      </c>
       <c r="G523" s="46" t="s">
-        <v>14</v>
+        <v>24</v>
+      </c>
+      <c r="H523" s="47" t="s">
+        <v>38</v>
       </c>
       <c r="K523" s="50">
         <v>2007</v>
@@ -35622,14 +35625,14 @@
       <c r="B524" s="43">
         <v>40</v>
       </c>
+      <c r="E524" s="44" t="s">
+        <v>30</v>
+      </c>
       <c r="G524" s="46" t="s">
-        <v>34</v>
-      </c>
-      <c r="H524" s="47" t="s">
-        <v>133</v>
+        <v>14</v>
       </c>
       <c r="K524" s="50">
-        <v>2021</v>
+        <v>2007</v>
       </c>
     </row>
     <row r="525" spans="1:11">
@@ -35637,22 +35640,16 @@
         <v>642</v>
       </c>
       <c r="B525" s="43">
-        <v>39</v>
-      </c>
-      <c r="E525" s="44" t="s">
-        <v>471</v>
-      </c>
-      <c r="F525" s="45" t="s">
-        <v>470</v>
+        <v>40</v>
       </c>
       <c r="G525" s="46" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H525" s="47" t="s">
-        <v>260</v>
+        <v>133</v>
       </c>
       <c r="K525" s="50">
-        <v>1981</v>
+        <v>2021</v>
       </c>
     </row>
     <row r="526" spans="1:11">
@@ -35663,19 +35660,19 @@
         <v>39</v>
       </c>
       <c r="E526" s="44" t="s">
-        <v>12</v>
+        <v>471</v>
       </c>
       <c r="F526" s="45" t="s">
-        <v>296</v>
+        <v>470</v>
       </c>
       <c r="G526" s="46" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="H526" s="47" t="s">
-        <v>31</v>
+        <v>260</v>
       </c>
       <c r="K526" s="50">
-        <v>2019</v>
+        <v>1981</v>
       </c>
     </row>
     <row r="527" spans="1:11">
@@ -35685,11 +35682,20 @@
       <c r="B527" s="43">
         <v>39</v>
       </c>
+      <c r="E527" s="44" t="s">
+        <v>12</v>
+      </c>
+      <c r="F527" s="45" t="s">
+        <v>296</v>
+      </c>
       <c r="G527" s="46" t="s">
-        <v>54</v>
+        <v>34</v>
+      </c>
+      <c r="H527" s="47" t="s">
+        <v>31</v>
       </c>
       <c r="K527" s="50">
-        <v>1986</v>
+        <v>2019</v>
       </c>
     </row>
     <row r="528" spans="1:11">
@@ -35697,19 +35703,13 @@
         <v>645</v>
       </c>
       <c r="B528" s="43">
-        <v>38</v>
-      </c>
-      <c r="E528" s="44" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="G528" s="46" t="s">
-        <v>23</v>
-      </c>
-      <c r="H528" s="47" t="s">
-        <v>24</v>
+        <v>54</v>
       </c>
       <c r="K528" s="50">
-        <v>2001</v>
+        <v>1986</v>
       </c>
     </row>
     <row r="529" spans="1:11">
@@ -35720,42 +35720,36 @@
         <v>38</v>
       </c>
       <c r="E529" s="44" t="s">
-        <v>647</v>
+        <v>44</v>
       </c>
       <c r="G529" s="46" t="s">
-        <v>54</v>
-      </c>
-      <c r="J529" s="49" t="s">
-        <v>327</v>
+        <v>23</v>
+      </c>
+      <c r="H529" s="47" t="s">
+        <v>24</v>
       </c>
       <c r="K529" s="50">
-        <v>2021</v>
+        <v>2001</v>
       </c>
     </row>
     <row r="530" spans="1:11">
       <c r="A530" s="42" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="B530" s="43">
         <v>38</v>
       </c>
       <c r="E530" s="44" t="s">
-        <v>46</v>
-      </c>
-      <c r="F530" s="45" t="s">
-        <v>140</v>
+        <v>648</v>
       </c>
       <c r="G530" s="46" t="s">
-        <v>18</v>
-      </c>
-      <c r="H530" s="47" t="s">
-        <v>31</v>
+        <v>54</v>
       </c>
       <c r="J530" s="49" t="s">
-        <v>352</v>
+        <v>327</v>
       </c>
       <c r="K530" s="50">
-        <v>2020</v>
+        <v>2021</v>
       </c>
     </row>
     <row r="531" spans="1:11">
@@ -35766,16 +35760,22 @@
         <v>38</v>
       </c>
       <c r="E531" s="44" t="s">
-        <v>16</v>
+        <v>46</v>
       </c>
       <c r="F531" s="45" t="s">
-        <v>101</v>
+        <v>140</v>
       </c>
       <c r="G531" s="46" t="s">
         <v>18</v>
       </c>
+      <c r="H531" s="47" t="s">
+        <v>31</v>
+      </c>
+      <c r="J531" s="49" t="s">
+        <v>352</v>
+      </c>
       <c r="K531" s="50">
-        <v>2019</v>
+        <v>2020</v>
       </c>
     </row>
     <row r="532" spans="1:11">
@@ -35783,19 +35783,19 @@
         <v>650</v>
       </c>
       <c r="B532" s="43">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E532" s="44" t="s">
-        <v>559</v>
+        <v>16</v>
+      </c>
+      <c r="F532" s="45" t="s">
+        <v>101</v>
       </c>
       <c r="G532" s="46" t="s">
-        <v>133</v>
-      </c>
-      <c r="H532" s="47" t="s">
-        <v>158</v>
+        <v>18</v>
       </c>
       <c r="K532" s="50">
-        <v>2021</v>
+        <v>2019</v>
       </c>
     </row>
     <row r="533" spans="1:11">
@@ -35805,11 +35805,17 @@
       <c r="B533" s="43">
         <v>37</v>
       </c>
+      <c r="E533" s="44" t="s">
+        <v>560</v>
+      </c>
       <c r="G533" s="46" t="s">
-        <v>54</v>
+        <v>133</v>
+      </c>
+      <c r="H533" s="47" t="s">
+        <v>158</v>
       </c>
       <c r="K533" s="50">
-        <v>2004</v>
+        <v>2021</v>
       </c>
     </row>
     <row r="534" spans="1:11">
@@ -35820,13 +35826,10 @@
         <v>37</v>
       </c>
       <c r="G534" s="46" t="s">
-        <v>57</v>
-      </c>
-      <c r="H534" s="47" t="s">
-        <v>38</v>
+        <v>54</v>
       </c>
       <c r="K534" s="50">
-        <v>2001</v>
+        <v>2004</v>
       </c>
     </row>
     <row r="535" spans="1:11">
@@ -35834,19 +35837,16 @@
         <v>653</v>
       </c>
       <c r="B535" s="43">
-        <v>36</v>
-      </c>
-      <c r="E535" s="44" t="s">
-        <v>12</v>
-      </c>
-      <c r="F535" s="45" t="s">
-        <v>73</v>
+        <v>37</v>
       </c>
       <c r="G535" s="46" t="s">
-        <v>14</v>
+        <v>57</v>
+      </c>
+      <c r="H535" s="47" t="s">
+        <v>38</v>
       </c>
       <c r="K535" s="50">
-        <v>1970</v>
+        <v>2001</v>
       </c>
     </row>
     <row r="536" spans="1:11">
@@ -35856,17 +35856,17 @@
       <c r="B536" s="43">
         <v>36</v>
       </c>
+      <c r="E536" s="44" t="s">
+        <v>12</v>
+      </c>
+      <c r="F536" s="45" t="s">
+        <v>73</v>
+      </c>
       <c r="G536" s="46" t="s">
-        <v>54</v>
-      </c>
-      <c r="H536" s="47" t="s">
-        <v>24</v>
-      </c>
-      <c r="J536" s="49" t="s">
-        <v>125</v>
+        <v>14</v>
       </c>
       <c r="K536" s="50">
-        <v>2020</v>
+        <v>1970</v>
       </c>
     </row>
     <row r="537" spans="1:11">
@@ -35876,17 +35876,17 @@
       <c r="B537" s="43">
         <v>36</v>
       </c>
-      <c r="E537" s="44" t="s">
-        <v>197</v>
-      </c>
       <c r="G537" s="46" t="s">
-        <v>23</v>
+        <v>54</v>
       </c>
       <c r="H537" s="47" t="s">
-        <v>54</v>
+        <v>24</v>
+      </c>
+      <c r="J537" s="49" t="s">
+        <v>125</v>
       </c>
       <c r="K537" s="50">
-        <v>2019</v>
+        <v>2020</v>
       </c>
     </row>
     <row r="538" spans="1:11">
@@ -35896,14 +35896,17 @@
       <c r="B538" s="43">
         <v>36</v>
       </c>
+      <c r="E538" s="44" t="s">
+        <v>197</v>
+      </c>
       <c r="G538" s="46" t="s">
-        <v>133</v>
+        <v>23</v>
       </c>
       <c r="H538" s="47" t="s">
-        <v>38</v>
+        <v>54</v>
       </c>
       <c r="K538" s="50">
-        <v>1996</v>
+        <v>2019</v>
       </c>
     </row>
     <row r="539" spans="1:11">
@@ -35911,19 +35914,16 @@
         <v>657</v>
       </c>
       <c r="B539" s="43">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G539" s="46" t="s">
-        <v>24</v>
+        <v>133</v>
       </c>
       <c r="H539" s="47" t="s">
-        <v>54</v>
-      </c>
-      <c r="J539" s="49" t="s">
-        <v>125</v>
+        <v>38</v>
       </c>
       <c r="K539" s="50">
-        <v>2019</v>
+        <v>1996</v>
       </c>
     </row>
     <row r="540" spans="1:11">
@@ -35934,13 +35934,16 @@
         <v>35</v>
       </c>
       <c r="G540" s="46" t="s">
+        <v>24</v>
+      </c>
+      <c r="H540" s="47" t="s">
         <v>54</v>
       </c>
-      <c r="H540" s="47" t="s">
-        <v>181</v>
+      <c r="J540" s="49" t="s">
+        <v>125</v>
       </c>
       <c r="K540" s="50">
-        <v>1984</v>
+        <v>2019</v>
       </c>
     </row>
     <row r="541" spans="1:11">
@@ -35950,20 +35953,14 @@
       <c r="B541" s="43">
         <v>35</v>
       </c>
-      <c r="E541" s="44" t="s">
-        <v>75</v>
-      </c>
-      <c r="F541" s="45" t="s">
-        <v>82</v>
-      </c>
       <c r="G541" s="46" t="s">
-        <v>23</v>
+        <v>54</v>
       </c>
       <c r="H541" s="47" t="s">
-        <v>54</v>
+        <v>181</v>
       </c>
       <c r="K541" s="50">
-        <v>2012</v>
+        <v>1984</v>
       </c>
     </row>
     <row r="542" spans="1:11">
@@ -35973,14 +35970,20 @@
       <c r="B542" s="43">
         <v>35</v>
       </c>
+      <c r="E542" s="44" t="s">
+        <v>75</v>
+      </c>
+      <c r="F542" s="45" t="s">
+        <v>82</v>
+      </c>
       <c r="G542" s="46" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="H542" s="47" t="s">
         <v>54</v>
       </c>
       <c r="K542" s="50">
-        <v>1994</v>
+        <v>2012</v>
       </c>
     </row>
     <row r="543" spans="1:11">
@@ -35988,19 +35991,16 @@
         <v>661</v>
       </c>
       <c r="B543" s="43">
-        <v>34</v>
-      </c>
-      <c r="E543" s="44" t="s">
-        <v>12</v>
-      </c>
-      <c r="F543" s="45" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="G543" s="46" t="s">
-        <v>23</v>
+        <v>18</v>
+      </c>
+      <c r="H543" s="47" t="s">
+        <v>54</v>
       </c>
       <c r="K543" s="50">
-        <v>2002</v>
+        <v>1994</v>
       </c>
     </row>
     <row r="544" spans="1:11">
@@ -36011,19 +36011,16 @@
         <v>34</v>
       </c>
       <c r="E544" s="44" t="s">
-        <v>154</v>
+        <v>12</v>
       </c>
       <c r="F544" s="45" t="s">
-        <v>264</v>
+        <v>26</v>
       </c>
       <c r="G544" s="46" t="s">
-        <v>54</v>
-      </c>
-      <c r="H544" s="47" t="s">
-        <v>158</v>
+        <v>23</v>
       </c>
       <c r="K544" s="50">
-        <v>2008</v>
+        <v>2002</v>
       </c>
     </row>
     <row r="545" spans="1:11">
@@ -36033,11 +36030,20 @@
       <c r="B545" s="43">
         <v>34</v>
       </c>
+      <c r="E545" s="44" t="s">
+        <v>154</v>
+      </c>
+      <c r="F545" s="45" t="s">
+        <v>264</v>
+      </c>
       <c r="G545" s="46" t="s">
-        <v>57</v>
+        <v>54</v>
+      </c>
+      <c r="H545" s="47" t="s">
+        <v>158</v>
       </c>
       <c r="K545" s="50">
-        <v>2010</v>
+        <v>2008</v>
       </c>
     </row>
     <row r="546" spans="1:11">
@@ -36050,14 +36056,8 @@
       <c r="G546" s="46" t="s">
         <v>57</v>
       </c>
-      <c r="H546" s="47" t="s">
-        <v>24</v>
-      </c>
-      <c r="I546" s="48" t="s">
-        <v>98</v>
-      </c>
       <c r="K546" s="50">
-        <v>2000</v>
+        <v>2010</v>
       </c>
     </row>
     <row r="547" spans="1:11">
@@ -36065,16 +36065,19 @@
         <v>665</v>
       </c>
       <c r="B547" s="43">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G547" s="46" t="s">
+        <v>57</v>
+      </c>
+      <c r="H547" s="47" t="s">
         <v>24</v>
       </c>
-      <c r="H547" s="47" t="s">
-        <v>38</v>
+      <c r="I547" s="48" t="s">
+        <v>98</v>
       </c>
       <c r="K547" s="50">
-        <v>2019</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="548" spans="1:11">
@@ -36084,20 +36087,14 @@
       <c r="B548" s="43">
         <v>33</v>
       </c>
-      <c r="E548" s="44" t="s">
-        <v>12</v>
-      </c>
-      <c r="F548" s="45" t="s">
-        <v>73</v>
-      </c>
       <c r="G548" s="46" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="H548" s="47" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="K548" s="50">
-        <v>2000</v>
+        <v>2019</v>
       </c>
     </row>
     <row r="549" spans="1:11">
@@ -36107,11 +36104,20 @@
       <c r="B549" s="43">
         <v>33</v>
       </c>
+      <c r="E549" s="44" t="s">
+        <v>12</v>
+      </c>
+      <c r="F549" s="45" t="s">
+        <v>73</v>
+      </c>
       <c r="G549" s="46" t="s">
-        <v>18</v>
+        <v>14</v>
+      </c>
+      <c r="H549" s="47" t="s">
+        <v>31</v>
       </c>
       <c r="K549" s="50">
-        <v>2003</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="550" spans="1:11">
@@ -36122,10 +36128,10 @@
         <v>33</v>
       </c>
       <c r="G550" s="46" t="s">
-        <v>54</v>
+        <v>18</v>
       </c>
       <c r="K550" s="50">
-        <v>2006</v>
+        <v>2003</v>
       </c>
     </row>
     <row r="551" spans="1:11">
@@ -36133,13 +36139,13 @@
         <v>669</v>
       </c>
       <c r="B551" s="43">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G551" s="46" t="s">
         <v>54</v>
       </c>
       <c r="K551" s="50">
-        <v>1992</v>
+        <v>2006</v>
       </c>
     </row>
     <row r="552" spans="1:11">
@@ -36149,60 +36155,54 @@
       <c r="B552" s="43">
         <v>32</v>
       </c>
-      <c r="E552" s="44" t="s">
-        <v>342</v>
-      </c>
       <c r="G552" s="46" t="s">
-        <v>14</v>
-      </c>
-      <c r="H552" s="47" t="s">
-        <v>343</v>
-      </c>
-      <c r="I552" s="48" t="s">
-        <v>98</v>
+        <v>54</v>
       </c>
       <c r="K552" s="50">
-        <v>1968</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="553" spans="1:11">
       <c r="A553" s="42" t="s">
-        <v>336</v>
+        <v>671</v>
       </c>
       <c r="B553" s="43">
         <v>32</v>
       </c>
       <c r="E553" s="44" t="s">
-        <v>336</v>
+        <v>342</v>
       </c>
       <c r="G553" s="46" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H553" s="47" t="s">
-        <v>14</v>
+        <v>343</v>
+      </c>
+      <c r="I553" s="48" t="s">
+        <v>98</v>
       </c>
       <c r="K553" s="50">
-        <v>2007</v>
+        <v>1968</v>
       </c>
     </row>
     <row r="554" spans="1:11">
       <c r="A554" s="42" t="s">
-        <v>671</v>
+        <v>336</v>
       </c>
       <c r="B554" s="43">
         <v>32</v>
       </c>
       <c r="E554" s="44" t="s">
-        <v>50</v>
+        <v>336</v>
       </c>
       <c r="G554" s="46" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="H554" s="47" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="K554" s="50">
-        <v>2003</v>
+        <v>2007</v>
       </c>
     </row>
     <row r="555" spans="1:11">
@@ -36210,16 +36210,19 @@
         <v>672</v>
       </c>
       <c r="B555" s="43">
-        <v>31</v>
+        <v>32</v>
+      </c>
+      <c r="E555" s="44" t="s">
+        <v>50</v>
       </c>
       <c r="G555" s="46" t="s">
-        <v>43</v>
+        <v>23</v>
       </c>
       <c r="H555" s="47" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="K555" s="50">
-        <v>1988</v>
+        <v>2003</v>
       </c>
     </row>
     <row r="556" spans="1:11">
@@ -36229,17 +36232,14 @@
       <c r="B556" s="43">
         <v>31</v>
       </c>
-      <c r="E556" s="44" t="s">
-        <v>50</v>
-      </c>
       <c r="G556" s="46" t="s">
-        <v>23</v>
+        <v>43</v>
       </c>
       <c r="H556" s="47" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="K556" s="50">
-        <v>2009</v>
+        <v>1988</v>
       </c>
     </row>
     <row r="557" spans="1:11">
@@ -36249,11 +36249,17 @@
       <c r="B557" s="43">
         <v>31</v>
       </c>
+      <c r="E557" s="44" t="s">
+        <v>50</v>
+      </c>
       <c r="G557" s="46" t="s">
-        <v>43</v>
+        <v>23</v>
+      </c>
+      <c r="H557" s="47" t="s">
+        <v>24</v>
       </c>
       <c r="K557" s="50">
-        <v>2021</v>
+        <v>2009</v>
       </c>
     </row>
     <row r="558" spans="1:11">
@@ -36264,10 +36270,10 @@
         <v>31</v>
       </c>
       <c r="G558" s="46" t="s">
-        <v>24</v>
+        <v>43</v>
       </c>
       <c r="K558" s="50">
-        <v>1995</v>
+        <v>2021</v>
       </c>
     </row>
     <row r="559" spans="1:11">
@@ -36275,36 +36281,33 @@
         <v>676</v>
       </c>
       <c r="B559" s="43">
-        <v>30</v>
-      </c>
-      <c r="E559" s="44" t="s">
-        <v>16</v>
-      </c>
-      <c r="F559" s="45" t="s">
-        <v>677</v>
+        <v>31</v>
       </c>
       <c r="G559" s="46" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="K559" s="50">
-        <v>2007</v>
+        <v>1995</v>
       </c>
     </row>
     <row r="560" spans="1:11">
       <c r="A560" s="42" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="B560" s="43">
         <v>30</v>
       </c>
+      <c r="E560" s="44" t="s">
+        <v>16</v>
+      </c>
+      <c r="F560" s="45" t="s">
+        <v>678</v>
+      </c>
       <c r="G560" s="46" t="s">
-        <v>382</v>
-      </c>
-      <c r="H560" s="47" t="s">
-        <v>54</v>
+        <v>18</v>
       </c>
       <c r="K560" s="50">
-        <v>1989</v>
+        <v>2007</v>
       </c>
     </row>
     <row r="561" spans="1:11">
@@ -36315,13 +36318,13 @@
         <v>30</v>
       </c>
       <c r="G561" s="46" t="s">
-        <v>57</v>
+        <v>382</v>
       </c>
       <c r="H561" s="47" t="s">
-        <v>24</v>
+        <v>54</v>
       </c>
       <c r="K561" s="50">
-        <v>2020</v>
+        <v>1989</v>
       </c>
     </row>
     <row r="562" spans="1:11">
@@ -36332,13 +36335,13 @@
         <v>30</v>
       </c>
       <c r="G562" s="46" t="s">
-        <v>54</v>
-      </c>
-      <c r="I562" s="48" t="s">
-        <v>473</v>
+        <v>57</v>
+      </c>
+      <c r="H562" s="47" t="s">
+        <v>24</v>
       </c>
       <c r="K562" s="50">
-        <v>2009</v>
+        <v>2020</v>
       </c>
     </row>
     <row r="563" spans="1:11">
@@ -36346,19 +36349,16 @@
         <v>681</v>
       </c>
       <c r="B563" s="43">
-        <v>29</v>
-      </c>
-      <c r="E563" s="44" t="s">
-        <v>12</v>
-      </c>
-      <c r="F563" s="45" t="s">
-        <v>73</v>
+        <v>30</v>
       </c>
       <c r="G563" s="46" t="s">
-        <v>14</v>
+        <v>54</v>
+      </c>
+      <c r="I563" s="48" t="s">
+        <v>473</v>
       </c>
       <c r="K563" s="50">
-        <v>1944</v>
+        <v>2009</v>
       </c>
     </row>
     <row r="564" spans="1:11">
@@ -36368,14 +36368,17 @@
       <c r="B564" s="43">
         <v>29</v>
       </c>
+      <c r="E564" s="44" t="s">
+        <v>12</v>
+      </c>
+      <c r="F564" s="45" t="s">
+        <v>73</v>
+      </c>
       <c r="G564" s="46" t="s">
-        <v>23</v>
-      </c>
-      <c r="H564" s="47" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="K564" s="50">
-        <v>2019</v>
+        <v>1944</v>
       </c>
     </row>
     <row r="565" spans="1:11">
@@ -36385,20 +36388,14 @@
       <c r="B565" s="43">
         <v>29</v>
       </c>
-      <c r="E565" s="44" t="s">
-        <v>342</v>
-      </c>
       <c r="G565" s="46" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="H565" s="47" t="s">
-        <v>343</v>
-      </c>
-      <c r="I565" s="48" t="s">
-        <v>98</v>
+        <v>24</v>
       </c>
       <c r="K565" s="50">
-        <v>1977</v>
+        <v>2019</v>
       </c>
     </row>
     <row r="566" spans="1:11">
@@ -36409,22 +36406,19 @@
         <v>29</v>
       </c>
       <c r="E566" s="44" t="s">
-        <v>12</v>
-      </c>
-      <c r="F566" s="45" t="s">
-        <v>264</v>
+        <v>342</v>
       </c>
       <c r="G566" s="46" t="s">
-        <v>54</v>
+        <v>14</v>
       </c>
       <c r="H566" s="47" t="s">
-        <v>158</v>
+        <v>343</v>
       </c>
       <c r="I566" s="48" t="s">
         <v>98</v>
       </c>
       <c r="K566" s="50">
-        <v>2010</v>
+        <v>1977</v>
       </c>
     </row>
     <row r="567" spans="1:11">
@@ -36432,19 +36426,25 @@
         <v>685</v>
       </c>
       <c r="B567" s="43">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E567" s="44" t="s">
-        <v>278</v>
+        <v>12</v>
+      </c>
+      <c r="F567" s="45" t="s">
+        <v>264</v>
       </c>
       <c r="G567" s="46" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="H567" s="47" t="s">
-        <v>24</v>
+        <v>158</v>
+      </c>
+      <c r="I567" s="48" t="s">
+        <v>98</v>
       </c>
       <c r="K567" s="50">
-        <v>2006</v>
+        <v>2010</v>
       </c>
     </row>
     <row r="568" spans="1:11">
@@ -36454,14 +36454,17 @@
       <c r="B568" s="43">
         <v>28</v>
       </c>
+      <c r="E568" s="44" t="s">
+        <v>278</v>
+      </c>
       <c r="G568" s="46" t="s">
-        <v>133</v>
+        <v>57</v>
       </c>
       <c r="H568" s="47" t="s">
         <v>24</v>
       </c>
       <c r="K568" s="50">
-        <v>2008</v>
+        <v>2006</v>
       </c>
     </row>
     <row r="569" spans="1:11">
@@ -36471,17 +36474,14 @@
       <c r="B569" s="43">
         <v>28</v>
       </c>
-      <c r="E569" s="44" t="s">
-        <v>46</v>
-      </c>
-      <c r="F569" s="45" t="s">
-        <v>399</v>
-      </c>
       <c r="G569" s="46" t="s">
-        <v>18</v>
+        <v>133</v>
+      </c>
+      <c r="H569" s="47" t="s">
+        <v>24</v>
       </c>
       <c r="K569" s="50">
-        <v>1983</v>
+        <v>2008</v>
       </c>
     </row>
     <row r="570" spans="1:11">
@@ -36489,19 +36489,19 @@
         <v>688</v>
       </c>
       <c r="B570" s="43">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E570" s="44" t="s">
-        <v>12</v>
+        <v>46</v>
       </c>
       <c r="F570" s="45" t="s">
-        <v>160</v>
+        <v>399</v>
       </c>
       <c r="G570" s="46" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="K570" s="50">
-        <v>1946</v>
+        <v>1983</v>
       </c>
     </row>
     <row r="571" spans="1:11">
@@ -36512,16 +36512,16 @@
         <v>27</v>
       </c>
       <c r="E571" s="44" t="s">
-        <v>583</v>
+        <v>12</v>
+      </c>
+      <c r="F571" s="45" t="s">
+        <v>160</v>
       </c>
       <c r="G571" s="46" t="s">
-        <v>54</v>
-      </c>
-      <c r="H571" s="47" t="s">
-        <v>360</v>
+        <v>14</v>
       </c>
       <c r="K571" s="50">
-        <v>2003</v>
+        <v>1946</v>
       </c>
     </row>
     <row r="572" spans="1:11">
@@ -36531,17 +36531,17 @@
       <c r="B572" s="43">
         <v>27</v>
       </c>
+      <c r="E572" s="44" t="s">
+        <v>584</v>
+      </c>
       <c r="G572" s="46" t="s">
-        <v>43</v>
+        <v>54</v>
       </c>
       <c r="H572" s="47" t="s">
-        <v>158</v>
-      </c>
-      <c r="I572" s="48" t="s">
-        <v>98</v>
+        <v>360</v>
       </c>
       <c r="K572" s="50">
-        <v>2008</v>
+        <v>2003</v>
       </c>
     </row>
     <row r="573" spans="1:11">
@@ -36549,22 +36549,19 @@
         <v>691</v>
       </c>
       <c r="B573" s="43">
-        <v>26</v>
-      </c>
-      <c r="E573" s="44" t="s">
-        <v>342</v>
-      </c>
-      <c r="F573" s="45" t="s">
-        <v>534</v>
+        <v>27</v>
       </c>
       <c r="G573" s="46" t="s">
-        <v>14</v>
+        <v>43</v>
+      </c>
+      <c r="H573" s="47" t="s">
+        <v>158</v>
       </c>
       <c r="I573" s="48" t="s">
         <v>98</v>
       </c>
       <c r="K573" s="50">
-        <v>1976</v>
+        <v>2008</v>
       </c>
     </row>
     <row r="574" spans="1:11">
@@ -36575,19 +36572,19 @@
         <v>26</v>
       </c>
       <c r="E574" s="44" t="s">
-        <v>75</v>
+        <v>342</v>
       </c>
       <c r="F574" s="45" t="s">
-        <v>82</v>
+        <v>535</v>
       </c>
       <c r="G574" s="46" t="s">
-        <v>24</v>
-      </c>
-      <c r="H574" s="47" t="s">
-        <v>38</v>
+        <v>14</v>
+      </c>
+      <c r="I574" s="48" t="s">
+        <v>98</v>
       </c>
       <c r="K574" s="50">
-        <v>1995</v>
+        <v>1976</v>
       </c>
     </row>
     <row r="575" spans="1:11">
@@ -36604,10 +36601,13 @@
         <v>82</v>
       </c>
       <c r="G575" s="46" t="s">
-        <v>18</v>
+        <v>24</v>
+      </c>
+      <c r="H575" s="47" t="s">
+        <v>38</v>
       </c>
       <c r="K575" s="50">
-        <v>2003</v>
+        <v>1995</v>
       </c>
     </row>
     <row r="576" spans="1:11">
@@ -36617,11 +36617,17 @@
       <c r="B576" s="43">
         <v>26</v>
       </c>
+      <c r="E576" s="44" t="s">
+        <v>75</v>
+      </c>
+      <c r="F576" s="45" t="s">
+        <v>82</v>
+      </c>
       <c r="G576" s="46" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="K576" s="50">
-        <v>2022</v>
+        <v>2003</v>
       </c>
     </row>
     <row r="577" spans="1:11">
@@ -36629,22 +36635,13 @@
         <v>695</v>
       </c>
       <c r="B577" s="43">
-        <v>25</v>
-      </c>
-      <c r="E577" s="44" t="s">
-        <v>342</v>
-      </c>
-      <c r="F577" s="45" t="s">
-        <v>534</v>
+        <v>26</v>
       </c>
       <c r="G577" s="46" t="s">
-        <v>14</v>
-      </c>
-      <c r="I577" s="48" t="s">
-        <v>98</v>
+        <v>24</v>
       </c>
       <c r="K577" s="50">
-        <v>1992</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="578" spans="1:11">
@@ -36655,16 +36652,19 @@
         <v>25</v>
       </c>
       <c r="E578" s="44" t="s">
-        <v>46</v>
+        <v>342</v>
       </c>
       <c r="F578" s="45" t="s">
-        <v>140</v>
+        <v>535</v>
       </c>
       <c r="G578" s="46" t="s">
-        <v>18</v>
+        <v>14</v>
+      </c>
+      <c r="I578" s="48" t="s">
+        <v>98</v>
       </c>
       <c r="K578" s="50">
-        <v>2016</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="579" spans="1:11">
@@ -36675,16 +36675,16 @@
         <v>25</v>
       </c>
       <c r="E579" s="44" t="s">
-        <v>154</v>
+        <v>46</v>
+      </c>
+      <c r="F579" s="45" t="s">
+        <v>140</v>
       </c>
       <c r="G579" s="46" t="s">
-        <v>65</v>
-      </c>
-      <c r="H579" s="47" t="s">
-        <v>115</v>
+        <v>18</v>
       </c>
       <c r="K579" s="50">
-        <v>2014</v>
+        <v>2016</v>
       </c>
     </row>
     <row r="580" spans="1:11">
@@ -36692,16 +36692,19 @@
         <v>698</v>
       </c>
       <c r="B580" s="43">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E580" s="44" t="s">
         <v>154</v>
       </c>
       <c r="G580" s="46" t="s">
-        <v>43</v>
+        <v>65</v>
+      </c>
+      <c r="H580" s="47" t="s">
+        <v>115</v>
       </c>
       <c r="K580" s="50">
-        <v>1999</v>
+        <v>2014</v>
       </c>
     </row>
     <row r="581" spans="1:11">
@@ -36712,16 +36715,13 @@
         <v>24</v>
       </c>
       <c r="E581" s="44" t="s">
-        <v>16</v>
-      </c>
-      <c r="F581" s="45" t="s">
-        <v>677</v>
+        <v>154</v>
       </c>
       <c r="G581" s="46" t="s">
-        <v>18</v>
+        <v>43</v>
       </c>
       <c r="K581" s="50">
-        <v>2005</v>
+        <v>1999</v>
       </c>
     </row>
     <row r="582" spans="1:11">
@@ -36731,17 +36731,17 @@
       <c r="B582" s="43">
         <v>24</v>
       </c>
+      <c r="E582" s="44" t="s">
+        <v>16</v>
+      </c>
+      <c r="F582" s="45" t="s">
+        <v>678</v>
+      </c>
       <c r="G582" s="46" t="s">
-        <v>54</v>
-      </c>
-      <c r="H582" s="47" t="s">
-        <v>158</v>
-      </c>
-      <c r="I582" s="48" t="s">
-        <v>98</v>
+        <v>18</v>
       </c>
       <c r="K582" s="50">
-        <v>2007</v>
+        <v>2005</v>
       </c>
     </row>
     <row r="583" spans="1:11">
@@ -36752,10 +36752,16 @@
         <v>24</v>
       </c>
       <c r="G583" s="46" t="s">
-        <v>37</v>
+        <v>54</v>
+      </c>
+      <c r="H583" s="47" t="s">
+        <v>158</v>
+      </c>
+      <c r="I583" s="48" t="s">
+        <v>98</v>
       </c>
       <c r="K583" s="50">
-        <v>1997</v>
+        <v>2007</v>
       </c>
     </row>
     <row r="584" spans="1:11">
@@ -36765,20 +36771,11 @@
       <c r="B584" s="43">
         <v>24</v>
       </c>
-      <c r="E584" s="44" t="s">
-        <v>75</v>
-      </c>
-      <c r="F584" s="45" t="s">
-        <v>76</v>
-      </c>
       <c r="G584" s="46" t="s">
-        <v>23</v>
-      </c>
-      <c r="H584" s="47" t="s">
-        <v>24</v>
+        <v>37</v>
       </c>
       <c r="K584" s="50">
-        <v>1990</v>
+        <v>1997</v>
       </c>
     </row>
     <row r="585" spans="1:11">
@@ -36786,19 +36783,22 @@
         <v>703</v>
       </c>
       <c r="B585" s="43">
+        <v>24</v>
+      </c>
+      <c r="E585" s="44" t="s">
+        <v>75</v>
+      </c>
+      <c r="F585" s="45" t="s">
+        <v>76</v>
+      </c>
+      <c r="G585" s="46" t="s">
         <v>23</v>
       </c>
-      <c r="E585" s="44" t="s">
-        <v>16</v>
-      </c>
-      <c r="F585" s="45" t="s">
-        <v>101</v>
-      </c>
-      <c r="G585" s="46" t="s">
-        <v>18</v>
+      <c r="H585" s="47" t="s">
+        <v>24</v>
       </c>
       <c r="K585" s="50">
-        <v>2009</v>
+        <v>1990</v>
       </c>
     </row>
     <row r="586" spans="1:11">
@@ -36809,16 +36809,13 @@
         <v>23</v>
       </c>
       <c r="E586" s="44" t="s">
-        <v>154</v>
+        <v>16</v>
       </c>
       <c r="F586" s="45" t="s">
-        <v>705</v>
+        <v>101</v>
       </c>
       <c r="G586" s="46" t="s">
-        <v>54</v>
-      </c>
-      <c r="I586" s="48" t="s">
-        <v>706</v>
+        <v>18</v>
       </c>
       <c r="K586" s="50">
         <v>2009</v>
@@ -36826,56 +36823,62 @@
     </row>
     <row r="587" spans="1:11">
       <c r="A587" s="42" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
       <c r="B587" s="43">
         <v>23</v>
       </c>
+      <c r="E587" s="44" t="s">
+        <v>154</v>
+      </c>
+      <c r="F587" s="45" t="s">
+        <v>706</v>
+      </c>
       <c r="G587" s="46" t="s">
         <v>54</v>
       </c>
-      <c r="H587" s="47" t="s">
-        <v>24</v>
+      <c r="I587" s="48" t="s">
+        <v>707</v>
       </c>
       <c r="K587" s="50">
-        <v>1994</v>
+        <v>2009</v>
       </c>
     </row>
     <row r="588" spans="1:11">
       <c r="A588" s="42" t="s">
-        <v>610</v>
+        <v>708</v>
       </c>
       <c r="B588" s="43">
         <v>23</v>
       </c>
-      <c r="E588" s="44" t="s">
-        <v>610</v>
-      </c>
       <c r="G588" s="46" t="s">
+        <v>54</v>
+      </c>
+      <c r="H588" s="47" t="s">
         <v>24</v>
       </c>
-      <c r="H588" s="47" t="s">
-        <v>246</v>
-      </c>
       <c r="K588" s="50">
-        <v>1995</v>
+        <v>1994</v>
       </c>
     </row>
     <row r="589" spans="1:11">
       <c r="A589" s="42" t="s">
-        <v>708</v>
+        <v>611</v>
       </c>
       <c r="B589" s="43">
         <v>23</v>
       </c>
       <c r="E589" s="44" t="s">
-        <v>708</v>
+        <v>611</v>
       </c>
       <c r="G589" s="46" t="s">
-        <v>54</v>
+        <v>24</v>
+      </c>
+      <c r="H589" s="47" t="s">
+        <v>246</v>
       </c>
       <c r="K589" s="50">
-        <v>2015</v>
+        <v>1995</v>
       </c>
     </row>
     <row r="590" spans="1:11">
@@ -36883,16 +36886,16 @@
         <v>709</v>
       </c>
       <c r="B590" s="43">
-        <v>22</v>
+        <v>23</v>
+      </c>
+      <c r="E590" s="44" t="s">
+        <v>709</v>
       </c>
       <c r="G590" s="46" t="s">
-        <v>23</v>
-      </c>
-      <c r="H590" s="47" t="s">
-        <v>602</v>
+        <v>54</v>
       </c>
       <c r="K590" s="50">
-        <v>2022</v>
+        <v>2015</v>
       </c>
     </row>
     <row r="591" spans="1:11">
@@ -36902,20 +36905,14 @@
       <c r="B591" s="43">
         <v>22</v>
       </c>
-      <c r="E591" s="44" t="s">
-        <v>220</v>
-      </c>
-      <c r="F591" s="45" t="s">
-        <v>495</v>
-      </c>
       <c r="G591" s="46" t="s">
-        <v>65</v>
+        <v>23</v>
       </c>
       <c r="H591" s="47" t="s">
-        <v>158</v>
+        <v>603</v>
       </c>
       <c r="K591" s="50">
-        <v>2018</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="592" spans="1:11">
@@ -36925,11 +36922,20 @@
       <c r="B592" s="43">
         <v>22</v>
       </c>
+      <c r="E592" s="44" t="s">
+        <v>220</v>
+      </c>
+      <c r="F592" s="45" t="s">
+        <v>495</v>
+      </c>
       <c r="G592" s="46" t="s">
-        <v>43</v>
+        <v>65</v>
+      </c>
+      <c r="H592" s="47" t="s">
+        <v>158</v>
       </c>
       <c r="K592" s="50">
-        <v>2012</v>
+        <v>2018</v>
       </c>
     </row>
     <row r="593" spans="1:11">
@@ -36939,31 +36945,31 @@
       <c r="B593" s="43">
         <v>22</v>
       </c>
-      <c r="E593" s="44" t="s">
-        <v>713</v>
-      </c>
       <c r="G593" s="46" t="s">
-        <v>34</v>
-      </c>
-      <c r="H593" s="47" t="s">
-        <v>88</v>
+        <v>43</v>
       </c>
       <c r="K593" s="50">
-        <v>2020</v>
+        <v>2012</v>
       </c>
     </row>
     <row r="594" spans="1:11">
       <c r="A594" s="42" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="B594" s="43">
         <v>22</v>
       </c>
+      <c r="E594" s="44" t="s">
+        <v>714</v>
+      </c>
       <c r="G594" s="46" t="s">
-        <v>43</v>
+        <v>34</v>
+      </c>
+      <c r="H594" s="47" t="s">
+        <v>88</v>
       </c>
       <c r="K594" s="50">
-        <v>2009</v>
+        <v>2020</v>
       </c>
     </row>
     <row r="595" spans="1:11">
@@ -36973,14 +36979,11 @@
       <c r="B595" s="43">
         <v>22</v>
       </c>
-      <c r="E595" s="44" t="s">
-        <v>554</v>
-      </c>
       <c r="G595" s="46" t="s">
         <v>43</v>
       </c>
       <c r="K595" s="50">
-        <v>2019</v>
+        <v>2009</v>
       </c>
     </row>
     <row r="596" spans="1:11">
@@ -36988,16 +36991,16 @@
         <v>716</v>
       </c>
       <c r="B596" s="43">
-        <v>21</v>
+        <v>22</v>
+      </c>
+      <c r="E596" s="44" t="s">
+        <v>555</v>
       </c>
       <c r="G596" s="46" t="s">
-        <v>57</v>
-      </c>
-      <c r="H596" s="47" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="K596" s="50">
-        <v>2010</v>
+        <v>2019</v>
       </c>
     </row>
     <row r="597" spans="1:11">
@@ -37008,13 +37011,13 @@
         <v>21</v>
       </c>
       <c r="G597" s="46" t="s">
-        <v>24</v>
+        <v>57</v>
       </c>
       <c r="H597" s="47" t="s">
-        <v>450</v>
+        <v>54</v>
       </c>
       <c r="K597" s="50">
-        <v>2022</v>
+        <v>2010</v>
       </c>
     </row>
     <row r="598" spans="1:11">
@@ -37025,10 +37028,13 @@
         <v>21</v>
       </c>
       <c r="G598" s="46" t="s">
-        <v>14</v>
+        <v>24</v>
+      </c>
+      <c r="H598" s="47" t="s">
+        <v>450</v>
       </c>
       <c r="K598" s="50">
-        <v>2019</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="599" spans="1:11">
@@ -37039,10 +37045,7 @@
         <v>21</v>
       </c>
       <c r="G599" s="46" t="s">
-        <v>57</v>
-      </c>
-      <c r="H599" s="47" t="s">
-        <v>38</v>
+        <v>14</v>
       </c>
       <c r="K599" s="50">
         <v>2019</v>
@@ -37056,13 +37059,13 @@
         <v>21</v>
       </c>
       <c r="G600" s="46" t="s">
-        <v>23</v>
+        <v>57</v>
       </c>
       <c r="H600" s="47" t="s">
-        <v>24</v>
+        <v>38</v>
       </c>
       <c r="K600" s="50">
-        <v>1995</v>
+        <v>2019</v>
       </c>
     </row>
     <row r="601" spans="1:11">
@@ -37070,19 +37073,16 @@
         <v>721</v>
       </c>
       <c r="B601" s="43">
-        <v>20</v>
-      </c>
-      <c r="E601" s="44" t="s">
-        <v>16</v>
-      </c>
-      <c r="F601" s="45" t="s">
-        <v>489</v>
+        <v>21</v>
       </c>
       <c r="G601" s="46" t="s">
-        <v>18</v>
+        <v>23</v>
+      </c>
+      <c r="H601" s="47" t="s">
+        <v>24</v>
       </c>
       <c r="K601" s="50">
-        <v>2022</v>
+        <v>1995</v>
       </c>
     </row>
     <row r="602" spans="1:11">
@@ -37093,13 +37093,16 @@
         <v>20</v>
       </c>
       <c r="E602" s="44" t="s">
-        <v>154</v>
+        <v>16</v>
+      </c>
+      <c r="F602" s="45" t="s">
+        <v>489</v>
       </c>
       <c r="G602" s="46" t="s">
-        <v>54</v>
+        <v>18</v>
       </c>
       <c r="K602" s="50">
-        <v>2015</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="603" spans="1:11">
@@ -37110,16 +37113,13 @@
         <v>20</v>
       </c>
       <c r="E603" s="44" t="s">
-        <v>16</v>
-      </c>
-      <c r="F603" s="45" t="s">
-        <v>677</v>
+        <v>154</v>
       </c>
       <c r="G603" s="46" t="s">
-        <v>18</v>
+        <v>54</v>
       </c>
       <c r="K603" s="50">
-        <v>2003</v>
+        <v>2015</v>
       </c>
     </row>
     <row r="604" spans="1:11">
@@ -37133,13 +37133,13 @@
         <v>16</v>
       </c>
       <c r="F604" s="45" t="s">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="G604" s="46" t="s">
         <v>18</v>
       </c>
       <c r="K604" s="50">
-        <v>2011</v>
+        <v>2003</v>
       </c>
     </row>
     <row r="605" spans="1:11">
@@ -37147,16 +37147,19 @@
         <v>725</v>
       </c>
       <c r="B605" s="43">
-        <v>19</v>
+        <v>20</v>
+      </c>
+      <c r="E605" s="44" t="s">
+        <v>16</v>
+      </c>
+      <c r="F605" s="45" t="s">
+        <v>678</v>
       </c>
       <c r="G605" s="46" t="s">
-        <v>24</v>
-      </c>
-      <c r="H605" s="47" t="s">
-        <v>54</v>
+        <v>18</v>
       </c>
       <c r="K605" s="50">
-        <v>2016</v>
+        <v>2011</v>
       </c>
     </row>
     <row r="606" spans="1:11">
@@ -37167,13 +37170,13 @@
         <v>19</v>
       </c>
       <c r="G606" s="46" t="s">
-        <v>57</v>
+        <v>24</v>
       </c>
       <c r="H606" s="47" t="s">
-        <v>24</v>
+        <v>54</v>
       </c>
       <c r="K606" s="50">
-        <v>2018</v>
+        <v>2016</v>
       </c>
     </row>
     <row r="607" spans="1:11">
@@ -37183,17 +37186,14 @@
       <c r="B607" s="43">
         <v>19</v>
       </c>
-      <c r="E607" s="44" t="s">
-        <v>16</v>
-      </c>
-      <c r="F607" s="45" t="s">
-        <v>677</v>
-      </c>
       <c r="G607" s="46" t="s">
-        <v>18</v>
+        <v>57</v>
+      </c>
+      <c r="H607" s="47" t="s">
+        <v>24</v>
       </c>
       <c r="K607" s="50">
-        <v>2007</v>
+        <v>2018</v>
       </c>
     </row>
     <row r="608" spans="1:11">
@@ -37203,57 +37203,57 @@
       <c r="B608" s="43">
         <v>19</v>
       </c>
+      <c r="E608" s="44" t="s">
+        <v>16</v>
+      </c>
+      <c r="F608" s="45" t="s">
+        <v>678</v>
+      </c>
       <c r="G608" s="46" t="s">
-        <v>37</v>
-      </c>
-      <c r="H608" s="47" t="s">
-        <v>38</v>
-      </c>
-      <c r="J608" s="49" t="s">
-        <v>125</v>
+        <v>18</v>
       </c>
       <c r="K608" s="50">
-        <v>2022</v>
+        <v>2007</v>
       </c>
     </row>
     <row r="609" spans="1:11">
       <c r="A609" s="42" t="s">
-        <v>713</v>
+        <v>729</v>
       </c>
       <c r="B609" s="43">
-        <v>18</v>
-      </c>
-      <c r="E609" s="44" t="s">
-        <v>713</v>
+        <v>19</v>
       </c>
       <c r="G609" s="46" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="H609" s="47" t="s">
-        <v>88</v>
+        <v>38</v>
+      </c>
+      <c r="J609" s="49" t="s">
+        <v>125</v>
       </c>
       <c r="K609" s="50">
-        <v>2019</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="610" spans="1:11">
       <c r="A610" s="42" t="s">
-        <v>729</v>
+        <v>714</v>
       </c>
       <c r="B610" s="43">
         <v>18</v>
       </c>
       <c r="E610" s="44" t="s">
-        <v>541</v>
+        <v>714</v>
       </c>
       <c r="G610" s="46" t="s">
-        <v>54</v>
+        <v>34</v>
       </c>
       <c r="H610" s="47" t="s">
-        <v>158</v>
+        <v>88</v>
       </c>
       <c r="K610" s="50">
-        <v>2004</v>
+        <v>2019</v>
       </c>
     </row>
     <row r="611" spans="1:11">
@@ -37263,14 +37263,17 @@
       <c r="B611" s="43">
         <v>18</v>
       </c>
+      <c r="E611" s="44" t="s">
+        <v>542</v>
+      </c>
       <c r="G611" s="46" t="s">
-        <v>34</v>
+        <v>54</v>
       </c>
       <c r="H611" s="47" t="s">
-        <v>181</v>
+        <v>158</v>
       </c>
       <c r="K611" s="50">
-        <v>2021</v>
+        <v>2004</v>
       </c>
     </row>
     <row r="612" spans="1:11">
@@ -37278,19 +37281,16 @@
         <v>731</v>
       </c>
       <c r="B612" s="43">
-        <v>17</v>
-      </c>
-      <c r="E612" s="44" t="s">
-        <v>50</v>
+        <v>18</v>
       </c>
       <c r="G612" s="46" t="s">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="H612" s="47" t="s">
-        <v>24</v>
+        <v>181</v>
       </c>
       <c r="K612" s="50">
-        <v>2015</v>
+        <v>2021</v>
       </c>
     </row>
     <row r="613" spans="1:11">
@@ -37300,14 +37300,17 @@
       <c r="B613" s="43">
         <v>17</v>
       </c>
+      <c r="E613" s="44" t="s">
+        <v>50</v>
+      </c>
       <c r="G613" s="46" t="s">
-        <v>54</v>
+        <v>23</v>
       </c>
       <c r="H613" s="47" t="s">
-        <v>158</v>
+        <v>24</v>
       </c>
       <c r="K613" s="50">
-        <v>1994</v>
+        <v>2015</v>
       </c>
     </row>
     <row r="614" spans="1:11">
@@ -37317,17 +37320,14 @@
       <c r="B614" s="43">
         <v>17</v>
       </c>
-      <c r="E614" s="44" t="s">
-        <v>42</v>
-      </c>
       <c r="G614" s="46" t="s">
         <v>54</v>
       </c>
-      <c r="J614" s="49" t="s">
-        <v>125</v>
+      <c r="H614" s="47" t="s">
+        <v>158</v>
       </c>
       <c r="K614" s="50">
-        <v>2022</v>
+        <v>1994</v>
       </c>
     </row>
     <row r="615" spans="1:11">
@@ -37335,16 +37335,19 @@
         <v>734</v>
       </c>
       <c r="B615" s="43">
-        <v>16</v>
+        <v>17</v>
+      </c>
+      <c r="E615" s="44" t="s">
+        <v>42</v>
       </c>
       <c r="G615" s="46" t="s">
-        <v>57</v>
-      </c>
-      <c r="H615" s="47" t="s">
-        <v>38</v>
+        <v>54</v>
+      </c>
+      <c r="J615" s="49" t="s">
+        <v>125</v>
       </c>
       <c r="K615" s="50">
-        <v>2019</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="616" spans="1:11">
@@ -37354,20 +37357,14 @@
       <c r="B616" s="43">
         <v>16</v>
       </c>
-      <c r="E616" s="44" t="s">
-        <v>471</v>
-      </c>
-      <c r="F616" s="45" t="s">
-        <v>470</v>
-      </c>
       <c r="G616" s="46" t="s">
-        <v>37</v>
+        <v>57</v>
       </c>
       <c r="H616" s="47" t="s">
-        <v>260</v>
+        <v>38</v>
       </c>
       <c r="K616" s="50">
-        <v>1984</v>
+        <v>2019</v>
       </c>
     </row>
     <row r="617" spans="1:11">
@@ -37378,16 +37375,19 @@
         <v>16</v>
       </c>
       <c r="E617" s="44" t="s">
-        <v>389</v>
+        <v>471</v>
+      </c>
+      <c r="F617" s="45" t="s">
+        <v>470</v>
       </c>
       <c r="G617" s="46" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="H617" s="47" t="s">
-        <v>390</v>
+        <v>260</v>
       </c>
       <c r="K617" s="50">
-        <v>1983</v>
+        <v>1984</v>
       </c>
     </row>
     <row r="618" spans="1:11">
@@ -37397,11 +37397,17 @@
       <c r="B618" s="43">
         <v>16</v>
       </c>
+      <c r="E618" s="44" t="s">
+        <v>389</v>
+      </c>
       <c r="G618" s="46" t="s">
-        <v>38</v>
+        <v>34</v>
+      </c>
+      <c r="H618" s="47" t="s">
+        <v>390</v>
       </c>
       <c r="K618" s="50">
-        <v>2000</v>
+        <v>1983</v>
       </c>
     </row>
     <row r="619" spans="1:11">
@@ -37412,13 +37418,10 @@
         <v>16</v>
       </c>
       <c r="G619" s="46" t="s">
-        <v>65</v>
-      </c>
-      <c r="H619" s="47" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="K619" s="50">
-        <v>1990</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="620" spans="1:11">
@@ -37426,16 +37429,16 @@
         <v>739</v>
       </c>
       <c r="B620" s="43">
-        <v>15</v>
-      </c>
-      <c r="E620" s="44" t="s">
-        <v>42</v>
+        <v>16</v>
       </c>
       <c r="G620" s="46" t="s">
+        <v>65</v>
+      </c>
+      <c r="H620" s="47" t="s">
         <v>54</v>
       </c>
       <c r="K620" s="50">
-        <v>2008</v>
+        <v>1990</v>
       </c>
     </row>
     <row r="621" spans="1:11">
@@ -37446,19 +37449,13 @@
         <v>15</v>
       </c>
       <c r="E621" s="44" t="s">
-        <v>12</v>
-      </c>
-      <c r="F621" s="45" t="s">
-        <v>191</v>
+        <v>42</v>
       </c>
       <c r="G621" s="46" t="s">
         <v>54</v>
       </c>
-      <c r="H621" s="47" t="s">
-        <v>158</v>
-      </c>
       <c r="K621" s="50">
-        <v>2003</v>
+        <v>2008</v>
       </c>
     </row>
     <row r="622" spans="1:11">
@@ -37468,14 +37465,20 @@
       <c r="B622" s="43">
         <v>15</v>
       </c>
+      <c r="E622" s="44" t="s">
+        <v>12</v>
+      </c>
+      <c r="F622" s="45" t="s">
+        <v>191</v>
+      </c>
       <c r="G622" s="46" t="s">
-        <v>24</v>
+        <v>54</v>
       </c>
       <c r="H622" s="47" t="s">
-        <v>38</v>
+        <v>158</v>
       </c>
       <c r="K622" s="50">
-        <v>2013</v>
+        <v>2003</v>
       </c>
     </row>
     <row r="623" spans="1:11">
@@ -37485,17 +37488,14 @@
       <c r="B623" s="43">
         <v>15</v>
       </c>
-      <c r="E623" s="44" t="s">
-        <v>742</v>
-      </c>
       <c r="G623" s="46" t="s">
-        <v>43</v>
-      </c>
-      <c r="J623" s="49" t="s">
-        <v>125</v>
+        <v>24</v>
+      </c>
+      <c r="H623" s="47" t="s">
+        <v>38</v>
       </c>
       <c r="K623" s="50">
-        <v>2018</v>
+        <v>2013</v>
       </c>
     </row>
     <row r="624" spans="1:11">
@@ -37503,19 +37503,19 @@
         <v>743</v>
       </c>
       <c r="B624" s="43">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E624" s="44" t="s">
-        <v>154</v>
-      </c>
-      <c r="F624" s="45" t="s">
         <v>743</v>
       </c>
       <c r="G624" s="46" t="s">
-        <v>54</v>
+        <v>43</v>
+      </c>
+      <c r="J624" s="49" t="s">
+        <v>125</v>
       </c>
       <c r="K624" s="50">
-        <v>2010</v>
+        <v>2018</v>
       </c>
     </row>
     <row r="625" spans="1:11">
@@ -37526,19 +37526,16 @@
         <v>14</v>
       </c>
       <c r="E625" s="44" t="s">
-        <v>46</v>
+        <v>154</v>
       </c>
       <c r="F625" s="45" t="s">
-        <v>338</v>
+        <v>744</v>
       </c>
       <c r="G625" s="46" t="s">
-        <v>18</v>
-      </c>
-      <c r="I625" s="48" t="s">
-        <v>444</v>
+        <v>54</v>
       </c>
       <c r="K625" s="50">
-        <v>1995</v>
+        <v>2010</v>
       </c>
     </row>
     <row r="626" spans="1:11">
@@ -37548,11 +37545,20 @@
       <c r="B626" s="43">
         <v>14</v>
       </c>
+      <c r="E626" s="44" t="s">
+        <v>46</v>
+      </c>
+      <c r="F626" s="45" t="s">
+        <v>338</v>
+      </c>
       <c r="G626" s="46" t="s">
-        <v>54</v>
+        <v>18</v>
+      </c>
+      <c r="I626" s="48" t="s">
+        <v>444</v>
       </c>
       <c r="K626" s="50">
-        <v>2013</v>
+        <v>1995</v>
       </c>
     </row>
     <row r="627" spans="1:11">
@@ -37566,7 +37572,7 @@
         <v>54</v>
       </c>
       <c r="K627" s="50">
-        <v>2004</v>
+        <v>2013</v>
       </c>
     </row>
     <row r="628" spans="1:11">
@@ -37579,9 +37585,6 @@
       <c r="G628" s="46" t="s">
         <v>54</v>
       </c>
-      <c r="H628" s="47" t="s">
-        <v>115</v>
-      </c>
       <c r="K628" s="50">
         <v>2004</v>
       </c>
@@ -37591,22 +37594,16 @@
         <v>748</v>
       </c>
       <c r="B629" s="43">
-        <v>13</v>
-      </c>
-      <c r="E629" s="44" t="s">
-        <v>154</v>
+        <v>14</v>
       </c>
       <c r="G629" s="46" t="s">
-        <v>133</v>
+        <v>54</v>
       </c>
       <c r="H629" s="47" t="s">
-        <v>54</v>
-      </c>
-      <c r="J629" s="49" t="s">
-        <v>125</v>
+        <v>115</v>
       </c>
       <c r="K629" s="50">
-        <v>2022</v>
+        <v>2004</v>
       </c>
     </row>
     <row r="630" spans="1:11">
@@ -37617,16 +37614,19 @@
         <v>13</v>
       </c>
       <c r="E630" s="44" t="s">
-        <v>583</v>
+        <v>154</v>
       </c>
       <c r="G630" s="46" t="s">
+        <v>133</v>
+      </c>
+      <c r="H630" s="47" t="s">
         <v>54</v>
       </c>
-      <c r="H630" s="47" t="s">
-        <v>360</v>
+      <c r="J630" s="49" t="s">
+        <v>125</v>
       </c>
       <c r="K630" s="50">
-        <v>2006</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="631" spans="1:11">
@@ -37637,16 +37637,16 @@
         <v>13</v>
       </c>
       <c r="E631" s="44" t="s">
-        <v>587</v>
+        <v>584</v>
       </c>
       <c r="G631" s="46" t="s">
-        <v>133</v>
+        <v>54</v>
       </c>
       <c r="H631" s="47" t="s">
-        <v>54</v>
+        <v>360</v>
       </c>
       <c r="K631" s="50">
-        <v>1987</v>
+        <v>2006</v>
       </c>
     </row>
     <row r="632" spans="1:11">
@@ -37657,36 +37657,39 @@
         <v>13</v>
       </c>
       <c r="E632" s="44" t="s">
-        <v>752</v>
+        <v>588</v>
       </c>
       <c r="G632" s="46" t="s">
+        <v>133</v>
+      </c>
+      <c r="H632" s="47" t="s">
         <v>54</v>
       </c>
-      <c r="H632" s="47" t="s">
-        <v>175</v>
-      </c>
-      <c r="J632" s="49" t="s">
-        <v>125</v>
-      </c>
       <c r="K632" s="50">
-        <v>2022</v>
+        <v>1987</v>
       </c>
     </row>
     <row r="633" spans="1:11">
       <c r="A633" s="42" t="s">
+        <v>752</v>
+      </c>
+      <c r="B633" s="43">
+        <v>13</v>
+      </c>
+      <c r="E633" s="44" t="s">
         <v>753</v>
       </c>
-      <c r="B633" s="43">
-        <v>12</v>
-      </c>
       <c r="G633" s="46" t="s">
-        <v>40</v>
+        <v>54</v>
       </c>
       <c r="H633" s="47" t="s">
-        <v>38</v>
+        <v>175</v>
+      </c>
+      <c r="J633" s="49" t="s">
+        <v>125</v>
       </c>
       <c r="K633" s="50">
-        <v>1995</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="634" spans="1:11">
@@ -37697,7 +37700,10 @@
         <v>12</v>
       </c>
       <c r="G634" s="46" t="s">
-        <v>34</v>
+        <v>40</v>
+      </c>
+      <c r="H634" s="47" t="s">
+        <v>38</v>
       </c>
       <c r="K634" s="50">
         <v>1995</v>
@@ -37710,57 +37716,51 @@
       <c r="B635" s="43">
         <v>12</v>
       </c>
-      <c r="E635" s="44" t="s">
-        <v>755</v>
-      </c>
       <c r="G635" s="46" t="s">
-        <v>54</v>
-      </c>
-      <c r="H635" s="47" t="s">
-        <v>158</v>
+        <v>34</v>
       </c>
       <c r="K635" s="50">
-        <v>2003</v>
+        <v>1995</v>
       </c>
     </row>
     <row r="636" spans="1:11">
       <c r="A636" s="42" t="s">
-        <v>752</v>
+        <v>756</v>
       </c>
       <c r="B636" s="43">
         <v>12</v>
       </c>
       <c r="E636" s="44" t="s">
-        <v>752</v>
+        <v>756</v>
       </c>
       <c r="G636" s="46" t="s">
-        <v>43</v>
-      </c>
-      <c r="J636" s="49" t="s">
-        <v>125</v>
+        <v>54</v>
+      </c>
+      <c r="H636" s="47" t="s">
+        <v>158</v>
       </c>
       <c r="K636" s="50">
-        <v>2019</v>
+        <v>2003</v>
       </c>
     </row>
     <row r="637" spans="1:11">
       <c r="A637" s="42" t="s">
-        <v>756</v>
+        <v>753</v>
       </c>
       <c r="B637" s="43">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E637" s="44" t="s">
-        <v>46</v>
-      </c>
-      <c r="F637" s="45" t="s">
-        <v>194</v>
+        <v>753</v>
       </c>
       <c r="G637" s="46" t="s">
-        <v>18</v>
+        <v>43</v>
+      </c>
+      <c r="J637" s="49" t="s">
+        <v>125</v>
       </c>
       <c r="K637" s="50">
-        <v>2011</v>
+        <v>2019</v>
       </c>
     </row>
     <row r="638" spans="1:11">
@@ -37770,14 +37770,17 @@
       <c r="B638" s="43">
         <v>11</v>
       </c>
+      <c r="E638" s="44" t="s">
+        <v>46</v>
+      </c>
+      <c r="F638" s="45" t="s">
+        <v>194</v>
+      </c>
       <c r="G638" s="46" t="s">
-        <v>23</v>
-      </c>
-      <c r="H638" s="47" t="s">
-        <v>54</v>
+        <v>18</v>
       </c>
       <c r="K638" s="50">
-        <v>2013</v>
+        <v>2011</v>
       </c>
     </row>
     <row r="639" spans="1:11">
@@ -37787,17 +37790,14 @@
       <c r="B639" s="43">
         <v>11</v>
       </c>
-      <c r="E639" s="44" t="s">
-        <v>508</v>
-      </c>
       <c r="G639" s="46" t="s">
-        <v>43</v>
-      </c>
-      <c r="J639" s="49" t="s">
-        <v>125</v>
+        <v>23</v>
+      </c>
+      <c r="H639" s="47" t="s">
+        <v>54</v>
       </c>
       <c r="K639" s="50">
-        <v>2021</v>
+        <v>2013</v>
       </c>
     </row>
     <row r="640" spans="1:11">
@@ -37808,16 +37808,16 @@
         <v>11</v>
       </c>
       <c r="E640" s="44" t="s">
-        <v>708</v>
+        <v>509</v>
       </c>
       <c r="G640" s="46" t="s">
-        <v>54</v>
-      </c>
-      <c r="I640" s="48" t="s">
-        <v>98</v>
+        <v>43</v>
+      </c>
+      <c r="J640" s="49" t="s">
+        <v>125</v>
       </c>
       <c r="K640" s="50">
-        <v>2017</v>
+        <v>2021</v>
       </c>
     </row>
     <row r="641" spans="1:11">
@@ -37828,16 +37828,16 @@
         <v>11</v>
       </c>
       <c r="E641" s="44" t="s">
-        <v>574</v>
+        <v>709</v>
       </c>
       <c r="G641" s="46" t="s">
         <v>54</v>
       </c>
-      <c r="H641" s="47" t="s">
-        <v>158</v>
+      <c r="I641" s="48" t="s">
+        <v>98</v>
       </c>
       <c r="K641" s="50">
-        <v>1990</v>
+        <v>2017</v>
       </c>
     </row>
     <row r="642" spans="1:11">
@@ -37845,16 +37845,19 @@
         <v>761</v>
       </c>
       <c r="B642" s="43">
-        <v>10</v>
+        <v>11</v>
+      </c>
+      <c r="E642" s="44" t="s">
+        <v>575</v>
       </c>
       <c r="G642" s="46" t="s">
         <v>54</v>
       </c>
-      <c r="I642" s="48" t="s">
-        <v>98</v>
+      <c r="H642" s="47" t="s">
+        <v>158</v>
       </c>
       <c r="K642" s="50">
-        <v>2004</v>
+        <v>1990</v>
       </c>
     </row>
     <row r="643" spans="1:11">
@@ -37865,13 +37868,13 @@
         <v>10</v>
       </c>
       <c r="G643" s="46" t="s">
-        <v>23</v>
-      </c>
-      <c r="H643" s="47" t="s">
-        <v>24</v>
+        <v>54</v>
+      </c>
+      <c r="I643" s="48" t="s">
+        <v>98</v>
       </c>
       <c r="K643" s="50">
-        <v>2014</v>
+        <v>2004</v>
       </c>
     </row>
     <row r="644" spans="1:11">
@@ -37882,13 +37885,13 @@
         <v>10</v>
       </c>
       <c r="G644" s="46" t="s">
-        <v>43</v>
-      </c>
-      <c r="I644" s="48" t="s">
-        <v>763</v>
+        <v>23</v>
+      </c>
+      <c r="H644" s="47" t="s">
+        <v>24</v>
       </c>
       <c r="K644" s="50">
-        <v>2010</v>
+        <v>2014</v>
       </c>
     </row>
     <row r="645" spans="1:11">
@@ -37899,13 +37902,13 @@
         <v>10</v>
       </c>
       <c r="G645" s="46" t="s">
-        <v>54</v>
-      </c>
-      <c r="J645" s="49" t="s">
-        <v>125</v>
+        <v>43</v>
+      </c>
+      <c r="I645" s="48" t="s">
+        <v>764</v>
       </c>
       <c r="K645" s="50">
-        <v>2022</v>
+        <v>2010</v>
       </c>
     </row>
     <row r="646" spans="1:11">
@@ -37913,25 +37916,16 @@
         <v>765</v>
       </c>
       <c r="B646" s="43">
-        <v>9</v>
-      </c>
-      <c r="E646" s="44" t="s">
-        <v>12</v>
-      </c>
-      <c r="F646" s="45" t="s">
-        <v>157</v>
+        <v>10</v>
       </c>
       <c r="G646" s="46" t="s">
         <v>54</v>
       </c>
-      <c r="H646" s="47" t="s">
-        <v>158</v>
-      </c>
-      <c r="I646" s="48" t="s">
-        <v>98</v>
+      <c r="J646" s="49" t="s">
+        <v>125</v>
       </c>
       <c r="K646" s="50">
-        <v>1997</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="647" spans="1:11">
@@ -37942,13 +37936,22 @@
         <v>9</v>
       </c>
       <c r="E647" s="44" t="s">
-        <v>30</v>
+        <v>12</v>
+      </c>
+      <c r="F647" s="45" t="s">
+        <v>157</v>
       </c>
       <c r="G647" s="46" t="s">
-        <v>14</v>
+        <v>54</v>
+      </c>
+      <c r="H647" s="47" t="s">
+        <v>158</v>
+      </c>
+      <c r="I647" s="48" t="s">
+        <v>98</v>
       </c>
       <c r="K647" s="50">
-        <v>2004</v>
+        <v>1997</v>
       </c>
     </row>
     <row r="648" spans="1:11">
@@ -37958,14 +37961,14 @@
       <c r="B648" s="43">
         <v>9</v>
       </c>
+      <c r="E648" s="44" t="s">
+        <v>30</v>
+      </c>
       <c r="G648" s="46" t="s">
-        <v>23</v>
-      </c>
-      <c r="H648" s="47" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="K648" s="50">
-        <v>2012</v>
+        <v>2004</v>
       </c>
     </row>
     <row r="649" spans="1:11">
@@ -37979,10 +37982,10 @@
         <v>23</v>
       </c>
       <c r="H649" s="47" t="s">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="K649" s="50">
-        <v>1992</v>
+        <v>2012</v>
       </c>
     </row>
     <row r="650" spans="1:11">
@@ -37993,10 +37996,13 @@
         <v>9</v>
       </c>
       <c r="G650" s="46" t="s">
-        <v>54</v>
+        <v>23</v>
+      </c>
+      <c r="H650" s="47" t="s">
+        <v>37</v>
       </c>
       <c r="K650" s="50">
-        <v>1986</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="651" spans="1:11">
@@ -38004,16 +38010,13 @@
         <v>770</v>
       </c>
       <c r="B651" s="43">
-        <v>8</v>
-      </c>
-      <c r="E651" s="44" t="s">
-        <v>154</v>
+        <v>9</v>
       </c>
       <c r="G651" s="46" t="s">
         <v>54</v>
       </c>
       <c r="K651" s="50">
-        <v>2012</v>
+        <v>1986</v>
       </c>
     </row>
     <row r="652" spans="1:11">
@@ -38023,14 +38026,14 @@
       <c r="B652" s="43">
         <v>8</v>
       </c>
+      <c r="E652" s="44" t="s">
+        <v>154</v>
+      </c>
       <c r="G652" s="46" t="s">
-        <v>23</v>
-      </c>
-      <c r="H652" s="47" t="s">
-        <v>38</v>
+        <v>54</v>
       </c>
       <c r="K652" s="50">
-        <v>2009</v>
+        <v>2012</v>
       </c>
     </row>
     <row r="653" spans="1:11">
@@ -38040,14 +38043,14 @@
       <c r="B653" s="43">
         <v>8</v>
       </c>
-      <c r="E653" s="44" t="s">
-        <v>154</v>
-      </c>
       <c r="G653" s="46" t="s">
-        <v>43</v>
+        <v>23</v>
+      </c>
+      <c r="H653" s="47" t="s">
+        <v>38</v>
       </c>
       <c r="K653" s="50">
-        <v>2014</v>
+        <v>2009</v>
       </c>
     </row>
     <row r="654" spans="1:11">
@@ -38057,14 +38060,14 @@
       <c r="B654" s="43">
         <v>8</v>
       </c>
+      <c r="E654" s="44" t="s">
+        <v>154</v>
+      </c>
       <c r="G654" s="46" t="s">
-        <v>37</v>
-      </c>
-      <c r="H654" s="47" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="K654" s="50">
-        <v>2006</v>
+        <v>2014</v>
       </c>
     </row>
     <row r="655" spans="1:11">
@@ -38075,13 +38078,13 @@
         <v>8</v>
       </c>
       <c r="G655" s="46" t="s">
-        <v>133</v>
+        <v>37</v>
       </c>
       <c r="H655" s="47" t="s">
-        <v>360</v>
+        <v>40</v>
       </c>
       <c r="K655" s="50">
-        <v>1988</v>
+        <v>2006</v>
       </c>
     </row>
     <row r="656" spans="1:11">
@@ -38089,16 +38092,16 @@
         <v>775</v>
       </c>
       <c r="B656" s="43">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G656" s="46" t="s">
-        <v>54</v>
-      </c>
-      <c r="I656" s="48" t="s">
-        <v>98</v>
+        <v>133</v>
+      </c>
+      <c r="H656" s="47" t="s">
+        <v>360</v>
       </c>
       <c r="K656" s="50">
-        <v>2006</v>
+        <v>1988</v>
       </c>
     </row>
     <row r="657" spans="1:11">
@@ -38108,17 +38111,14 @@
       <c r="B657" s="43">
         <v>7</v>
       </c>
-      <c r="E657" s="44" t="s">
-        <v>46</v>
-      </c>
-      <c r="F657" s="45" t="s">
-        <v>338</v>
-      </c>
       <c r="G657" s="46" t="s">
-        <v>18</v>
+        <v>54</v>
+      </c>
+      <c r="I657" s="48" t="s">
+        <v>98</v>
       </c>
       <c r="K657" s="50">
-        <v>1997</v>
+        <v>2006</v>
       </c>
     </row>
     <row r="658" spans="1:11">
@@ -38128,11 +38128,17 @@
       <c r="B658" s="43">
         <v>7</v>
       </c>
+      <c r="E658" s="44" t="s">
+        <v>46</v>
+      </c>
+      <c r="F658" s="45" t="s">
+        <v>338</v>
+      </c>
       <c r="G658" s="46" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="K658" s="50">
-        <v>2015</v>
+        <v>1997</v>
       </c>
     </row>
     <row r="659" spans="1:11">
@@ -38143,10 +38149,10 @@
         <v>7</v>
       </c>
       <c r="G659" s="46" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="K659" s="50">
-        <v>1995</v>
+        <v>2015</v>
       </c>
     </row>
     <row r="660" spans="1:11">
@@ -38157,10 +38163,10 @@
         <v>7</v>
       </c>
       <c r="G660" s="46" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="K660" s="50">
-        <v>2008</v>
+        <v>1995</v>
       </c>
     </row>
     <row r="661" spans="1:11">
@@ -38171,7 +38177,7 @@
         <v>7</v>
       </c>
       <c r="G661" s="46" t="s">
-        <v>57</v>
+        <v>43</v>
       </c>
       <c r="K661" s="50">
         <v>2008</v>
@@ -38184,20 +38190,11 @@
       <c r="B662" s="43">
         <v>7</v>
       </c>
-      <c r="E662" s="44" t="s">
-        <v>471</v>
-      </c>
-      <c r="F662" s="45" t="s">
-        <v>470</v>
-      </c>
       <c r="G662" s="46" t="s">
-        <v>37</v>
-      </c>
-      <c r="H662" s="47" t="s">
-        <v>260</v>
+        <v>57</v>
       </c>
       <c r="K662" s="50">
-        <v>1982</v>
+        <v>2008</v>
       </c>
     </row>
     <row r="663" spans="1:11">
@@ -38205,19 +38202,22 @@
         <v>782</v>
       </c>
       <c r="B663" s="43">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E663" s="44" t="s">
-        <v>16</v>
+        <v>471</v>
       </c>
       <c r="F663" s="45" t="s">
-        <v>677</v>
+        <v>470</v>
       </c>
       <c r="G663" s="46" t="s">
-        <v>18</v>
+        <v>37</v>
+      </c>
+      <c r="H663" s="47" t="s">
+        <v>260</v>
       </c>
       <c r="K663" s="50">
-        <v>1998</v>
+        <v>1982</v>
       </c>
     </row>
     <row r="664" spans="1:11">
@@ -38228,16 +38228,16 @@
         <v>6</v>
       </c>
       <c r="E664" s="44" t="s">
-        <v>583</v>
+        <v>16</v>
+      </c>
+      <c r="F664" s="45" t="s">
+        <v>678</v>
       </c>
       <c r="G664" s="46" t="s">
-        <v>54</v>
-      </c>
-      <c r="H664" s="47" t="s">
-        <v>360</v>
+        <v>18</v>
       </c>
       <c r="K664" s="50">
-        <v>2001</v>
+        <v>1998</v>
       </c>
     </row>
     <row r="665" spans="1:11">
@@ -38248,16 +38248,16 @@
         <v>6</v>
       </c>
       <c r="E665" s="44" t="s">
-        <v>154</v>
-      </c>
-      <c r="F665" s="45" t="s">
-        <v>743</v>
+        <v>584</v>
       </c>
       <c r="G665" s="46" t="s">
         <v>54</v>
       </c>
+      <c r="H665" s="47" t="s">
+        <v>360</v>
+      </c>
       <c r="K665" s="50">
-        <v>2013</v>
+        <v>2001</v>
       </c>
     </row>
     <row r="666" spans="1:11">
@@ -38267,14 +38267,17 @@
       <c r="B666" s="43">
         <v>6</v>
       </c>
+      <c r="E666" s="44" t="s">
+        <v>154</v>
+      </c>
+      <c r="F666" s="45" t="s">
+        <v>744</v>
+      </c>
       <c r="G666" s="46" t="s">
-        <v>551</v>
-      </c>
-      <c r="H666" s="47" t="s">
         <v>54</v>
       </c>
       <c r="K666" s="50">
-        <v>1999</v>
+        <v>2013</v>
       </c>
     </row>
     <row r="667" spans="1:11">
@@ -38285,13 +38288,13 @@
         <v>6</v>
       </c>
       <c r="G667" s="46" t="s">
-        <v>57</v>
+        <v>552</v>
       </c>
       <c r="H667" s="47" t="s">
-        <v>34</v>
+        <v>54</v>
       </c>
       <c r="K667" s="50">
-        <v>1998</v>
+        <v>1999</v>
       </c>
     </row>
     <row r="668" spans="1:11">
@@ -38301,14 +38304,14 @@
       <c r="B668" s="43">
         <v>6</v>
       </c>
-      <c r="E668" s="44" t="s">
-        <v>336</v>
-      </c>
       <c r="G668" s="46" t="s">
-        <v>18</v>
+        <v>57</v>
+      </c>
+      <c r="H668" s="47" t="s">
+        <v>34</v>
       </c>
       <c r="K668" s="50">
-        <v>1993</v>
+        <v>1998</v>
       </c>
     </row>
     <row r="669" spans="1:11">
@@ -38318,14 +38321,14 @@
       <c r="B669" s="43">
         <v>6</v>
       </c>
+      <c r="E669" s="44" t="s">
+        <v>336</v>
+      </c>
       <c r="G669" s="46" t="s">
-        <v>65</v>
-      </c>
-      <c r="H669" s="47" t="s">
-        <v>54</v>
+        <v>18</v>
       </c>
       <c r="K669" s="50">
-        <v>1970</v>
+        <v>1993</v>
       </c>
     </row>
     <row r="670" spans="1:11">
@@ -38335,20 +38338,14 @@
       <c r="B670" s="43">
         <v>6</v>
       </c>
-      <c r="E670" s="44" t="s">
-        <v>16</v>
-      </c>
-      <c r="F670" s="45" t="s">
-        <v>677</v>
-      </c>
       <c r="G670" s="46" t="s">
-        <v>18</v>
-      </c>
-      <c r="I670" s="48" t="s">
-        <v>98</v>
+        <v>65</v>
+      </c>
+      <c r="H670" s="47" t="s">
+        <v>54</v>
       </c>
       <c r="K670" s="50">
-        <v>2005</v>
+        <v>1970</v>
       </c>
     </row>
     <row r="671" spans="1:11">
@@ -38356,19 +38353,22 @@
         <v>790</v>
       </c>
       <c r="B671" s="43">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E671" s="44" t="s">
         <v>16</v>
       </c>
       <c r="F671" s="45" t="s">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="G671" s="46" t="s">
         <v>18</v>
       </c>
+      <c r="I671" s="48" t="s">
+        <v>98</v>
+      </c>
       <c r="K671" s="50">
-        <v>2015</v>
+        <v>2005</v>
       </c>
     </row>
     <row r="672" spans="1:11">
@@ -38379,16 +38379,16 @@
         <v>5</v>
       </c>
       <c r="E672" s="44" t="s">
-        <v>248</v>
+        <v>16</v>
+      </c>
+      <c r="F672" s="45" t="s">
+        <v>678</v>
       </c>
       <c r="G672" s="46" t="s">
-        <v>24</v>
-      </c>
-      <c r="H672" s="47" t="s">
-        <v>124</v>
+        <v>18</v>
       </c>
       <c r="K672" s="50">
-        <v>2013</v>
+        <v>2015</v>
       </c>
     </row>
     <row r="673" spans="1:11">
@@ -38398,14 +38398,17 @@
       <c r="B673" s="43">
         <v>5</v>
       </c>
+      <c r="E673" s="44" t="s">
+        <v>248</v>
+      </c>
       <c r="G673" s="46" t="s">
-        <v>38</v>
-      </c>
-      <c r="J673" s="49" t="s">
-        <v>125</v>
+        <v>24</v>
+      </c>
+      <c r="H673" s="47" t="s">
+        <v>124</v>
       </c>
       <c r="K673" s="50">
-        <v>2017</v>
+        <v>2013</v>
       </c>
     </row>
     <row r="674" spans="1:11">
@@ -38415,17 +38418,14 @@
       <c r="B674" s="43">
         <v>5</v>
       </c>
-      <c r="E674" s="44" t="s">
-        <v>46</v>
-      </c>
-      <c r="F674" s="45" t="s">
-        <v>399</v>
-      </c>
       <c r="G674" s="46" t="s">
-        <v>18</v>
+        <v>38</v>
+      </c>
+      <c r="J674" s="49" t="s">
+        <v>125</v>
       </c>
       <c r="K674" s="50">
-        <v>1987</v>
+        <v>2017</v>
       </c>
     </row>
     <row r="675" spans="1:11">
@@ -38436,19 +38436,16 @@
         <v>5</v>
       </c>
       <c r="E675" s="44" t="s">
-        <v>12</v>
+        <v>46</v>
       </c>
       <c r="F675" s="45" t="s">
-        <v>264</v>
+        <v>399</v>
       </c>
       <c r="G675" s="46" t="s">
-        <v>54</v>
-      </c>
-      <c r="H675" s="47" t="s">
-        <v>158</v>
+        <v>18</v>
       </c>
       <c r="K675" s="50">
-        <v>1997</v>
+        <v>1987</v>
       </c>
     </row>
     <row r="676" spans="1:11">
@@ -38459,13 +38456,19 @@
         <v>5</v>
       </c>
       <c r="E676" s="44" t="s">
-        <v>154</v>
+        <v>12</v>
+      </c>
+      <c r="F676" s="45" t="s">
+        <v>264</v>
       </c>
       <c r="G676" s="46" t="s">
         <v>54</v>
       </c>
+      <c r="H676" s="47" t="s">
+        <v>158</v>
+      </c>
       <c r="K676" s="50">
-        <v>2011</v>
+        <v>1997</v>
       </c>
     </row>
     <row r="677" spans="1:11">
@@ -38473,16 +38476,16 @@
         <v>796</v>
       </c>
       <c r="B677" s="43">
-        <v>4</v>
+        <v>5</v>
+      </c>
+      <c r="E677" s="44" t="s">
+        <v>154</v>
       </c>
       <c r="G677" s="46" t="s">
-        <v>24</v>
-      </c>
-      <c r="H677" s="47" t="s">
-        <v>158</v>
+        <v>54</v>
       </c>
       <c r="K677" s="50">
-        <v>2010</v>
+        <v>2011</v>
       </c>
     </row>
     <row r="678" spans="1:11">
@@ -38492,14 +38495,14 @@
       <c r="B678" s="43">
         <v>4</v>
       </c>
-      <c r="E678" s="44" t="s">
-        <v>755</v>
-      </c>
       <c r="G678" s="46" t="s">
-        <v>14</v>
+        <v>24</v>
+      </c>
+      <c r="H678" s="47" t="s">
+        <v>158</v>
       </c>
       <c r="K678" s="50">
-        <v>2004</v>
+        <v>2010</v>
       </c>
     </row>
     <row r="679" spans="1:11">
@@ -38509,11 +38512,14 @@
       <c r="B679" s="43">
         <v>4</v>
       </c>
+      <c r="E679" s="44" t="s">
+        <v>756</v>
+      </c>
       <c r="G679" s="46" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="K679" s="50">
-        <v>2016</v>
+        <v>2004</v>
       </c>
     </row>
     <row r="680" spans="1:11">
@@ -38524,13 +38530,10 @@
         <v>4</v>
       </c>
       <c r="G680" s="46" t="s">
-        <v>57</v>
-      </c>
-      <c r="H680" s="47" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="K680" s="50">
-        <v>1993</v>
+        <v>2016</v>
       </c>
     </row>
     <row r="681" spans="1:11">
@@ -38540,20 +38543,14 @@
       <c r="B681" s="43">
         <v>4</v>
       </c>
-      <c r="E681" s="44" t="s">
-        <v>75</v>
-      </c>
-      <c r="F681" s="45" t="s">
-        <v>82</v>
-      </c>
       <c r="G681" s="46" t="s">
         <v>57</v>
       </c>
       <c r="H681" s="47" t="s">
-        <v>54</v>
+        <v>34</v>
       </c>
       <c r="K681" s="50">
-        <v>2004</v>
+        <v>1993</v>
       </c>
     </row>
     <row r="682" spans="1:11">
@@ -38564,16 +38561,19 @@
         <v>4</v>
       </c>
       <c r="E682" s="44" t="s">
-        <v>742</v>
+        <v>75</v>
+      </c>
+      <c r="F682" s="45" t="s">
+        <v>82</v>
       </c>
       <c r="G682" s="46" t="s">
-        <v>43</v>
-      </c>
-      <c r="J682" s="49" t="s">
-        <v>125</v>
+        <v>57</v>
+      </c>
+      <c r="H682" s="47" t="s">
+        <v>54</v>
       </c>
       <c r="K682" s="50">
-        <v>2021</v>
+        <v>2004</v>
       </c>
     </row>
     <row r="683" spans="1:11">
@@ -38581,16 +38581,19 @@
         <v>802</v>
       </c>
       <c r="B683" s="43">
-        <v>3</v>
+        <v>4</v>
+      </c>
+      <c r="E683" s="44" t="s">
+        <v>743</v>
       </c>
       <c r="G683" s="46" t="s">
-        <v>34</v>
-      </c>
-      <c r="H683" s="47" t="s">
-        <v>181</v>
+        <v>43</v>
+      </c>
+      <c r="J683" s="49" t="s">
+        <v>125</v>
       </c>
       <c r="K683" s="50">
-        <v>2019</v>
+        <v>2021</v>
       </c>
     </row>
     <row r="684" spans="1:11">
@@ -38601,13 +38604,13 @@
         <v>3</v>
       </c>
       <c r="G684" s="46" t="s">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="H684" s="47" t="s">
-        <v>24</v>
+        <v>181</v>
       </c>
       <c r="K684" s="50">
-        <v>2002</v>
+        <v>2019</v>
       </c>
     </row>
     <row r="685" spans="1:11">
@@ -38617,17 +38620,14 @@
       <c r="B685" s="43">
         <v>3</v>
       </c>
-      <c r="E685" s="44" t="s">
-        <v>46</v>
-      </c>
-      <c r="F685" s="45" t="s">
-        <v>194</v>
-      </c>
       <c r="G685" s="46" t="s">
-        <v>18</v>
+        <v>23</v>
+      </c>
+      <c r="H685" s="47" t="s">
+        <v>24</v>
       </c>
       <c r="K685" s="50">
-        <v>2010</v>
+        <v>2002</v>
       </c>
     </row>
     <row r="686" spans="1:11">
@@ -38637,14 +38637,17 @@
       <c r="B686" s="43">
         <v>3</v>
       </c>
+      <c r="E686" s="44" t="s">
+        <v>46</v>
+      </c>
+      <c r="F686" s="45" t="s">
+        <v>194</v>
+      </c>
       <c r="G686" s="46" t="s">
-        <v>23</v>
-      </c>
-      <c r="H686" s="47" t="s">
-        <v>38</v>
+        <v>18</v>
       </c>
       <c r="K686" s="50">
-        <v>2002</v>
+        <v>2010</v>
       </c>
     </row>
     <row r="687" spans="1:11">
@@ -38655,13 +38658,13 @@
         <v>3</v>
       </c>
       <c r="G687" s="46" t="s">
-        <v>37</v>
+        <v>23</v>
       </c>
       <c r="H687" s="47" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="K687" s="50">
-        <v>1986</v>
+        <v>2002</v>
       </c>
     </row>
     <row r="688" spans="1:11">
@@ -38671,17 +38674,14 @@
       <c r="B688" s="43">
         <v>3</v>
       </c>
-      <c r="E688" s="44" t="s">
-        <v>574</v>
-      </c>
       <c r="G688" s="46" t="s">
-        <v>43</v>
-      </c>
-      <c r="I688" s="48" t="s">
-        <v>98</v>
+        <v>37</v>
+      </c>
+      <c r="H688" s="47" t="s">
+        <v>54</v>
       </c>
       <c r="K688" s="50">
-        <v>1993</v>
+        <v>1986</v>
       </c>
     </row>
     <row r="689" spans="1:11">
@@ -38689,16 +38689,19 @@
         <v>808</v>
       </c>
       <c r="B689" s="43">
-        <v>2</v>
+        <v>3</v>
+      </c>
+      <c r="E689" s="44" t="s">
+        <v>575</v>
       </c>
       <c r="G689" s="46" t="s">
-        <v>23</v>
-      </c>
-      <c r="H689" s="47" t="s">
-        <v>158</v>
+        <v>43</v>
+      </c>
+      <c r="I689" s="48" t="s">
+        <v>98</v>
       </c>
       <c r="K689" s="50">
-        <v>1995</v>
+        <v>1993</v>
       </c>
     </row>
     <row r="690" spans="1:11">
@@ -38708,14 +38711,14 @@
       <c r="B690" s="43">
         <v>2</v>
       </c>
-      <c r="E690" s="44" t="s">
-        <v>154</v>
-      </c>
       <c r="G690" s="46" t="s">
-        <v>54</v>
+        <v>23</v>
+      </c>
+      <c r="H690" s="47" t="s">
+        <v>158</v>
       </c>
       <c r="K690" s="50">
-        <v>2005</v>
+        <v>1995</v>
       </c>
     </row>
     <row r="691" spans="1:11">
@@ -38725,14 +38728,14 @@
       <c r="B691" s="43">
         <v>2</v>
       </c>
+      <c r="E691" s="44" t="s">
+        <v>154</v>
+      </c>
       <c r="G691" s="46" t="s">
         <v>54</v>
       </c>
-      <c r="H691" s="47" t="s">
-        <v>158</v>
-      </c>
       <c r="K691" s="50">
-        <v>1990</v>
+        <v>2005</v>
       </c>
     </row>
     <row r="692" spans="1:11">
@@ -38743,10 +38746,13 @@
         <v>2</v>
       </c>
       <c r="G692" s="46" t="s">
-        <v>14</v>
+        <v>54</v>
+      </c>
+      <c r="H692" s="47" t="s">
+        <v>158</v>
       </c>
       <c r="K692" s="50">
-        <v>2017</v>
+        <v>1990</v>
       </c>
     </row>
     <row r="693" spans="1:11">
@@ -38757,10 +38763,10 @@
         <v>2</v>
       </c>
       <c r="G693" s="46" t="s">
-        <v>43</v>
+        <v>14</v>
       </c>
       <c r="K693" s="50">
-        <v>2007</v>
+        <v>2017</v>
       </c>
     </row>
     <row r="694" spans="1:11">
@@ -38770,23 +38776,11 @@
       <c r="B694" s="43">
         <v>2</v>
       </c>
-      <c r="E694" s="44" t="s">
-        <v>75</v>
-      </c>
-      <c r="F694" s="45" t="s">
-        <v>82</v>
-      </c>
       <c r="G694" s="46" t="s">
-        <v>23</v>
-      </c>
-      <c r="H694" s="47" t="s">
-        <v>24</v>
-      </c>
-      <c r="I694" s="48" t="s">
-        <v>473</v>
+        <v>43</v>
       </c>
       <c r="K694" s="50">
-        <v>2016</v>
+        <v>2007</v>
       </c>
     </row>
     <row r="695" spans="1:11">
@@ -38797,16 +38791,22 @@
         <v>2</v>
       </c>
       <c r="E695" s="44" t="s">
-        <v>742</v>
+        <v>75</v>
+      </c>
+      <c r="F695" s="45" t="s">
+        <v>82</v>
       </c>
       <c r="G695" s="46" t="s">
-        <v>43</v>
-      </c>
-      <c r="J695" s="49" t="s">
-        <v>125</v>
+        <v>23</v>
+      </c>
+      <c r="H695" s="47" t="s">
+        <v>24</v>
+      </c>
+      <c r="I695" s="48" t="s">
+        <v>473</v>
       </c>
       <c r="K695" s="50">
-        <v>2020</v>
+        <v>2016</v>
       </c>
     </row>
     <row r="696" spans="1:11">
@@ -38816,14 +38816,17 @@
       <c r="B696" s="43">
         <v>2</v>
       </c>
+      <c r="E696" s="44" t="s">
+        <v>743</v>
+      </c>
       <c r="G696" s="46" t="s">
-        <v>23</v>
-      </c>
-      <c r="H696" s="47" t="s">
-        <v>54</v>
+        <v>43</v>
+      </c>
+      <c r="J696" s="49" t="s">
+        <v>125</v>
       </c>
       <c r="K696" s="50">
-        <v>1991</v>
+        <v>2020</v>
       </c>
     </row>
     <row r="697" spans="1:11">
@@ -38831,19 +38834,16 @@
         <v>816</v>
       </c>
       <c r="B697" s="43">
-        <v>1</v>
-      </c>
-      <c r="E697" s="44" t="s">
-        <v>583</v>
+        <v>2</v>
       </c>
       <c r="G697" s="46" t="s">
+        <v>23</v>
+      </c>
+      <c r="H697" s="47" t="s">
         <v>54</v>
       </c>
-      <c r="H697" s="47" t="s">
-        <v>360</v>
-      </c>
       <c r="K697" s="50">
-        <v>2013</v>
+        <v>1991</v>
       </c>
     </row>
     <row r="698" spans="1:11">
@@ -38854,16 +38854,16 @@
         <v>1</v>
       </c>
       <c r="E698" s="44" t="s">
-        <v>713</v>
+        <v>584</v>
       </c>
       <c r="G698" s="46" t="s">
-        <v>34</v>
+        <v>54</v>
       </c>
       <c r="H698" s="47" t="s">
-        <v>88</v>
+        <v>360</v>
       </c>
       <c r="K698" s="50">
-        <v>2021</v>
+        <v>2013</v>
       </c>
     </row>
     <row r="699" spans="1:11">
@@ -38874,16 +38874,16 @@
         <v>1</v>
       </c>
       <c r="E699" s="44" t="s">
-        <v>46</v>
-      </c>
-      <c r="F699" s="45" t="s">
-        <v>399</v>
+        <v>714</v>
       </c>
       <c r="G699" s="46" t="s">
-        <v>18</v>
+        <v>34</v>
+      </c>
+      <c r="H699" s="47" t="s">
+        <v>88</v>
       </c>
       <c r="K699" s="50">
-        <v>1984</v>
+        <v>2021</v>
       </c>
     </row>
     <row r="700" spans="1:11">
@@ -38893,14 +38893,17 @@
       <c r="B700" s="43">
         <v>1</v>
       </c>
+      <c r="E700" s="44" t="s">
+        <v>46</v>
+      </c>
+      <c r="F700" s="45" t="s">
+        <v>399</v>
+      </c>
       <c r="G700" s="46" t="s">
-        <v>57</v>
-      </c>
-      <c r="H700" s="47" t="s">
-        <v>88</v>
+        <v>18</v>
       </c>
       <c r="K700" s="50">
-        <v>2003</v>
+        <v>1984</v>
       </c>
     </row>
     <row r="701" spans="1:11">
@@ -38914,10 +38917,10 @@
         <v>57</v>
       </c>
       <c r="H701" s="47" t="s">
-        <v>34</v>
+        <v>88</v>
       </c>
       <c r="K701" s="50">
-        <v>2018</v>
+        <v>2003</v>
       </c>
     </row>
     <row r="702" spans="1:11">
@@ -38927,17 +38930,14 @@
       <c r="B702" s="43">
         <v>1</v>
       </c>
-      <c r="E702" s="44" t="s">
-        <v>46</v>
-      </c>
-      <c r="F702" s="45" t="s">
-        <v>194</v>
-      </c>
       <c r="G702" s="46" t="s">
-        <v>18</v>
+        <v>57</v>
+      </c>
+      <c r="H702" s="47" t="s">
+        <v>34</v>
       </c>
       <c r="K702" s="50">
-        <v>2004</v>
+        <v>2018</v>
       </c>
     </row>
     <row r="703" spans="1:11">
@@ -38957,7 +38957,7 @@
         <v>18</v>
       </c>
       <c r="K703" s="50">
-        <v>1997</v>
+        <v>2004</v>
       </c>
     </row>
     <row r="704" spans="1:11">
@@ -38968,13 +38968,13 @@
         <v>1</v>
       </c>
       <c r="E704" s="44" t="s">
-        <v>610</v>
+        <v>46</v>
+      </c>
+      <c r="F704" s="45" t="s">
+        <v>194</v>
       </c>
       <c r="G704" s="46" t="s">
-        <v>24</v>
-      </c>
-      <c r="H704" s="47" t="s">
-        <v>246</v>
+        <v>18</v>
       </c>
       <c r="K704" s="50">
         <v>1997</v>
@@ -38987,14 +38987,17 @@
       <c r="B705" s="43">
         <v>1</v>
       </c>
+      <c r="E705" s="44" t="s">
+        <v>611</v>
+      </c>
       <c r="G705" s="46" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H705" s="47" t="s">
-        <v>133</v>
+        <v>246</v>
       </c>
       <c r="K705" s="50">
-        <v>1998</v>
+        <v>1997</v>
       </c>
     </row>
     <row r="706" spans="1:11">
@@ -39002,13 +39005,16 @@
         <v>825</v>
       </c>
       <c r="B706" s="43">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G706" s="46" t="s">
         <v>23</v>
       </c>
+      <c r="H706" s="47" t="s">
+        <v>133</v>
+      </c>
       <c r="K706" s="50">
-        <v>2000</v>
+        <v>1998</v>
       </c>
     </row>
     <row r="707" spans="1:11">
@@ -39018,17 +39024,11 @@
       <c r="B707" s="43">
         <v>0</v>
       </c>
-      <c r="E707" s="44" t="s">
-        <v>154</v>
-      </c>
       <c r="G707" s="46" t="s">
-        <v>54</v>
-      </c>
-      <c r="H707" s="47" t="s">
-        <v>158</v>
+        <v>23</v>
       </c>
       <c r="K707" s="50">
-        <v>2002</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="708" spans="1:11">
@@ -39038,14 +39038,17 @@
       <c r="B708" s="43">
         <v>0</v>
       </c>
+      <c r="E708" s="44" t="s">
+        <v>154</v>
+      </c>
       <c r="G708" s="46" t="s">
-        <v>65</v>
+        <v>54</v>
       </c>
       <c r="H708" s="47" t="s">
-        <v>37</v>
+        <v>158</v>
       </c>
       <c r="K708" s="50">
-        <v>1991</v>
+        <v>2002</v>
       </c>
     </row>
     <row r="709" spans="1:11">
@@ -39056,13 +39059,13 @@
         <v>0</v>
       </c>
       <c r="G709" s="46" t="s">
-        <v>38</v>
+        <v>65</v>
       </c>
       <c r="H709" s="47" t="s">
-        <v>124</v>
+        <v>37</v>
       </c>
       <c r="K709" s="50">
-        <v>2014</v>
+        <v>1991</v>
       </c>
     </row>
     <row r="710" spans="1:11">
@@ -39072,17 +39075,14 @@
       <c r="B710" s="43">
         <v>0</v>
       </c>
-      <c r="E710" s="44" t="s">
-        <v>154</v>
-      </c>
       <c r="G710" s="46" t="s">
-        <v>54</v>
-      </c>
-      <c r="J710" s="49" t="s">
-        <v>125</v>
+        <v>38</v>
+      </c>
+      <c r="H710" s="47" t="s">
+        <v>124</v>
       </c>
       <c r="K710" s="50">
-        <v>2020</v>
+        <v>2014</v>
       </c>
     </row>
     <row r="711" spans="1:11">
@@ -39098,11 +39098,11 @@
       <c r="G711" s="46" t="s">
         <v>54</v>
       </c>
-      <c r="I711" s="48" t="s">
-        <v>706</v>
+      <c r="J711" s="49" t="s">
+        <v>125</v>
       </c>
       <c r="K711" s="50">
-        <v>2011</v>
+        <v>2020</v>
       </c>
     </row>
     <row r="712" spans="1:11">
@@ -39112,68 +39112,88 @@
       <c r="B712" s="43">
         <v>0</v>
       </c>
+      <c r="E712" s="44" t="s">
+        <v>154</v>
+      </c>
       <c r="G712" s="46" t="s">
-        <v>43</v>
-      </c>
-      <c r="H712" s="47" t="s">
-        <v>832</v>
-      </c>
-      <c r="J712" s="49" t="s">
-        <v>125</v>
+        <v>54</v>
+      </c>
+      <c r="I712" s="48" t="s">
+        <v>707</v>
       </c>
       <c r="K712" s="50">
-        <v>2017</v>
+        <v>2011</v>
       </c>
     </row>
     <row r="713" spans="1:11">
       <c r="A713" s="42" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="B713" s="43">
         <v>0</v>
       </c>
       <c r="G713" s="46" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="H713" s="47" t="s">
-        <v>35</v>
+        <v>175</v>
+      </c>
+      <c r="J713" s="49" t="s">
+        <v>125</v>
       </c>
       <c r="K713" s="50">
-        <v>2007</v>
+        <v>2017</v>
       </c>
     </row>
     <row r="714" spans="1:11">
       <c r="A714" s="42" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="B714" s="43">
         <v>0</v>
       </c>
       <c r="G714" s="46" t="s">
-        <v>14</v>
+        <v>54</v>
+      </c>
+      <c r="H714" s="47" t="s">
+        <v>35</v>
       </c>
       <c r="K714" s="50">
-        <v>2020</v>
+        <v>2007</v>
       </c>
     </row>
     <row r="715" spans="1:11">
       <c r="A715" s="42" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="B715" s="43">
         <v>0</v>
       </c>
       <c r="G715" s="46" t="s">
+        <v>14</v>
+      </c>
+      <c r="K715" s="50">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="716" spans="1:11">
+      <c r="A716" s="42" t="s">
+        <v>835</v>
+      </c>
+      <c r="B716" s="43">
+        <v>0</v>
+      </c>
+      <c r="G716" s="46" t="s">
         <v>200</v>
       </c>
-      <c r="K715" s="50">
+      <c r="K716" s="50">
         <v>2002</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:K709" xr:uid="{00000000-0009-0000-0000-000000000000}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:K715">
-      <sortCondition descending="1" ref="B1:B709"/>
+  <autoFilter ref="A1:K716" xr:uid="{00000000-0009-0000-0000-000000000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:K716">
+      <sortCondition descending="1" ref="B1:B716"/>
     </sortState>
   </autoFilter>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:K137">
@@ -39996,7 +40016,7 @@
       </c>
       <c r="I22" s="55">
         <f ca="1">AVERAGE(Masterlist!B2:'Masterlist'!B5065)</f>
-        <v>60.376750700280112</v>
+        <v>60.386013986013985</v>
       </c>
       <c r="P22" s="7">
         <v>1974</v>
@@ -40456,7 +40476,7 @@
       <c r="A39"/>
       <c r="B39"/>
       <c r="D39" s="7" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="E39" s="7">
         <v>2</v>
@@ -42140,12 +42160,12 @@
         <v>432</v>
       </c>
       <c r="H1" s="60" t="s">
-        <v>822</v>
+        <v>823</v>
       </c>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="3" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>867</v>
@@ -42163,7 +42183,7 @@
         <v>868</v>
       </c>
       <c r="H2" s="32" t="s">
-        <v>821</v>
+        <v>822</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -42177,13 +42197,13 @@
         <v>870</v>
       </c>
       <c r="E3" s="25" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="F3" s="25" t="s">
-        <v>744</v>
+        <v>745</v>
       </c>
       <c r="G3" s="25" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="H3" s="25" t="s">
         <v>483</v>
@@ -42191,19 +42211,19 @@
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="3" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>871</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="E4" s="26" t="s">
-        <v>818</v>
+        <v>819</v>
       </c>
       <c r="F4" s="26" t="s">
-        <v>776</v>
+        <v>777</v>
       </c>
       <c r="G4" s="26" t="s">
         <v>340</v>
@@ -42227,10 +42247,10 @@
       </c>
       <c r="F5" s="24"/>
       <c r="G5" s="25" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="H5" s="25" t="s">
-        <v>756</v>
+        <v>757</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -42299,7 +42319,7 @@
         <v>884</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="G9" s="25" t="s">
         <v>430</v>
@@ -42319,7 +42339,7 @@
         <v>886</v>
       </c>
       <c r="G10" s="30" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -42333,7 +42353,7 @@
         <v>322</v>
       </c>
       <c r="F11" s="14" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="G11" s="30" t="s">
         <v>889</v>
@@ -42360,10 +42380,10 @@
         <v>893</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="F13" s="14" t="s">
-        <v>804</v>
+        <v>805</v>
       </c>
       <c r="G13" s="31" t="s">
         <v>894</v>
@@ -42444,7 +42464,7 @@
         <v>907</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="C22" s="4"/>
     </row>
@@ -42472,7 +42492,7 @@
         <v>912</v>
       </c>
       <c r="C25" s="14" t="s">
-        <v>723</v>
+        <v>724</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -42481,7 +42501,7 @@
       </c>
       <c r="B26" s="4"/>
       <c r="C26" s="14" t="s">
-        <v>789</v>
+        <v>790</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -42579,7 +42599,7 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="9" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="B2" s="9" t="s">
         <v>928</v>
@@ -42602,7 +42622,7 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="9" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="B3" s="9" t="s">
         <v>931</v>
@@ -42648,13 +42668,13 @@
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="9" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="E5" s="17">
         <v>4</v>
@@ -42671,10 +42691,10 @@
         <v>938</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="E6" s="18">
         <v>5</v>
@@ -42691,7 +42711,7 @@
         <v>490</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="C7" s="10" t="s">
         <v>934</v>
@@ -42714,7 +42734,7 @@
         <v>934</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="E8" s="18">
         <v>7</v>

--- a/src/data/MovieMovieMovies.xlsx
+++ b/src/data/MovieMovieMovies.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25611"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/764279bd75dbfa1e/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\isaac\jhelfric\my-movie-site\src\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{54AA522F-1ADA-4C25-AE4D-156E127B4362}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="19425" windowHeight="10305" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9432"/>
   </bookViews>
   <sheets>
     <sheet name="Masterlist" sheetId="10" r:id="rId1"/>
@@ -22,10 +21,10 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">MarvelDC!$A$1:$C$31</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Masterlist!$A$1:$I$716</definedName>
   </definedNames>
-  <calcPr calcId="191028"/>
+  <calcPr calcId="162913"/>
   <pivotCaches>
-    <pivotCache cacheId="17765" r:id="rId5"/>
-    <pivotCache cacheId="17766" r:id="rId6"/>
+    <pivotCache cacheId="0" r:id="rId5"/>
+    <pivotCache cacheId="1" r:id="rId6"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -3081,7 +3080,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="5">
     <font>
       <sz val="11"/>
@@ -3541,57 +3540,6 @@
   </cellStyles>
   <dxfs count="34">
     <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
       <alignment horizontal="center"/>
     </dxf>
     <dxf>
@@ -3642,6 +3590,57 @@
     <dxf>
       <alignment horizontal="center"/>
     </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
   <colors>
@@ -3674,7 +3673,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:pivotSource>
-    <c:name>[Movie Movie Movies!!!!.xlsx]Stats!PivotTable7</c:name>
+    <c:name>[MovieMovieMovies.xlsx]Stats!PivotTable7</c:name>
     <c:fmtId val="0"/>
   </c:pivotSource>
   <c:chart>
@@ -3749,47 +3748,6 @@
         <c:marker>
           <c:symbol val="none"/>
         </c:marker>
-        <c:dLbl>
-          <c:idx val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-              <a:spAutoFit/>
-            </a:bodyPr>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="75000"/>
-                      <a:lumOff val="25000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-          </c:extLst>
-        </c:dLbl>
       </c:pivotFmt>
     </c:pivotFmts>
     <c:plotArea>
@@ -4141,6 +4099,7 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -4148,7 +4107,6 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -4784,7 +4742,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Connor" refreshedDate="44761.343172569446" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="699" xr:uid="{00000000-000A-0000-FFFF-FFFF04000000}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Connor" refreshedDate="44761.343172569446" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="699">
   <cacheSource type="worksheet">
     <worksheetSource ref="A1:I700" sheet="Masterlist"/>
   </cacheSource>
@@ -5050,7 +5008,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Excel Services" refreshedDate="44776.60622361111" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="710" xr:uid="{0721A928-389C-4ED0-8C40-F87454F12F93}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Excel Services" refreshedDate="44776.60622361111" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="710">
   <cacheSource type="worksheet">
     <worksheetSource ref="A1:I711" sheet="Masterlist"/>
   </cacheSource>
@@ -23643,7 +23601,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0100-000002000000}" name="PivotTable7" cacheId="17765" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" grandTotalCaption="Total" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1" rowHeaderCaption="Score">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable7" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" grandTotalCaption="Total" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1" rowHeaderCaption="Score">
   <location ref="A1:B22" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="11">
     <pivotField dataField="1" showAll="0"/>
@@ -23759,19 +23717,19 @@
     <dataField name="Count" fld="0" subtotal="count" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="5">
-    <format dxfId="29">
+    <format dxfId="4">
       <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="30">
+    <format dxfId="3">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="31">
+    <format dxfId="2">
       <pivotArea field="1" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="32">
+    <format dxfId="1">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="33">
+    <format dxfId="0">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
     </format>
   </formats>
@@ -23834,7 +23792,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{B57D02EE-D101-4DEC-8230-A939E26BD733}" name="PivotTable3" cacheId="17766" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" grandTotalCaption="Total" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" compact="0" compactData="0" multipleFieldFilters="0" chartFormat="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable3" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" grandTotalCaption="Total" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" compact="0" compactData="0" multipleFieldFilters="0" chartFormat="1">
   <location ref="P1:R71" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="11">
     <pivotField compact="0" outline="0" showAll="0"/>
@@ -24153,7 +24111,7 @@
     <dataField name="Score Ave" fld="1" subtotal="average" baseField="8" baseItem="8"/>
   </dataFields>
   <formats count="16">
-    <format dxfId="13">
+    <format dxfId="20">
       <pivotArea outline="0" fieldPosition="0">
         <references count="2">
           <reference field="4294967294" count="1" selected="0">
@@ -24163,7 +24121,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="14">
+    <format dxfId="19">
       <pivotArea field="10" grandRow="1" outline="0" axis="axisRow" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1" selected="0">
@@ -24172,16 +24130,16 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="15">
+    <format dxfId="18">
       <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="16">
+    <format dxfId="17">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="17">
+    <format dxfId="16">
       <pivotArea field="10" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="18">
+    <format dxfId="15">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="10" count="50">
@@ -24239,7 +24197,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="19">
+    <format dxfId="14">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="10" count="13">
@@ -24260,10 +24218,10 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="20">
+    <format dxfId="13">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="21">
+    <format dxfId="12">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="2">
@@ -24273,16 +24231,16 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="22">
+    <format dxfId="11">
       <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="23">
+    <format dxfId="10">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="24">
+    <format dxfId="9">
       <pivotArea field="10" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="25">
+    <format dxfId="8">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="10" count="50">
@@ -24340,7 +24298,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="26">
+    <format dxfId="7">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="10" count="13">
@@ -24361,10 +24319,10 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="27">
+    <format dxfId="6">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="28">
+    <format dxfId="5">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="2">
@@ -24554,7 +24512,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{D9BD016B-08B9-4843-937B-88F34141CC0D}" name="PivotTable2" cacheId="17766" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" grandTotalCaption="Total" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1" rowHeaderCaption="Genre">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable2" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" grandTotalCaption="Total" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1" rowHeaderCaption="Genre">
   <location ref="D22:G41" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="11">
     <pivotField dataField="1" showAll="0"/>
@@ -24673,51 +24631,51 @@
     <dataField name="Average" fld="1" subtotal="average" baseField="4" baseItem="0" numFmtId="2"/>
   </dataFields>
   <formats count="13">
-    <format dxfId="0">
+    <format dxfId="33">
       <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="1">
+    <format dxfId="32">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="2">
+    <format dxfId="31">
       <pivotArea field="6" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="3">
+    <format dxfId="30">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="6" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="4">
+    <format dxfId="29">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="5">
+    <format dxfId="28">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
     </format>
-    <format dxfId="6">
+    <format dxfId="27">
       <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="7">
+    <format dxfId="26">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="8">
+    <format dxfId="25">
       <pivotArea field="6" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="9">
+    <format dxfId="24">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="6" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="10">
+    <format dxfId="23">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="11">
+    <format dxfId="22">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
     </format>
-    <format dxfId="12">
+    <format dxfId="21">
       <pivotArea outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1">
@@ -25335,24 +25293,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I724"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A512" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="B522" sqref="B522"/>
+    <sheetView tabSelected="1" topLeftCell="A705" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="A725" sqref="A725"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.83984375" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="47.140625" style="42" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.85546875" style="43" customWidth="1"/>
-    <col min="3" max="3" width="18.28515625" style="44" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="47.15625" style="42" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.83984375" style="43" customWidth="1"/>
+    <col min="3" max="3" width="18.26171875" style="44" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="28" style="45" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.5703125" style="46" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.28515625" style="47" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.42578125" style="48" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.28515625" style="49" customWidth="1"/>
-    <col min="9" max="9" width="7.42578125" style="50" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.578125" style="46" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.26171875" style="47" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.41796875" style="48" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.26171875" style="49" customWidth="1"/>
+    <col min="9" max="9" width="7.41796875" style="50" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" s="1" customFormat="1">
@@ -39377,12 +39335,12 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:I716" xr:uid="{00000000-0009-0000-0000-000000000000}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I722">
+  <autoFilter ref="A1:I716">
+    <sortState ref="A2:I722">
       <sortCondition descending="1" ref="B1:B716"/>
     </sortState>
   </autoFilter>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I137">
+  <sortState ref="A2:I137">
     <sortCondition descending="1" ref="B2:B137"/>
   </sortState>
   <conditionalFormatting sqref="B1:B1048576">
@@ -39403,404 +39361,404 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V236"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="G40" sqref="G40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="10.83984375" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="11" style="7" customWidth="1"/>
-    <col min="2" max="2" width="6.28515625" style="7" customWidth="1"/>
-    <col min="3" max="3" width="11.42578125" style="7" customWidth="1"/>
-    <col min="4" max="4" width="12.5703125" style="7" customWidth="1"/>
-    <col min="5" max="5" width="6.42578125" style="7" customWidth="1"/>
-    <col min="6" max="6" width="11.140625" style="7" customWidth="1"/>
-    <col min="7" max="7" width="8.42578125" style="7" customWidth="1"/>
-    <col min="8" max="8" width="11.140625" style="7" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.28515625" style="7" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.5703125" style="7" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.7109375" style="7" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="6.85546875" style="7" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="6.7109375" style="7" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="7.85546875" style="7" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="8.28515625" style="7" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="11.140625" style="7" customWidth="1"/>
-    <col min="17" max="17" width="6.42578125" style="7" customWidth="1"/>
-    <col min="18" max="18" width="9.85546875" style="7" customWidth="1"/>
-    <col min="19" max="19" width="5.42578125" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="12.5703125" customWidth="1"/>
-    <col min="21" max="21" width="6.42578125" style="7" customWidth="1"/>
-    <col min="22" max="22" width="12.28515625" style="7" customWidth="1"/>
-    <col min="23" max="24" width="5.42578125" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="27" max="44" width="5.42578125" bestFit="1" customWidth="1"/>
-    <col min="45" max="47" width="6.5703125" bestFit="1" customWidth="1"/>
-    <col min="48" max="48" width="5.42578125" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="6.5703125" bestFit="1" customWidth="1"/>
-    <col min="50" max="51" width="5.42578125" bestFit="1" customWidth="1"/>
-    <col min="52" max="54" width="6.5703125" bestFit="1" customWidth="1"/>
-    <col min="55" max="55" width="5.42578125" bestFit="1" customWidth="1"/>
-    <col min="56" max="79" width="6.5703125" bestFit="1" customWidth="1"/>
-    <col min="80" max="80" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.26171875" style="7" customWidth="1"/>
+    <col min="3" max="3" width="11.41796875" style="7" customWidth="1"/>
+    <col min="4" max="4" width="12.578125" style="7" customWidth="1"/>
+    <col min="5" max="5" width="6.41796875" style="7" customWidth="1"/>
+    <col min="6" max="6" width="11.15625" style="7" customWidth="1"/>
+    <col min="7" max="7" width="8.41796875" style="7" customWidth="1"/>
+    <col min="8" max="8" width="11.15625" style="7" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.26171875" style="7" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.578125" style="7" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.68359375" style="7" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="6.83984375" style="7" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="6.68359375" style="7" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="7.83984375" style="7" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="8.26171875" style="7" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="11.15625" style="7" customWidth="1"/>
+    <col min="17" max="17" width="6.41796875" style="7" customWidth="1"/>
+    <col min="18" max="18" width="9.83984375" style="7" customWidth="1"/>
+    <col min="19" max="19" width="5.41796875" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="12.578125" customWidth="1"/>
+    <col min="21" max="21" width="6.41796875" style="7" customWidth="1"/>
+    <col min="22" max="22" width="12.26171875" style="7" customWidth="1"/>
+    <col min="23" max="24" width="5.41796875" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.41796875" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="13.83984375" bestFit="1" customWidth="1"/>
+    <col min="27" max="44" width="5.41796875" bestFit="1" customWidth="1"/>
+    <col min="45" max="47" width="6.578125" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="5.41796875" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="6.578125" bestFit="1" customWidth="1"/>
+    <col min="50" max="51" width="5.41796875" bestFit="1" customWidth="1"/>
+    <col min="52" max="54" width="6.578125" bestFit="1" customWidth="1"/>
+    <col min="55" max="55" width="5.41796875" bestFit="1" customWidth="1"/>
+    <col min="56" max="79" width="6.578125" bestFit="1" customWidth="1"/>
+    <col min="80" max="80" width="11.68359375" bestFit="1" customWidth="1"/>
     <col min="81" max="81" width="11" bestFit="1" customWidth="1"/>
-    <col min="82" max="82" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="83" max="83" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="85" max="85" width="30.28515625" bestFit="1" customWidth="1"/>
-    <col min="86" max="86" width="26.28515625" bestFit="1" customWidth="1"/>
-    <col min="87" max="87" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="82" max="82" width="16.68359375" bestFit="1" customWidth="1"/>
+    <col min="83" max="83" width="13.83984375" bestFit="1" customWidth="1"/>
+    <col min="85" max="85" width="30.26171875" bestFit="1" customWidth="1"/>
+    <col min="86" max="86" width="26.26171875" bestFit="1" customWidth="1"/>
+    <col min="87" max="87" width="14.15625" bestFit="1" customWidth="1"/>
     <col min="88" max="88" width="10" bestFit="1" customWidth="1"/>
-    <col min="89" max="89" width="5.7109375" bestFit="1" customWidth="1"/>
-    <col min="90" max="90" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="91" max="91" width="44.42578125" bestFit="1" customWidth="1"/>
-    <col min="92" max="92" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="93" max="93" width="5.7109375" bestFit="1" customWidth="1"/>
-    <col min="94" max="94" width="17.42578125" bestFit="1" customWidth="1"/>
-    <col min="95" max="95" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="96" max="96" width="3.28515625" bestFit="1" customWidth="1"/>
-    <col min="97" max="97" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="89" max="89" width="5.68359375" bestFit="1" customWidth="1"/>
+    <col min="90" max="90" width="13.15625" bestFit="1" customWidth="1"/>
+    <col min="91" max="91" width="44.41796875" bestFit="1" customWidth="1"/>
+    <col min="92" max="92" width="7.41796875" bestFit="1" customWidth="1"/>
+    <col min="93" max="93" width="5.68359375" bestFit="1" customWidth="1"/>
+    <col min="94" max="94" width="17.41796875" bestFit="1" customWidth="1"/>
+    <col min="95" max="95" width="12.41796875" bestFit="1" customWidth="1"/>
+    <col min="96" max="96" width="3.26171875" bestFit="1" customWidth="1"/>
+    <col min="97" max="97" width="12.15625" bestFit="1" customWidth="1"/>
     <col min="98" max="98" width="8" bestFit="1" customWidth="1"/>
-    <col min="99" max="99" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="100" max="100" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="101" max="101" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="102" max="102" width="8.140625" bestFit="1" customWidth="1"/>
-    <col min="103" max="103" width="46.85546875" bestFit="1" customWidth="1"/>
-    <col min="104" max="104" width="3.140625" bestFit="1" customWidth="1"/>
-    <col min="105" max="105" width="8.85546875" bestFit="1" customWidth="1"/>
-    <col min="106" max="106" width="8.28515625" bestFit="1" customWidth="1"/>
-    <col min="107" max="107" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="108" max="108" width="35.85546875" bestFit="1" customWidth="1"/>
-    <col min="109" max="109" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="110" max="110" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="111" max="111" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="112" max="112" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="113" max="113" width="27.5703125" bestFit="1" customWidth="1"/>
-    <col min="114" max="114" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="115" max="115" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="99" max="99" width="10.26171875" bestFit="1" customWidth="1"/>
+    <col min="100" max="100" width="13.15625" bestFit="1" customWidth="1"/>
+    <col min="101" max="101" width="11.68359375" bestFit="1" customWidth="1"/>
+    <col min="102" max="102" width="8.15625" bestFit="1" customWidth="1"/>
+    <col min="103" max="103" width="46.83984375" bestFit="1" customWidth="1"/>
+    <col min="104" max="104" width="3.15625" bestFit="1" customWidth="1"/>
+    <col min="105" max="105" width="8.83984375" bestFit="1" customWidth="1"/>
+    <col min="106" max="106" width="8.26171875" bestFit="1" customWidth="1"/>
+    <col min="107" max="107" width="13.41796875" bestFit="1" customWidth="1"/>
+    <col min="108" max="108" width="35.83984375" bestFit="1" customWidth="1"/>
+    <col min="109" max="109" width="16.15625" bestFit="1" customWidth="1"/>
+    <col min="110" max="110" width="15.41796875" bestFit="1" customWidth="1"/>
+    <col min="111" max="111" width="16.83984375" bestFit="1" customWidth="1"/>
+    <col min="112" max="112" width="8.68359375" bestFit="1" customWidth="1"/>
+    <col min="113" max="113" width="27.578125" bestFit="1" customWidth="1"/>
+    <col min="114" max="114" width="12.15625" bestFit="1" customWidth="1"/>
+    <col min="115" max="115" width="13.578125" bestFit="1" customWidth="1"/>
     <col min="116" max="116" width="24" bestFit="1" customWidth="1"/>
     <col min="117" max="117" width="9" bestFit="1" customWidth="1"/>
-    <col min="118" max="118" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="119" max="119" width="19.28515625" bestFit="1" customWidth="1"/>
-    <col min="120" max="120" width="26.7109375" bestFit="1" customWidth="1"/>
+    <col min="118" max="118" width="13.83984375" bestFit="1" customWidth="1"/>
+    <col min="119" max="119" width="19.26171875" bestFit="1" customWidth="1"/>
+    <col min="120" max="120" width="26.68359375" bestFit="1" customWidth="1"/>
     <col min="121" max="121" width="7" bestFit="1" customWidth="1"/>
-    <col min="122" max="122" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="122" max="122" width="8.578125" bestFit="1" customWidth="1"/>
     <col min="123" max="123" width="9" bestFit="1" customWidth="1"/>
-    <col min="124" max="124" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="124" max="124" width="11.578125" bestFit="1" customWidth="1"/>
     <col min="125" max="125" width="12" bestFit="1" customWidth="1"/>
-    <col min="126" max="126" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="127" max="127" width="8.28515625" bestFit="1" customWidth="1"/>
-    <col min="128" max="128" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="129" max="129" width="28.28515625" bestFit="1" customWidth="1"/>
+    <col min="126" max="126" width="11.41796875" bestFit="1" customWidth="1"/>
+    <col min="127" max="127" width="8.26171875" bestFit="1" customWidth="1"/>
+    <col min="128" max="128" width="16.15625" bestFit="1" customWidth="1"/>
+    <col min="129" max="129" width="28.26171875" bestFit="1" customWidth="1"/>
     <col min="130" max="130" width="16" bestFit="1" customWidth="1"/>
-    <col min="131" max="131" width="5.85546875" bestFit="1" customWidth="1"/>
-    <col min="132" max="132" width="7.28515625" bestFit="1" customWidth="1"/>
-    <col min="134" max="134" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="135" max="135" width="22.5703125" bestFit="1" customWidth="1"/>
-    <col min="136" max="136" width="28.140625" bestFit="1" customWidth="1"/>
-    <col min="137" max="137" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="138" max="138" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="131" max="131" width="5.83984375" bestFit="1" customWidth="1"/>
+    <col min="132" max="132" width="7.26171875" bestFit="1" customWidth="1"/>
+    <col min="134" max="134" width="12.26171875" bestFit="1" customWidth="1"/>
+    <col min="135" max="135" width="22.578125" bestFit="1" customWidth="1"/>
+    <col min="136" max="136" width="28.15625" bestFit="1" customWidth="1"/>
+    <col min="137" max="137" width="8.68359375" bestFit="1" customWidth="1"/>
+    <col min="138" max="138" width="17.578125" bestFit="1" customWidth="1"/>
     <col min="139" max="139" width="12" bestFit="1" customWidth="1"/>
-    <col min="140" max="140" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="141" max="141" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="142" max="142" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="140" max="140" width="13.578125" bestFit="1" customWidth="1"/>
+    <col min="141" max="141" width="14.83984375" bestFit="1" customWidth="1"/>
+    <col min="142" max="142" width="16.26171875" bestFit="1" customWidth="1"/>
     <col min="143" max="143" width="8" bestFit="1" customWidth="1"/>
-    <col min="144" max="144" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="144" max="144" width="17.578125" bestFit="1" customWidth="1"/>
     <col min="145" max="145" width="19" bestFit="1" customWidth="1"/>
-    <col min="146" max="146" width="36.140625" bestFit="1" customWidth="1"/>
-    <col min="147" max="147" width="33.140625" bestFit="1" customWidth="1"/>
-    <col min="148" max="148" width="16.42578125" bestFit="1" customWidth="1"/>
-    <col min="149" max="149" width="24.42578125" bestFit="1" customWidth="1"/>
+    <col min="146" max="146" width="36.15625" bestFit="1" customWidth="1"/>
+    <col min="147" max="147" width="33.15625" bestFit="1" customWidth="1"/>
+    <col min="148" max="148" width="16.41796875" bestFit="1" customWidth="1"/>
+    <col min="149" max="149" width="24.41796875" bestFit="1" customWidth="1"/>
     <col min="150" max="150" width="25" bestFit="1" customWidth="1"/>
-    <col min="151" max="151" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="152" max="152" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="153" max="153" width="8.85546875" bestFit="1" customWidth="1"/>
-    <col min="154" max="154" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="155" max="155" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="156" max="156" width="36.140625" bestFit="1" customWidth="1"/>
-    <col min="157" max="157" width="29.28515625" bestFit="1" customWidth="1"/>
-    <col min="158" max="158" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="151" max="151" width="15.15625" bestFit="1" customWidth="1"/>
+    <col min="152" max="152" width="7.41796875" bestFit="1" customWidth="1"/>
+    <col min="153" max="153" width="8.83984375" bestFit="1" customWidth="1"/>
+    <col min="154" max="154" width="13.68359375" bestFit="1" customWidth="1"/>
+    <col min="155" max="155" width="9.41796875" bestFit="1" customWidth="1"/>
+    <col min="156" max="156" width="36.15625" bestFit="1" customWidth="1"/>
+    <col min="157" max="157" width="29.26171875" bestFit="1" customWidth="1"/>
+    <col min="158" max="158" width="10.15625" bestFit="1" customWidth="1"/>
     <col min="159" max="159" width="9" bestFit="1" customWidth="1"/>
-    <col min="160" max="161" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="162" max="162" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="163" max="163" width="19.5703125" bestFit="1" customWidth="1"/>
-    <col min="164" max="164" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="160" max="161" width="10.26171875" bestFit="1" customWidth="1"/>
+    <col min="162" max="162" width="11.15625" bestFit="1" customWidth="1"/>
+    <col min="163" max="163" width="19.578125" bestFit="1" customWidth="1"/>
+    <col min="164" max="164" width="11.15625" bestFit="1" customWidth="1"/>
     <col min="165" max="165" width="25" bestFit="1" customWidth="1"/>
-    <col min="166" max="166" width="5.140625" bestFit="1" customWidth="1"/>
-    <col min="167" max="167" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="166" max="166" width="5.15625" bestFit="1" customWidth="1"/>
+    <col min="167" max="167" width="17.41796875" bestFit="1" customWidth="1"/>
     <col min="168" max="168" width="10" bestFit="1" customWidth="1"/>
-    <col min="169" max="169" width="19.7109375" bestFit="1" customWidth="1"/>
-    <col min="170" max="170" width="31.85546875" bestFit="1" customWidth="1"/>
-    <col min="171" max="171" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="172" max="172" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="173" max="173" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="169" max="169" width="19.68359375" bestFit="1" customWidth="1"/>
+    <col min="170" max="170" width="31.83984375" bestFit="1" customWidth="1"/>
+    <col min="171" max="171" width="15.41796875" bestFit="1" customWidth="1"/>
+    <col min="172" max="172" width="10.68359375" bestFit="1" customWidth="1"/>
+    <col min="173" max="173" width="7.83984375" bestFit="1" customWidth="1"/>
     <col min="174" max="174" width="30" bestFit="1" customWidth="1"/>
-    <col min="175" max="175" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="176" max="176" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="177" max="177" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="175" max="175" width="11.578125" bestFit="1" customWidth="1"/>
+    <col min="176" max="176" width="12.68359375" bestFit="1" customWidth="1"/>
+    <col min="177" max="177" width="16.83984375" bestFit="1" customWidth="1"/>
     <col min="178" max="178" width="12" bestFit="1" customWidth="1"/>
-    <col min="179" max="179" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="180" max="180" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="181" max="181" width="26.7109375" bestFit="1" customWidth="1"/>
-    <col min="182" max="182" width="27.85546875" bestFit="1" customWidth="1"/>
-    <col min="183" max="183" width="8.28515625" bestFit="1" customWidth="1"/>
-    <col min="184" max="184" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="185" max="185" width="25.5703125" bestFit="1" customWidth="1"/>
-    <col min="186" max="186" width="19.28515625" bestFit="1" customWidth="1"/>
-    <col min="187" max="187" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="188" max="188" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="189" max="189" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="190" max="190" width="16.5703125" bestFit="1" customWidth="1"/>
-    <col min="191" max="191" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="179" max="179" width="13.578125" bestFit="1" customWidth="1"/>
+    <col min="180" max="180" width="13.41796875" bestFit="1" customWidth="1"/>
+    <col min="181" max="181" width="26.68359375" bestFit="1" customWidth="1"/>
+    <col min="182" max="182" width="27.83984375" bestFit="1" customWidth="1"/>
+    <col min="183" max="183" width="8.26171875" bestFit="1" customWidth="1"/>
+    <col min="184" max="184" width="9.68359375" bestFit="1" customWidth="1"/>
+    <col min="185" max="185" width="25.578125" bestFit="1" customWidth="1"/>
+    <col min="186" max="186" width="19.26171875" bestFit="1" customWidth="1"/>
+    <col min="187" max="187" width="10.578125" bestFit="1" customWidth="1"/>
+    <col min="188" max="188" width="11.578125" bestFit="1" customWidth="1"/>
+    <col min="189" max="189" width="8.68359375" bestFit="1" customWidth="1"/>
+    <col min="190" max="190" width="16.578125" bestFit="1" customWidth="1"/>
+    <col min="191" max="191" width="19.41796875" bestFit="1" customWidth="1"/>
     <col min="192" max="192" width="15" bestFit="1" customWidth="1"/>
-    <col min="193" max="193" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="194" max="194" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="195" max="195" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="196" max="196" width="32.140625" bestFit="1" customWidth="1"/>
-    <col min="197" max="197" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="198" max="198" width="6.140625" bestFit="1" customWidth="1"/>
+    <col min="193" max="193" width="15.41796875" bestFit="1" customWidth="1"/>
+    <col min="194" max="194" width="12.578125" bestFit="1" customWidth="1"/>
+    <col min="195" max="195" width="13.41796875" bestFit="1" customWidth="1"/>
+    <col min="196" max="196" width="32.15625" bestFit="1" customWidth="1"/>
+    <col min="197" max="197" width="13.26171875" bestFit="1" customWidth="1"/>
+    <col min="198" max="198" width="6.15625" bestFit="1" customWidth="1"/>
     <col min="199" max="199" width="18" bestFit="1" customWidth="1"/>
-    <col min="200" max="201" width="4.85546875" bestFit="1" customWidth="1"/>
-    <col min="202" max="202" width="24.140625" bestFit="1" customWidth="1"/>
-    <col min="203" max="203" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="204" max="204" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="205" max="205" width="25.7109375" bestFit="1" customWidth="1"/>
-    <col min="206" max="206" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="207" max="207" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="208" max="208" width="19.140625" bestFit="1" customWidth="1"/>
-    <col min="209" max="209" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="210" max="210" width="25.28515625" bestFit="1" customWidth="1"/>
-    <col min="211" max="211" width="7.140625" bestFit="1" customWidth="1"/>
-    <col min="212" max="212" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="213" max="213" width="19.28515625" bestFit="1" customWidth="1"/>
-    <col min="214" max="214" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="215" max="215" width="30.5703125" bestFit="1" customWidth="1"/>
-    <col min="216" max="216" width="26.5703125" bestFit="1" customWidth="1"/>
-    <col min="217" max="217" width="9.140625" bestFit="1" customWidth="1"/>
-    <col min="218" max="218" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="219" max="219" width="6.7109375" bestFit="1" customWidth="1"/>
-    <col min="220" max="220" width="22.7109375" bestFit="1" customWidth="1"/>
-    <col min="221" max="221" width="22.42578125" bestFit="1" customWidth="1"/>
+    <col min="200" max="201" width="4.83984375" bestFit="1" customWidth="1"/>
+    <col min="202" max="202" width="24.15625" bestFit="1" customWidth="1"/>
+    <col min="203" max="203" width="11.26171875" bestFit="1" customWidth="1"/>
+    <col min="204" max="204" width="10.68359375" bestFit="1" customWidth="1"/>
+    <col min="205" max="205" width="25.68359375" bestFit="1" customWidth="1"/>
+    <col min="206" max="206" width="12.26171875" bestFit="1" customWidth="1"/>
+    <col min="207" max="207" width="9.68359375" bestFit="1" customWidth="1"/>
+    <col min="208" max="208" width="19.15625" bestFit="1" customWidth="1"/>
+    <col min="209" max="209" width="9.83984375" bestFit="1" customWidth="1"/>
+    <col min="210" max="210" width="25.26171875" bestFit="1" customWidth="1"/>
+    <col min="211" max="211" width="7.15625" bestFit="1" customWidth="1"/>
+    <col min="212" max="212" width="12.15625" bestFit="1" customWidth="1"/>
+    <col min="213" max="213" width="19.26171875" bestFit="1" customWidth="1"/>
+    <col min="214" max="214" width="14.15625" bestFit="1" customWidth="1"/>
+    <col min="215" max="215" width="30.578125" bestFit="1" customWidth="1"/>
+    <col min="216" max="216" width="26.578125" bestFit="1" customWidth="1"/>
+    <col min="217" max="217" width="9.15625" bestFit="1" customWidth="1"/>
+    <col min="218" max="218" width="10.68359375" bestFit="1" customWidth="1"/>
+    <col min="219" max="219" width="6.68359375" bestFit="1" customWidth="1"/>
+    <col min="220" max="220" width="22.68359375" bestFit="1" customWidth="1"/>
+    <col min="221" max="221" width="22.41796875" bestFit="1" customWidth="1"/>
     <col min="222" max="222" width="22" bestFit="1" customWidth="1"/>
-    <col min="223" max="223" width="27.7109375" bestFit="1" customWidth="1"/>
-    <col min="224" max="224" width="20.28515625" bestFit="1" customWidth="1"/>
-    <col min="225" max="225" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="226" max="226" width="18.42578125" bestFit="1" customWidth="1"/>
-    <col min="227" max="227" width="37.5703125" bestFit="1" customWidth="1"/>
-    <col min="228" max="228" width="16.5703125" bestFit="1" customWidth="1"/>
-    <col min="229" max="229" width="5.28515625" bestFit="1" customWidth="1"/>
-    <col min="230" max="230" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="231" max="231" width="23.42578125" bestFit="1" customWidth="1"/>
+    <col min="223" max="223" width="27.68359375" bestFit="1" customWidth="1"/>
+    <col min="224" max="224" width="20.26171875" bestFit="1" customWidth="1"/>
+    <col min="225" max="225" width="16.83984375" bestFit="1" customWidth="1"/>
+    <col min="226" max="226" width="18.41796875" bestFit="1" customWidth="1"/>
+    <col min="227" max="227" width="37.578125" bestFit="1" customWidth="1"/>
+    <col min="228" max="228" width="16.578125" bestFit="1" customWidth="1"/>
+    <col min="229" max="229" width="5.26171875" bestFit="1" customWidth="1"/>
+    <col min="230" max="230" width="11.26171875" bestFit="1" customWidth="1"/>
+    <col min="231" max="231" width="23.41796875" bestFit="1" customWidth="1"/>
     <col min="232" max="232" width="12" bestFit="1" customWidth="1"/>
-    <col min="233" max="233" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="233" max="233" width="5.578125" bestFit="1" customWidth="1"/>
     <col min="234" max="234" width="8" bestFit="1" customWidth="1"/>
-    <col min="235" max="235" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="236" max="236" width="8.140625" bestFit="1" customWidth="1"/>
-    <col min="237" max="237" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="238" max="238" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="239" max="239" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="240" max="240" width="44.28515625" bestFit="1" customWidth="1"/>
-    <col min="241" max="241" width="44.5703125" bestFit="1" customWidth="1"/>
+    <col min="235" max="235" width="12.26171875" bestFit="1" customWidth="1"/>
+    <col min="236" max="236" width="8.15625" bestFit="1" customWidth="1"/>
+    <col min="237" max="237" width="18.578125" bestFit="1" customWidth="1"/>
+    <col min="238" max="238" width="14.41796875" bestFit="1" customWidth="1"/>
+    <col min="239" max="239" width="9.578125" bestFit="1" customWidth="1"/>
+    <col min="240" max="240" width="44.26171875" bestFit="1" customWidth="1"/>
+    <col min="241" max="241" width="44.578125" bestFit="1" customWidth="1"/>
     <col min="242" max="242" width="17" bestFit="1" customWidth="1"/>
-    <col min="243" max="243" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="244" max="244" width="37.28515625" bestFit="1" customWidth="1"/>
-    <col min="245" max="245" width="40.140625" bestFit="1" customWidth="1"/>
-    <col min="246" max="246" width="44.7109375" bestFit="1" customWidth="1"/>
-    <col min="247" max="247" width="6.28515625" bestFit="1" customWidth="1"/>
-    <col min="248" max="248" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="249" max="249" width="23.140625" bestFit="1" customWidth="1"/>
-    <col min="250" max="250" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="251" max="251" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="243" max="243" width="9.578125" bestFit="1" customWidth="1"/>
+    <col min="244" max="244" width="37.26171875" bestFit="1" customWidth="1"/>
+    <col min="245" max="245" width="40.15625" bestFit="1" customWidth="1"/>
+    <col min="246" max="246" width="44.68359375" bestFit="1" customWidth="1"/>
+    <col min="247" max="247" width="6.26171875" bestFit="1" customWidth="1"/>
+    <col min="248" max="248" width="11.15625" bestFit="1" customWidth="1"/>
+    <col min="249" max="249" width="23.15625" bestFit="1" customWidth="1"/>
+    <col min="250" max="250" width="11.578125" bestFit="1" customWidth="1"/>
+    <col min="251" max="251" width="8.68359375" bestFit="1" customWidth="1"/>
     <col min="252" max="252" width="14" bestFit="1" customWidth="1"/>
-    <col min="253" max="253" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="253" max="253" width="6.68359375" bestFit="1" customWidth="1"/>
     <col min="254" max="254" width="20" bestFit="1" customWidth="1"/>
-    <col min="255" max="255" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="255" max="255" width="15.41796875" bestFit="1" customWidth="1"/>
     <col min="256" max="256" width="21" bestFit="1" customWidth="1"/>
-    <col min="257" max="257" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="258" max="258" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="259" max="259" width="23.28515625" bestFit="1" customWidth="1"/>
-    <col min="260" max="260" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="261" max="261" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="262" max="262" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="263" max="263" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="264" max="264" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="266" max="266" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="267" max="267" width="28.140625" bestFit="1" customWidth="1"/>
-    <col min="268" max="268" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="270" max="270" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="271" max="271" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="272" max="272" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="257" max="257" width="14.578125" bestFit="1" customWidth="1"/>
+    <col min="258" max="258" width="10.68359375" bestFit="1" customWidth="1"/>
+    <col min="259" max="259" width="23.26171875" bestFit="1" customWidth="1"/>
+    <col min="260" max="260" width="16.68359375" bestFit="1" customWidth="1"/>
+    <col min="261" max="261" width="16.83984375" bestFit="1" customWidth="1"/>
+    <col min="262" max="262" width="18.578125" bestFit="1" customWidth="1"/>
+    <col min="263" max="263" width="11.15625" bestFit="1" customWidth="1"/>
+    <col min="264" max="264" width="10.578125" bestFit="1" customWidth="1"/>
+    <col min="266" max="266" width="12.15625" bestFit="1" customWidth="1"/>
+    <col min="267" max="267" width="28.15625" bestFit="1" customWidth="1"/>
+    <col min="268" max="268" width="13.68359375" bestFit="1" customWidth="1"/>
+    <col min="270" max="270" width="16.15625" bestFit="1" customWidth="1"/>
+    <col min="271" max="271" width="11.68359375" bestFit="1" customWidth="1"/>
+    <col min="272" max="272" width="13.26171875" bestFit="1" customWidth="1"/>
     <col min="273" max="273" width="7" bestFit="1" customWidth="1"/>
-    <col min="274" max="274" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="275" max="275" width="25.140625" bestFit="1" customWidth="1"/>
-    <col min="276" max="276" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="277" max="279" width="8.85546875" bestFit="1" customWidth="1"/>
-    <col min="280" max="280" width="39.42578125" bestFit="1" customWidth="1"/>
+    <col min="274" max="274" width="11.26171875" bestFit="1" customWidth="1"/>
+    <col min="275" max="275" width="25.15625" bestFit="1" customWidth="1"/>
+    <col min="276" max="276" width="7.41796875" bestFit="1" customWidth="1"/>
+    <col min="277" max="279" width="8.83984375" bestFit="1" customWidth="1"/>
+    <col min="280" max="280" width="39.41796875" bestFit="1" customWidth="1"/>
     <col min="281" max="281" width="10" bestFit="1" customWidth="1"/>
-    <col min="282" max="282" width="17.42578125" bestFit="1" customWidth="1"/>
-    <col min="283" max="283" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="284" max="284" width="21.7109375" bestFit="1" customWidth="1"/>
-    <col min="285" max="285" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="282" max="282" width="17.41796875" bestFit="1" customWidth="1"/>
+    <col min="283" max="283" width="12.83984375" bestFit="1" customWidth="1"/>
+    <col min="284" max="284" width="21.68359375" bestFit="1" customWidth="1"/>
+    <col min="285" max="285" width="9.578125" bestFit="1" customWidth="1"/>
     <col min="286" max="286" width="6" bestFit="1" customWidth="1"/>
-    <col min="287" max="287" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="288" max="288" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="289" max="289" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="290" max="290" width="6.85546875" bestFit="1" customWidth="1"/>
-    <col min="291" max="291" width="4.7109375" bestFit="1" customWidth="1"/>
-    <col min="292" max="292" width="6.140625" bestFit="1" customWidth="1"/>
-    <col min="293" max="293" width="32.140625" bestFit="1" customWidth="1"/>
-    <col min="294" max="294" width="4.85546875" bestFit="1" customWidth="1"/>
-    <col min="295" max="295" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="296" max="296" width="18.85546875" bestFit="1" customWidth="1"/>
-    <col min="297" max="297" width="4.85546875" bestFit="1" customWidth="1"/>
-    <col min="298" max="298" width="23.5703125" bestFit="1" customWidth="1"/>
-    <col min="299" max="299" width="6.85546875" bestFit="1" customWidth="1"/>
-    <col min="300" max="300" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="301" max="302" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="303" max="303" width="25.5703125" bestFit="1" customWidth="1"/>
-    <col min="304" max="304" width="24.5703125" bestFit="1" customWidth="1"/>
-    <col min="305" max="305" width="30.28515625" bestFit="1" customWidth="1"/>
-    <col min="306" max="306" width="25.7109375" bestFit="1" customWidth="1"/>
-    <col min="307" max="307" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="308" max="308" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="287" max="287" width="7.41796875" bestFit="1" customWidth="1"/>
+    <col min="288" max="288" width="18.578125" bestFit="1" customWidth="1"/>
+    <col min="289" max="289" width="14.578125" bestFit="1" customWidth="1"/>
+    <col min="290" max="290" width="6.83984375" bestFit="1" customWidth="1"/>
+    <col min="291" max="291" width="4.68359375" bestFit="1" customWidth="1"/>
+    <col min="292" max="292" width="6.15625" bestFit="1" customWidth="1"/>
+    <col min="293" max="293" width="32.15625" bestFit="1" customWidth="1"/>
+    <col min="294" max="294" width="4.83984375" bestFit="1" customWidth="1"/>
+    <col min="295" max="295" width="16.68359375" bestFit="1" customWidth="1"/>
+    <col min="296" max="296" width="18.83984375" bestFit="1" customWidth="1"/>
+    <col min="297" max="297" width="4.83984375" bestFit="1" customWidth="1"/>
+    <col min="298" max="298" width="23.578125" bestFit="1" customWidth="1"/>
+    <col min="299" max="299" width="6.83984375" bestFit="1" customWidth="1"/>
+    <col min="300" max="300" width="11.41796875" bestFit="1" customWidth="1"/>
+    <col min="301" max="302" width="12.83984375" bestFit="1" customWidth="1"/>
+    <col min="303" max="303" width="25.578125" bestFit="1" customWidth="1"/>
+    <col min="304" max="304" width="24.578125" bestFit="1" customWidth="1"/>
+    <col min="305" max="305" width="30.26171875" bestFit="1" customWidth="1"/>
+    <col min="306" max="306" width="25.68359375" bestFit="1" customWidth="1"/>
+    <col min="307" max="307" width="15.83984375" bestFit="1" customWidth="1"/>
+    <col min="308" max="308" width="12.41796875" bestFit="1" customWidth="1"/>
     <col min="309" max="309" width="9" bestFit="1" customWidth="1"/>
     <col min="310" max="310" width="12" bestFit="1" customWidth="1"/>
-    <col min="311" max="311" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="312" max="312" width="16.5703125" bestFit="1" customWidth="1"/>
-    <col min="313" max="313" width="7.140625" bestFit="1" customWidth="1"/>
-    <col min="314" max="314" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="315" max="315" width="9.140625" bestFit="1" customWidth="1"/>
-    <col min="316" max="316" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="311" max="311" width="9.41796875" bestFit="1" customWidth="1"/>
+    <col min="312" max="312" width="16.578125" bestFit="1" customWidth="1"/>
+    <col min="313" max="313" width="7.15625" bestFit="1" customWidth="1"/>
+    <col min="314" max="314" width="13.41796875" bestFit="1" customWidth="1"/>
+    <col min="315" max="315" width="9.15625" bestFit="1" customWidth="1"/>
+    <col min="316" max="316" width="7.578125" bestFit="1" customWidth="1"/>
     <col min="317" max="317" width="9" bestFit="1" customWidth="1"/>
     <col min="318" max="318" width="10" bestFit="1" customWidth="1"/>
-    <col min="319" max="320" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="321" max="321" width="30.85546875" bestFit="1" customWidth="1"/>
-    <col min="322" max="322" width="17.5703125" bestFit="1" customWidth="1"/>
-    <col min="323" max="323" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="324" max="324" width="4.140625" bestFit="1" customWidth="1"/>
+    <col min="319" max="320" width="11.41796875" bestFit="1" customWidth="1"/>
+    <col min="321" max="321" width="30.83984375" bestFit="1" customWidth="1"/>
+    <col min="322" max="322" width="17.578125" bestFit="1" customWidth="1"/>
+    <col min="323" max="323" width="9.83984375" bestFit="1" customWidth="1"/>
+    <col min="324" max="324" width="4.15625" bestFit="1" customWidth="1"/>
     <col min="325" max="325" width="8" bestFit="1" customWidth="1"/>
-    <col min="326" max="326" width="6.7109375" bestFit="1" customWidth="1"/>
-    <col min="327" max="327" width="26.5703125" bestFit="1" customWidth="1"/>
-    <col min="328" max="328" width="28.42578125" bestFit="1" customWidth="1"/>
-    <col min="329" max="329" width="27.85546875" bestFit="1" customWidth="1"/>
-    <col min="330" max="330" width="51.28515625" bestFit="1" customWidth="1"/>
-    <col min="331" max="331" width="6.140625" bestFit="1" customWidth="1"/>
-    <col min="332" max="332" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="333" max="333" width="20.42578125" bestFit="1" customWidth="1"/>
-    <col min="334" max="334" width="37.5703125" bestFit="1" customWidth="1"/>
-    <col min="335" max="335" width="23.5703125" bestFit="1" customWidth="1"/>
+    <col min="326" max="326" width="6.68359375" bestFit="1" customWidth="1"/>
+    <col min="327" max="327" width="26.578125" bestFit="1" customWidth="1"/>
+    <col min="328" max="328" width="28.41796875" bestFit="1" customWidth="1"/>
+    <col min="329" max="329" width="27.83984375" bestFit="1" customWidth="1"/>
+    <col min="330" max="330" width="51.26171875" bestFit="1" customWidth="1"/>
+    <col min="331" max="331" width="6.15625" bestFit="1" customWidth="1"/>
+    <col min="332" max="332" width="13.41796875" bestFit="1" customWidth="1"/>
+    <col min="333" max="333" width="20.41796875" bestFit="1" customWidth="1"/>
+    <col min="334" max="334" width="37.578125" bestFit="1" customWidth="1"/>
+    <col min="335" max="335" width="23.578125" bestFit="1" customWidth="1"/>
     <col min="336" max="336" width="25" bestFit="1" customWidth="1"/>
-    <col min="337" max="337" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="338" max="338" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="339" max="339" width="8.28515625" bestFit="1" customWidth="1"/>
-    <col min="340" max="340" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="341" max="341" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="337" max="337" width="13.578125" bestFit="1" customWidth="1"/>
+    <col min="338" max="338" width="13.15625" bestFit="1" customWidth="1"/>
+    <col min="339" max="339" width="8.26171875" bestFit="1" customWidth="1"/>
+    <col min="340" max="340" width="12.578125" bestFit="1" customWidth="1"/>
+    <col min="341" max="341" width="11.26171875" bestFit="1" customWidth="1"/>
     <col min="342" max="342" width="18" bestFit="1" customWidth="1"/>
-    <col min="343" max="343" width="18.85546875" bestFit="1" customWidth="1"/>
-    <col min="344" max="344" width="21.7109375" bestFit="1" customWidth="1"/>
-    <col min="345" max="345" width="21.5703125" bestFit="1" customWidth="1"/>
-    <col min="347" max="347" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="348" max="348" width="21.7109375" bestFit="1" customWidth="1"/>
-    <col min="349" max="349" width="25.85546875" bestFit="1" customWidth="1"/>
-    <col min="350" max="350" width="22.28515625" bestFit="1" customWidth="1"/>
-    <col min="351" max="351" width="7.85546875" bestFit="1" customWidth="1"/>
-    <col min="352" max="352" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="353" max="353" width="23.140625" bestFit="1" customWidth="1"/>
-    <col min="354" max="354" width="34.28515625" bestFit="1" customWidth="1"/>
-    <col min="355" max="355" width="21.7109375" bestFit="1" customWidth="1"/>
-    <col min="356" max="356" width="18.85546875" bestFit="1" customWidth="1"/>
-    <col min="357" max="357" width="18.28515625" bestFit="1" customWidth="1"/>
-    <col min="358" max="358" width="21.7109375" bestFit="1" customWidth="1"/>
-    <col min="359" max="359" width="18.140625" bestFit="1" customWidth="1"/>
-    <col min="360" max="360" width="23.28515625" bestFit="1" customWidth="1"/>
-    <col min="361" max="361" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="362" max="362" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="363" max="363" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="364" max="364" width="20.7109375" bestFit="1" customWidth="1"/>
-    <col min="365" max="365" width="18.140625" bestFit="1" customWidth="1"/>
-    <col min="366" max="366" width="22.85546875" bestFit="1" customWidth="1"/>
-    <col min="367" max="367" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="368" max="368" width="18.42578125" bestFit="1" customWidth="1"/>
-    <col min="369" max="369" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="370" max="370" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="371" max="371" width="17.7109375" bestFit="1" customWidth="1"/>
-    <col min="372" max="372" width="27.7109375" bestFit="1" customWidth="1"/>
-    <col min="373" max="373" width="22.28515625" bestFit="1" customWidth="1"/>
-    <col min="374" max="374" width="18.140625" bestFit="1" customWidth="1"/>
-    <col min="375" max="375" width="19.5703125" bestFit="1" customWidth="1"/>
-    <col min="376" max="376" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="377" max="377" width="26.85546875" bestFit="1" customWidth="1"/>
-    <col min="378" max="378" width="39.140625" bestFit="1" customWidth="1"/>
-    <col min="379" max="379" width="18.28515625" bestFit="1" customWidth="1"/>
-    <col min="380" max="380" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="381" max="381" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="382" max="382" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="383" max="383" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="384" max="384" width="20.5703125" bestFit="1" customWidth="1"/>
-    <col min="385" max="385" width="18.85546875" bestFit="1" customWidth="1"/>
-    <col min="386" max="386" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="343" max="343" width="18.83984375" bestFit="1" customWidth="1"/>
+    <col min="344" max="344" width="21.68359375" bestFit="1" customWidth="1"/>
+    <col min="345" max="345" width="21.578125" bestFit="1" customWidth="1"/>
+    <col min="347" max="347" width="15.41796875" bestFit="1" customWidth="1"/>
+    <col min="348" max="348" width="21.68359375" bestFit="1" customWidth="1"/>
+    <col min="349" max="349" width="25.83984375" bestFit="1" customWidth="1"/>
+    <col min="350" max="350" width="22.26171875" bestFit="1" customWidth="1"/>
+    <col min="351" max="351" width="7.83984375" bestFit="1" customWidth="1"/>
+    <col min="352" max="352" width="12.41796875" bestFit="1" customWidth="1"/>
+    <col min="353" max="353" width="23.15625" bestFit="1" customWidth="1"/>
+    <col min="354" max="354" width="34.26171875" bestFit="1" customWidth="1"/>
+    <col min="355" max="355" width="21.68359375" bestFit="1" customWidth="1"/>
+    <col min="356" max="356" width="18.83984375" bestFit="1" customWidth="1"/>
+    <col min="357" max="357" width="18.26171875" bestFit="1" customWidth="1"/>
+    <col min="358" max="358" width="21.68359375" bestFit="1" customWidth="1"/>
+    <col min="359" max="359" width="18.15625" bestFit="1" customWidth="1"/>
+    <col min="360" max="360" width="23.26171875" bestFit="1" customWidth="1"/>
+    <col min="361" max="361" width="10.578125" bestFit="1" customWidth="1"/>
+    <col min="362" max="362" width="16.15625" bestFit="1" customWidth="1"/>
+    <col min="363" max="363" width="16.26171875" bestFit="1" customWidth="1"/>
+    <col min="364" max="364" width="20.68359375" bestFit="1" customWidth="1"/>
+    <col min="365" max="365" width="18.15625" bestFit="1" customWidth="1"/>
+    <col min="366" max="366" width="22.83984375" bestFit="1" customWidth="1"/>
+    <col min="367" max="367" width="18.578125" bestFit="1" customWidth="1"/>
+    <col min="368" max="368" width="18.41796875" bestFit="1" customWidth="1"/>
+    <col min="369" max="369" width="14.68359375" bestFit="1" customWidth="1"/>
+    <col min="370" max="370" width="12.68359375" bestFit="1" customWidth="1"/>
+    <col min="371" max="371" width="17.68359375" bestFit="1" customWidth="1"/>
+    <col min="372" max="372" width="27.68359375" bestFit="1" customWidth="1"/>
+    <col min="373" max="373" width="22.26171875" bestFit="1" customWidth="1"/>
+    <col min="374" max="374" width="18.15625" bestFit="1" customWidth="1"/>
+    <col min="375" max="375" width="19.578125" bestFit="1" customWidth="1"/>
+    <col min="376" max="376" width="9.41796875" bestFit="1" customWidth="1"/>
+    <col min="377" max="377" width="26.83984375" bestFit="1" customWidth="1"/>
+    <col min="378" max="378" width="39.15625" bestFit="1" customWidth="1"/>
+    <col min="379" max="379" width="18.26171875" bestFit="1" customWidth="1"/>
+    <col min="380" max="380" width="12.68359375" bestFit="1" customWidth="1"/>
+    <col min="381" max="381" width="16.83984375" bestFit="1" customWidth="1"/>
+    <col min="382" max="382" width="13.68359375" bestFit="1" customWidth="1"/>
+    <col min="383" max="383" width="14.83984375" bestFit="1" customWidth="1"/>
+    <col min="384" max="384" width="20.578125" bestFit="1" customWidth="1"/>
+    <col min="385" max="385" width="18.83984375" bestFit="1" customWidth="1"/>
+    <col min="386" max="386" width="11.41796875" bestFit="1" customWidth="1"/>
     <col min="387" max="387" width="16" bestFit="1" customWidth="1"/>
-    <col min="388" max="388" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="388" max="388" width="19.578125" bestFit="1" customWidth="1"/>
     <col min="389" max="389" width="15" bestFit="1" customWidth="1"/>
-    <col min="390" max="390" width="18.28515625" bestFit="1" customWidth="1"/>
-    <col min="391" max="391" width="39.42578125" bestFit="1" customWidth="1"/>
-    <col min="392" max="392" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="393" max="393" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="394" max="394" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="395" max="395" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="396" max="396" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="397" max="397" width="29.28515625" bestFit="1" customWidth="1"/>
-    <col min="398" max="398" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="390" max="390" width="18.26171875" bestFit="1" customWidth="1"/>
+    <col min="391" max="391" width="39.41796875" bestFit="1" customWidth="1"/>
+    <col min="392" max="392" width="17.26171875" bestFit="1" customWidth="1"/>
+    <col min="393" max="393" width="19.83984375" bestFit="1" customWidth="1"/>
+    <col min="394" max="394" width="13.68359375" bestFit="1" customWidth="1"/>
+    <col min="395" max="395" width="15.578125" bestFit="1" customWidth="1"/>
+    <col min="396" max="396" width="14.26171875" bestFit="1" customWidth="1"/>
+    <col min="397" max="397" width="29.26171875" bestFit="1" customWidth="1"/>
+    <col min="398" max="398" width="13.68359375" bestFit="1" customWidth="1"/>
     <col min="399" max="399" width="5" bestFit="1" customWidth="1"/>
-    <col min="400" max="400" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="400" max="400" width="14.26171875" bestFit="1" customWidth="1"/>
     <col min="401" max="401" width="20" bestFit="1" customWidth="1"/>
-    <col min="402" max="402" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="402" max="402" width="10.26171875" bestFit="1" customWidth="1"/>
     <col min="403" max="403" width="30" bestFit="1" customWidth="1"/>
-    <col min="404" max="404" width="6.28515625" bestFit="1" customWidth="1"/>
-    <col min="405" max="405" width="8.42578125" bestFit="1" customWidth="1"/>
-    <col min="406" max="406" width="9.140625" bestFit="1" customWidth="1"/>
-    <col min="407" max="409" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="410" max="410" width="8.28515625" bestFit="1" customWidth="1"/>
-    <col min="411" max="411" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="412" max="412" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="413" max="413" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="414" max="414" width="3.5703125" bestFit="1" customWidth="1"/>
-    <col min="415" max="415" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="416" max="416" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="417" max="417" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="418" max="418" width="27.5703125" bestFit="1" customWidth="1"/>
-    <col min="419" max="419" width="6.85546875" bestFit="1" customWidth="1"/>
-    <col min="420" max="420" width="24.140625" bestFit="1" customWidth="1"/>
-    <col min="421" max="421" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="422" max="422" width="17.5703125" bestFit="1" customWidth="1"/>
-    <col min="423" max="423" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="424" max="424" width="20.5703125" bestFit="1" customWidth="1"/>
-    <col min="425" max="425" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="426" max="426" width="25.7109375" bestFit="1" customWidth="1"/>
-    <col min="427" max="427" width="36.42578125" bestFit="1" customWidth="1"/>
-    <col min="428" max="428" width="28.28515625" bestFit="1" customWidth="1"/>
-    <col min="429" max="429" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="404" max="404" width="6.26171875" bestFit="1" customWidth="1"/>
+    <col min="405" max="405" width="8.41796875" bestFit="1" customWidth="1"/>
+    <col min="406" max="406" width="9.15625" bestFit="1" customWidth="1"/>
+    <col min="407" max="409" width="10.578125" bestFit="1" customWidth="1"/>
+    <col min="410" max="410" width="8.26171875" bestFit="1" customWidth="1"/>
+    <col min="411" max="411" width="14.41796875" bestFit="1" customWidth="1"/>
+    <col min="412" max="412" width="14.578125" bestFit="1" customWidth="1"/>
+    <col min="413" max="413" width="11.83984375" bestFit="1" customWidth="1"/>
+    <col min="414" max="414" width="3.578125" bestFit="1" customWidth="1"/>
+    <col min="415" max="415" width="8.68359375" bestFit="1" customWidth="1"/>
+    <col min="416" max="416" width="15.83984375" bestFit="1" customWidth="1"/>
+    <col min="417" max="417" width="7.41796875" bestFit="1" customWidth="1"/>
+    <col min="418" max="418" width="27.578125" bestFit="1" customWidth="1"/>
+    <col min="419" max="419" width="6.83984375" bestFit="1" customWidth="1"/>
+    <col min="420" max="420" width="24.15625" bestFit="1" customWidth="1"/>
+    <col min="421" max="421" width="14.83984375" bestFit="1" customWidth="1"/>
+    <col min="422" max="422" width="17.578125" bestFit="1" customWidth="1"/>
+    <col min="423" max="423" width="16.83984375" bestFit="1" customWidth="1"/>
+    <col min="424" max="424" width="20.578125" bestFit="1" customWidth="1"/>
+    <col min="425" max="425" width="15.15625" bestFit="1" customWidth="1"/>
+    <col min="426" max="426" width="25.68359375" bestFit="1" customWidth="1"/>
+    <col min="427" max="427" width="36.41796875" bestFit="1" customWidth="1"/>
+    <col min="428" max="428" width="28.26171875" bestFit="1" customWidth="1"/>
+    <col min="429" max="429" width="12.578125" bestFit="1" customWidth="1"/>
     <col min="430" max="430" width="19" bestFit="1" customWidth="1"/>
-    <col min="432" max="432" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="433" max="433" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="432" max="432" width="12.26171875" bestFit="1" customWidth="1"/>
+    <col min="433" max="433" width="20.41796875" bestFit="1" customWidth="1"/>
     <col min="434" max="434" width="14" bestFit="1" customWidth="1"/>
-    <col min="435" max="435" width="3.28515625" bestFit="1" customWidth="1"/>
+    <col min="435" max="435" width="3.26171875" bestFit="1" customWidth="1"/>
     <col min="436" max="436" width="7" bestFit="1" customWidth="1"/>
-    <col min="437" max="437" width="24.7109375" bestFit="1" customWidth="1"/>
-    <col min="438" max="438" width="24.5703125" bestFit="1" customWidth="1"/>
-    <col min="439" max="439" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="437" max="437" width="24.68359375" bestFit="1" customWidth="1"/>
+    <col min="438" max="438" width="24.578125" bestFit="1" customWidth="1"/>
+    <col min="439" max="439" width="18.41796875" bestFit="1" customWidth="1"/>
     <col min="440" max="440" width="20" bestFit="1" customWidth="1"/>
-    <col min="441" max="441" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="442" max="442" width="20.85546875" bestFit="1" customWidth="1"/>
-    <col min="443" max="443" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="444" max="444" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="445" max="445" width="26.5703125" bestFit="1" customWidth="1"/>
-    <col min="446" max="446" width="6.7109375" bestFit="1" customWidth="1"/>
-    <col min="447" max="447" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="448" max="448" width="8.85546875" bestFit="1" customWidth="1"/>
-    <col min="449" max="449" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="441" max="441" width="16.83984375" bestFit="1" customWidth="1"/>
+    <col min="442" max="442" width="20.83984375" bestFit="1" customWidth="1"/>
+    <col min="443" max="443" width="11.578125" bestFit="1" customWidth="1"/>
+    <col min="444" max="444" width="11.41796875" bestFit="1" customWidth="1"/>
+    <col min="445" max="445" width="26.578125" bestFit="1" customWidth="1"/>
+    <col min="446" max="446" width="6.68359375" bestFit="1" customWidth="1"/>
+    <col min="447" max="447" width="10.578125" bestFit="1" customWidth="1"/>
+    <col min="448" max="448" width="8.83984375" bestFit="1" customWidth="1"/>
+    <col min="449" max="449" width="11.26171875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18">
@@ -40201,7 +40159,7 @@
         <v>869</v>
       </c>
       <c r="I22" s="55">
-        <f ca="1">AVERAGE(Masterlist!B2:'Masterlist'!B5065)</f>
+        <f>AVERAGE(Masterlist!B2:'Masterlist'!B5065)</f>
         <v>60.373443983402488</v>
       </c>
       <c r="P22" s="7">
@@ -40233,7 +40191,7 @@
         <v>870</v>
       </c>
       <c r="I23" s="56">
-        <f ca="1">MEDIAN(Masterlist!B2:'Masterlist'!B5065)</f>
+        <f>MEDIAN(Masterlist!B2:'Masterlist'!B5065)</f>
         <v>71</v>
       </c>
       <c r="P23" s="7">
@@ -40265,7 +40223,7 @@
         <v>871</v>
       </c>
       <c r="I24" s="48">
-        <f ca="1">MODE(Masterlist!B2:'Masterlist'!B5065)</f>
+        <f>MODE(Masterlist!B2:'Masterlist'!B5065)</f>
         <v>88</v>
       </c>
       <c r="P24" s="7">
@@ -42307,22 +42265,22 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="15" customWidth="1"/>
     <col min="2" max="2" width="30" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.7109375" customWidth="1"/>
-    <col min="4" max="4" width="1.5703125" customWidth="1"/>
+    <col min="3" max="3" width="23.68359375" customWidth="1"/>
+    <col min="4" max="4" width="1.578125" customWidth="1"/>
     <col min="5" max="5" width="17" customWidth="1"/>
     <col min="6" max="6" width="20" customWidth="1"/>
-    <col min="7" max="7" width="24.28515625" customWidth="1"/>
+    <col min="7" max="7" width="24.26171875" customWidth="1"/>
     <col min="8" max="8" width="25" customWidth="1"/>
   </cols>
   <sheetData>
@@ -42736,28 +42694,28 @@
       <c r="C31" s="4"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:C31" xr:uid="{00000000-0009-0000-0000-000002000000}"/>
+  <autoFilter ref="A1:C31"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G65"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="19" style="7" customWidth="1"/>
-    <col min="2" max="2" width="20.140625" style="7" customWidth="1"/>
+    <col min="2" max="2" width="20.15625" style="7" customWidth="1"/>
     <col min="3" max="3" width="19" style="7" customWidth="1"/>
-    <col min="4" max="4" width="15.28515625" style="7" customWidth="1"/>
-    <col min="5" max="5" width="7.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.26171875" style="7" customWidth="1"/>
+    <col min="5" max="5" width="7.68359375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.41796875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.26171875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">

--- a/src/data/MovieMovieMovies.xlsx
+++ b/src/data/MovieMovieMovies.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\johnh\uvic\fun\movie_site\my-movie-site\src\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AEA54E7-E948-49BC-8252-AF7040DCAA36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1A170F7-5BA6-4C33-A322-722F8E8B7EE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29145,8 +29145,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S815"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="L1" sqref="L1:L1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A56" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="C64" sqref="C64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -32259,7 +32259,7 @@
         <v>93</v>
       </c>
       <c r="C63" s="26" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="E63" s="28" t="s">
         <v>228</v>
